--- a/vgp_database/Bishop_tuff.xlsx
+++ b/vgp_database/Bishop_tuff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="116">
   <si>
     <t>Name:</t>
   </si>
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Bishop Tuff</t>
+  </si>
+  <si>
+    <t>average slat/slon estimated from map in order to enable VGPs to be calculated</t>
   </si>
   <si>
     <t>B2</t>
@@ -417,7 +420,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +429,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FF4285F4"/>
+        <bgColor rgb="FF4285F4"/>
       </patternFill>
     </fill>
     <fill>
@@ -438,8 +441,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -486,7 +501,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -501,13 +516,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -516,10 +531,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,13 +558,22 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1389,9 +1413,9 @@
       <c r="I9" s="20">
         <v>8.9</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
@@ -1444,7 +1468,9 @@
       <c r="AJ9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK9" s="33"/>
+      <c r="AK9" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="AL9" s="27"/>
       <c r="AN9" s="27"/>
       <c r="AO9" s="27"/>
@@ -1453,7 +1479,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>64</v>
@@ -1479,9 +1505,9 @@
       <c r="I10" s="20">
         <v>6.9</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
@@ -1534,7 +1560,9 @@
       <c r="AJ10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK10" s="33"/>
+      <c r="AK10" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="AL10" s="27"/>
       <c r="AN10" s="27"/>
       <c r="AO10" s="27"/>
@@ -1543,7 +1571,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>64</v>
@@ -1569,9 +1597,9 @@
       <c r="I11" s="20">
         <v>3.8</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
@@ -1624,7 +1652,9 @@
       <c r="AJ11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK11" s="34"/>
+      <c r="AK11" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="AL11" s="27"/>
       <c r="AN11" s="27"/>
       <c r="AO11" s="27"/>
@@ -1633,7 +1663,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>64</v>
@@ -1659,9 +1689,9 @@
       <c r="I12" s="20">
         <v>3.6</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
@@ -1714,15 +1744,17 @@
       <c r="AJ12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="34"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
+      <c r="AK12" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>64</v>
@@ -1748,9 +1780,9 @@
       <c r="I13" s="20">
         <v>3.7</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -1803,15 +1835,17 @@
       <c r="AJ13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK13" s="34"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
+      <c r="AK13" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>64</v>
@@ -1837,9 +1871,9 @@
       <c r="I14" s="20">
         <v>6.2</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
@@ -1892,15 +1926,17 @@
       <c r="AJ14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="34"/>
-      <c r="AQ14" s="34"/>
+      <c r="AK14" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>64</v>
@@ -1926,9 +1962,9 @@
       <c r="I15" s="20">
         <v>2.4</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
@@ -1981,15 +2017,17 @@
       <c r="AJ15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
+      <c r="AK15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>64</v>
@@ -2015,9 +2053,9 @@
       <c r="I16" s="20">
         <v>2.3</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
@@ -2070,15 +2108,17 @@
       <c r="AJ16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
+      <c r="AK16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>64</v>
@@ -2104,9 +2144,9 @@
       <c r="I17" s="20">
         <v>3.5</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -2159,15 +2199,17 @@
       <c r="AJ17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="34"/>
-      <c r="AQ17" s="34"/>
+      <c r="AK17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>64</v>
@@ -2193,9 +2235,9 @@
       <c r="I18" s="20">
         <v>2.5</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
@@ -2248,15 +2290,17 @@
       <c r="AJ18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK18" s="33"/>
-      <c r="AN18" s="34"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="34"/>
-      <c r="AQ18" s="34"/>
+      <c r="AK18" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>64</v>
@@ -2282,9 +2326,9 @@
       <c r="I19" s="20">
         <v>6.0</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -2337,15 +2381,17 @@
       <c r="AJ19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK19" s="33"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
+      <c r="AK19" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>64</v>
@@ -2371,9 +2417,9 @@
       <c r="I20" s="20">
         <v>3.6</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
@@ -2426,15 +2472,17 @@
       <c r="AJ20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK20" s="33"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
+      <c r="AK20" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>64</v>
@@ -2460,9 +2508,9 @@
       <c r="I21" s="20">
         <v>3.8</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
@@ -2515,15 +2563,17 @@
       <c r="AJ21" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
+      <c r="AK21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>64</v>
@@ -2549,9 +2599,9 @@
       <c r="I22" s="20">
         <v>9.0</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
@@ -2604,15 +2654,17 @@
       <c r="AJ22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
+      <c r="AK22" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>64</v>
@@ -2638,9 +2690,9 @@
       <c r="I23" s="20">
         <v>3.7</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -2693,15 +2745,17 @@
       <c r="AJ23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
+      <c r="AK23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>64</v>
@@ -2727,9 +2781,9 @@
       <c r="I24" s="20">
         <v>2.9</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
@@ -2782,15 +2836,17 @@
       <c r="AJ24" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
+      <c r="AK24" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>64</v>
@@ -2816,9 +2872,9 @@
       <c r="I25" s="20">
         <v>3.4</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
@@ -2871,15 +2927,17 @@
       <c r="AJ25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK25" s="33"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="33"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="33"/>
+      <c r="AK25" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="35"/>
+      <c r="AP25" s="35"/>
+      <c r="AQ25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>64</v>
@@ -2905,9 +2963,9 @@
       <c r="I26" s="20">
         <v>6.1</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -2960,15 +3018,17 @@
       <c r="AJ26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
+      <c r="AK26" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>64</v>
@@ -2994,9 +3054,9 @@
       <c r="I27" s="20">
         <v>2.2</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -3049,15 +3109,17 @@
       <c r="AJ27" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
+      <c r="AK27" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN27" s="35"/>
+      <c r="AO27" s="35"/>
+      <c r="AP27" s="35"/>
+      <c r="AQ27" s="35"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>64</v>
@@ -3083,9 +3145,9 @@
       <c r="I28" s="20">
         <v>3.5</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
@@ -3138,15 +3200,17 @@
       <c r="AJ28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
-      <c r="AQ28" s="33"/>
+      <c r="AK28" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN28" s="35"/>
+      <c r="AO28" s="35"/>
+      <c r="AP28" s="35"/>
+      <c r="AQ28" s="35"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>64</v>
@@ -3172,9 +3236,9 @@
       <c r="I29" s="20">
         <v>2.0</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="19"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
@@ -3227,15 +3291,17 @@
       <c r="AJ29" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
+      <c r="AK29" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>64</v>
@@ -3261,9 +3327,9 @@
       <c r="I30" s="20">
         <v>4.1</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
@@ -3316,15 +3382,17 @@
       <c r="AJ30" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
+      <c r="AK30" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN30" s="35"/>
+      <c r="AO30" s="35"/>
+      <c r="AP30" s="35"/>
+      <c r="AQ30" s="35"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>64</v>
@@ -3350,9 +3418,9 @@
       <c r="I31" s="20">
         <v>3.9</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
@@ -3405,15 +3473,17 @@
       <c r="AJ31" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="33"/>
+      <c r="AK31" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>64</v>
@@ -3439,9 +3509,9 @@
       <c r="I32" s="20">
         <v>5.2</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
@@ -3494,15 +3564,17 @@
       <c r="AJ32" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
+      <c r="AK32" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="35"/>
+      <c r="AQ32" s="35"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>64</v>
@@ -3528,9 +3600,9 @@
       <c r="I33" s="20">
         <v>6.8</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
@@ -3583,15 +3655,17 @@
       <c r="AJ33" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
+      <c r="AK33" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="35"/>
+      <c r="AQ33" s="35"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>64</v>
@@ -3617,9 +3691,9 @@
       <c r="I34" s="20">
         <v>6.0</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
@@ -3672,15 +3746,17 @@
       <c r="AJ34" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
+      <c r="AK34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="35"/>
+      <c r="AP34" s="35"/>
+      <c r="AQ34" s="35"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>64</v>
@@ -3706,9 +3782,9 @@
       <c r="I35" s="20">
         <v>2.5</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
@@ -3761,15 +3837,17 @@
       <c r="AJ35" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="33"/>
+      <c r="AK35" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>64</v>
@@ -3795,9 +3873,9 @@
       <c r="I36" s="20">
         <v>24.3</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
@@ -3850,15 +3928,17 @@
       <c r="AJ36" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
+      <c r="AK36" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="35"/>
+      <c r="AQ36" s="35"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>64</v>
@@ -3884,9 +3964,9 @@
       <c r="I37" s="20">
         <v>4.1</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
@@ -3939,15 +4019,17 @@
       <c r="AJ37" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="33"/>
+      <c r="AK37" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="35"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>64</v>
@@ -3973,9 +4055,9 @@
       <c r="I38" s="20">
         <v>3.1</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
@@ -4028,15 +4110,17 @@
       <c r="AJ38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
+      <c r="AK38" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>64</v>
@@ -4062,9 +4146,9 @@
       <c r="I39" s="20">
         <v>4.6</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
@@ -4117,15 +4201,17 @@
       <c r="AJ39" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK39" s="33"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="33"/>
+      <c r="AK39" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>64</v>
@@ -4151,9 +4237,9 @@
       <c r="I40" s="20">
         <v>6.4</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
@@ -4206,15 +4292,17 @@
       <c r="AJ40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK40" s="33"/>
-      <c r="AN40" s="33"/>
-      <c r="AO40" s="33"/>
-      <c r="AP40" s="33"/>
-      <c r="AQ40" s="33"/>
+      <c r="AK40" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>64</v>
@@ -4240,9 +4328,9 @@
       <c r="I41" s="20">
         <v>8.4</v>
       </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
@@ -4295,15 +4383,17 @@
       <c r="AJ41" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK41" s="33"/>
-      <c r="AN41" s="33"/>
-      <c r="AO41" s="33"/>
-      <c r="AP41" s="33"/>
-      <c r="AQ41" s="33"/>
+      <c r="AK41" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="35"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>64</v>
@@ -4329,9 +4419,9 @@
       <c r="I42" s="16">
         <v>6.2</v>
       </c>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
@@ -4384,15 +4474,17 @@
       <c r="AJ42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK42" s="33"/>
-      <c r="AN42" s="33"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
+      <c r="AK42" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="35"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="35"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>64</v>
@@ -4418,9 +4510,9 @@
       <c r="I43" s="20">
         <v>16.4</v>
       </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
@@ -4473,15 +4565,17 @@
       <c r="AJ43" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK43" s="33"/>
-      <c r="AN43" s="33"/>
-      <c r="AO43" s="33"/>
-      <c r="AP43" s="33"/>
-      <c r="AQ43" s="33"/>
+      <c r="AK43" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN43" s="35"/>
+      <c r="AO43" s="35"/>
+      <c r="AP43" s="35"/>
+      <c r="AQ43" s="35"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>64</v>
@@ -4507,9 +4601,9 @@
       <c r="I44" s="20">
         <v>2.9</v>
       </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
@@ -4562,15 +4656,17 @@
       <c r="AJ44" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK44" s="33"/>
-      <c r="AN44" s="33"/>
-      <c r="AO44" s="33"/>
-      <c r="AP44" s="33"/>
-      <c r="AQ44" s="33"/>
+      <c r="AK44" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN44" s="35"/>
+      <c r="AO44" s="35"/>
+      <c r="AP44" s="35"/>
+      <c r="AQ44" s="35"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>64</v>
@@ -4596,9 +4692,9 @@
       <c r="I45" s="20">
         <v>8.5</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
@@ -4651,15 +4747,17 @@
       <c r="AJ45" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK45" s="33"/>
-      <c r="AN45" s="33"/>
-      <c r="AO45" s="33"/>
-      <c r="AP45" s="33"/>
-      <c r="AQ45" s="33"/>
+      <c r="AK45" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN45" s="35"/>
+      <c r="AO45" s="35"/>
+      <c r="AP45" s="35"/>
+      <c r="AQ45" s="35"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>64</v>
@@ -4685,9 +4783,9 @@
       <c r="I46" s="20">
         <v>1.9</v>
       </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
@@ -4740,15 +4838,17 @@
       <c r="AJ46" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK46" s="33"/>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="33"/>
-      <c r="AQ46" s="33"/>
+      <c r="AK46" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="35"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>64</v>
@@ -4774,9 +4874,9 @@
       <c r="I47" s="20">
         <v>10.8</v>
       </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
@@ -4829,15 +4929,17 @@
       <c r="AJ47" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK47" s="33"/>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="33"/>
-      <c r="AP47" s="33"/>
-      <c r="AQ47" s="33"/>
+      <c r="AK47" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35"/>
+      <c r="AQ47" s="35"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>64</v>
@@ -4863,9 +4965,9 @@
       <c r="I48" s="20">
         <v>3.6</v>
       </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
@@ -4918,15 +5020,17 @@
       <c r="AJ48" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK48" s="33"/>
-      <c r="AN48" s="33"/>
-      <c r="AO48" s="33"/>
-      <c r="AP48" s="33"/>
-      <c r="AQ48" s="33"/>
+      <c r="AK48" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="35"/>
+      <c r="AQ48" s="35"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>64</v>
@@ -4952,9 +5056,9 @@
       <c r="I49" s="20">
         <v>3.5</v>
       </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
@@ -5007,15 +5111,17 @@
       <c r="AJ49" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK49" s="33"/>
-      <c r="AN49" s="33"/>
-      <c r="AO49" s="33"/>
-      <c r="AP49" s="33"/>
-      <c r="AQ49" s="33"/>
+      <c r="AK49" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="35"/>
+      <c r="AQ49" s="35"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>64</v>
@@ -5041,9 +5147,9 @@
       <c r="I50" s="20">
         <v>4.8</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
@@ -5096,15 +5202,17 @@
       <c r="AJ50" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK50" s="33"/>
-      <c r="AN50" s="33"/>
-      <c r="AO50" s="33"/>
-      <c r="AP50" s="33"/>
-      <c r="AQ50" s="33"/>
+      <c r="AK50" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="35"/>
+      <c r="AQ50" s="35"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>64</v>
@@ -5130,9 +5238,9 @@
       <c r="I51" s="20">
         <v>2.2</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
@@ -5185,15 +5293,17 @@
       <c r="AJ51" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK51" s="33"/>
-      <c r="AN51" s="33"/>
-      <c r="AO51" s="33"/>
-      <c r="AP51" s="33"/>
-      <c r="AQ51" s="33"/>
+      <c r="AK51" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="35"/>
+      <c r="AQ51" s="35"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>64</v>
@@ -5219,9 +5329,9 @@
       <c r="I52" s="20">
         <v>2.6</v>
       </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
@@ -5274,15 +5384,17 @@
       <c r="AJ52" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK52" s="33"/>
-      <c r="AN52" s="33"/>
-      <c r="AO52" s="33"/>
-      <c r="AP52" s="33"/>
-      <c r="AQ52" s="33"/>
+      <c r="AK52" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="35"/>
+      <c r="AQ52" s="35"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>64</v>
@@ -5308,9 +5420,9 @@
       <c r="I53" s="20">
         <v>1.4</v>
       </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
@@ -5363,15 +5475,17 @@
       <c r="AJ53" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK53" s="33"/>
-      <c r="AN53" s="33"/>
-      <c r="AO53" s="33"/>
-      <c r="AP53" s="33"/>
-      <c r="AQ53" s="33"/>
+      <c r="AK53" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="35"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>64</v>
@@ -5397,9 +5511,9 @@
       <c r="I54" s="20">
         <v>4.1</v>
       </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
@@ -5425,7 +5539,7 @@
         <v>44</v>
       </c>
       <c r="Y54" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z54" s="23"/>
       <c r="AA54" s="23"/>
@@ -5452,15 +5566,17 @@
       <c r="AJ54" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK54" s="33"/>
-      <c r="AN54" s="33"/>
-      <c r="AO54" s="33"/>
-      <c r="AP54" s="33"/>
-      <c r="AQ54" s="33"/>
+      <c r="AK54" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="35"/>
+      <c r="AQ54" s="35"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>64</v>
@@ -5480,13 +5596,13 @@
       <c r="G55" s="32">
         <v>59.3</v>
       </c>
-      <c r="H55" s="35"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="20">
         <v>4.7</v>
       </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="19"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
@@ -5512,7 +5628,7 @@
         <v>44</v>
       </c>
       <c r="Y55" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z55" s="23"/>
       <c r="AA55" s="23"/>
@@ -5539,15 +5655,17 @@
       <c r="AJ55" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK55" s="33"/>
-      <c r="AN55" s="33"/>
-      <c r="AO55" s="33"/>
-      <c r="AP55" s="33"/>
-      <c r="AQ55" s="33"/>
+      <c r="AK55" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="35"/>
+      <c r="AQ55" s="35"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>64</v>
@@ -5573,9 +5691,9 @@
       <c r="I56" s="20">
         <v>1.9</v>
       </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
@@ -5614,7 +5732,7 @@
       </c>
       <c r="AE56" s="19"/>
       <c r="AF56" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG56" s="21">
         <v>1.0</v>
@@ -5626,37 +5744,41 @@
       <c r="AJ56" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AK56" s="33"/>
-      <c r="AN56" s="33"/>
-      <c r="AO56" s="33"/>
-      <c r="AP56" s="33"/>
-      <c r="AQ56" s="33"/>
+      <c r="AK56" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN56" s="35"/>
+      <c r="AO56" s="35"/>
+      <c r="AP56" s="35"/>
+      <c r="AQ56" s="35"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="AK57" s="33"/>
-      <c r="AL57" s="33"/>
-      <c r="AN57" s="33"/>
-      <c r="AO57" s="33"/>
-      <c r="AP57" s="33"/>
-      <c r="AQ57" s="33"/>
+      <c r="AK57" s="35"/>
+      <c r="AL57" s="35"/>
+      <c r="AN57" s="35"/>
+      <c r="AO57" s="35"/>
+      <c r="AP57" s="35"/>
+      <c r="AQ57" s="35"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="AL58" s="33"/>
-      <c r="AM58" s="33"/>
-      <c r="AN58" s="33"/>
-      <c r="AO58" s="33"/>
-      <c r="AP58" s="33"/>
-      <c r="AQ58" s="33"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="AL58" s="35"/>
+      <c r="AM58" s="35"/>
+      <c r="AN58" s="35"/>
+      <c r="AO58" s="35"/>
+      <c r="AP58" s="35"/>
+      <c r="AQ58" s="35"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="21"/>
-      <c r="AL59" s="33"/>
-      <c r="AM59" s="33"/>
-      <c r="AN59" s="33"/>
-      <c r="AO59" s="33"/>
-      <c r="AP59" s="33"/>
-      <c r="AQ59" s="33"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="35"/>
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35"/>
+      <c r="AQ59" s="35"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="27"/>
@@ -5668,8 +5790,8 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
@@ -5713,8 +5835,8 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
       <c r="L61" s="27"/>
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
@@ -5758,8 +5880,8 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
       <c r="L62" s="27"/>
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
@@ -5803,8 +5925,8 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
       <c r="L63" s="27"/>
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
@@ -5848,8 +5970,8 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
       <c r="L64" s="27"/>
       <c r="M64" s="27"/>
       <c r="N64" s="27"/>
@@ -5893,8 +6015,8 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
       <c r="L65" s="27"/>
       <c r="M65" s="27"/>
       <c r="N65" s="27"/>
@@ -5938,8 +6060,8 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
       <c r="L66" s="27"/>
       <c r="M66" s="27"/>
       <c r="N66" s="27"/>
@@ -5983,8 +6105,8 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
       <c r="L67" s="27"/>
       <c r="M67" s="27"/>
       <c r="N67" s="27"/>
@@ -6028,8 +6150,8 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
       <c r="L68" s="27"/>
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
@@ -6073,8 +6195,8 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
       <c r="L69" s="27"/>
       <c r="M69" s="27"/>
       <c r="N69" s="27"/>
@@ -6118,8 +6240,8 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
       <c r="L70" s="27"/>
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
@@ -6163,8 +6285,8 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
       <c r="L71" s="27"/>
       <c r="M71" s="27"/>
       <c r="N71" s="27"/>
@@ -6208,8 +6330,8 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
       <c r="L72" s="27"/>
       <c r="M72" s="27"/>
       <c r="N72" s="27"/>
@@ -6253,8 +6375,8 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
       <c r="L73" s="27"/>
       <c r="M73" s="27"/>
       <c r="N73" s="27"/>
@@ -6298,8 +6420,8 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
       <c r="L74" s="27"/>
       <c r="M74" s="27"/>
       <c r="N74" s="27"/>
@@ -6343,8 +6465,8 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
       <c r="L75" s="27"/>
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
@@ -6388,8 +6510,8 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
       <c r="L76" s="27"/>
       <c r="M76" s="27"/>
       <c r="N76" s="27"/>
@@ -6433,8 +6555,8 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
       <c r="L77" s="27"/>
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
@@ -6478,8 +6600,8 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
       <c r="L78" s="27"/>
       <c r="M78" s="27"/>
       <c r="N78" s="27"/>
@@ -6523,8 +6645,8 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
       <c r="L79" s="27"/>
       <c r="M79" s="27"/>
       <c r="N79" s="27"/>
@@ -6568,8 +6690,8 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
       <c r="L80" s="27"/>
       <c r="M80" s="27"/>
       <c r="N80" s="27"/>
@@ -6613,8 +6735,8 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
       <c r="L81" s="27"/>
       <c r="M81" s="27"/>
       <c r="N81" s="27"/>
@@ -6658,8 +6780,8 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
       <c r="L82" s="27"/>
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
@@ -6703,8 +6825,8 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
       <c r="L83" s="27"/>
       <c r="M83" s="27"/>
       <c r="N83" s="27"/>
@@ -6748,8 +6870,8 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
       <c r="L84" s="27"/>
       <c r="M84" s="27"/>
       <c r="N84" s="27"/>
@@ -6793,8 +6915,8 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
       <c r="L85" s="27"/>
       <c r="M85" s="27"/>
       <c r="N85" s="27"/>
@@ -6838,8 +6960,8 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
       <c r="L86" s="27"/>
       <c r="M86" s="27"/>
       <c r="N86" s="27"/>
@@ -6883,8 +7005,8 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
       <c r="L87" s="27"/>
       <c r="M87" s="27"/>
       <c r="N87" s="27"/>
@@ -6928,8 +7050,8 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
       <c r="L88" s="27"/>
       <c r="M88" s="27"/>
       <c r="N88" s="27"/>
@@ -6973,8 +7095,8 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
       <c r="L89" s="27"/>
       <c r="M89" s="27"/>
       <c r="N89" s="27"/>
@@ -7018,8 +7140,8 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
       <c r="L90" s="27"/>
       <c r="M90" s="27"/>
       <c r="N90" s="27"/>
@@ -7063,8 +7185,8 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
       <c r="L91" s="27"/>
       <c r="M91" s="27"/>
       <c r="N91" s="27"/>
@@ -7108,8 +7230,8 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
       <c r="L92" s="27"/>
       <c r="M92" s="27"/>
       <c r="N92" s="27"/>
@@ -7153,8 +7275,8 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
       <c r="L93" s="27"/>
       <c r="M93" s="27"/>
       <c r="N93" s="27"/>
@@ -7198,8 +7320,8 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
       <c r="L94" s="27"/>
       <c r="M94" s="27"/>
       <c r="N94" s="27"/>
@@ -7243,8 +7365,8 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
       <c r="L95" s="27"/>
       <c r="M95" s="27"/>
       <c r="N95" s="27"/>
@@ -7288,8 +7410,8 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
       <c r="L96" s="27"/>
       <c r="M96" s="27"/>
       <c r="N96" s="27"/>
@@ -7333,8 +7455,8 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
       <c r="L97" s="27"/>
       <c r="M97" s="27"/>
       <c r="N97" s="27"/>
@@ -7378,8 +7500,8 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
       <c r="L98" s="27"/>
       <c r="M98" s="27"/>
       <c r="N98" s="27"/>
@@ -7423,8 +7545,8 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
       <c r="L99" s="27"/>
       <c r="M99" s="27"/>
       <c r="N99" s="27"/>
@@ -7468,8 +7590,8 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
       <c r="L100" s="27"/>
       <c r="M100" s="27"/>
       <c r="N100" s="27"/>
@@ -7513,8 +7635,8 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
       <c r="L101" s="27"/>
       <c r="M101" s="27"/>
       <c r="N101" s="27"/>
@@ -7558,8 +7680,8 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="39"/>
       <c r="L102" s="27"/>
       <c r="M102" s="27"/>
       <c r="N102" s="27"/>
@@ -7603,8 +7725,8 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="39"/>
       <c r="L103" s="27"/>
       <c r="M103" s="27"/>
       <c r="N103" s="27"/>
@@ -7648,8 +7770,8 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="39"/>
       <c r="L104" s="27"/>
       <c r="M104" s="27"/>
       <c r="N104" s="27"/>
@@ -7693,8 +7815,8 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
       <c r="L105" s="27"/>
       <c r="M105" s="27"/>
       <c r="N105" s="27"/>
@@ -7738,8 +7860,8 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="39"/>
       <c r="L106" s="27"/>
       <c r="M106" s="27"/>
       <c r="N106" s="27"/>
@@ -7783,8 +7905,8 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
       <c r="L107" s="27"/>
       <c r="M107" s="27"/>
       <c r="N107" s="27"/>
@@ -7828,8 +7950,8 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="39"/>
       <c r="L108" s="27"/>
       <c r="M108" s="27"/>
       <c r="N108" s="27"/>
@@ -7873,8 +7995,8 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
       <c r="L109" s="27"/>
       <c r="M109" s="27"/>
       <c r="N109" s="27"/>
@@ -7918,8 +8040,8 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
       <c r="L110" s="27"/>
       <c r="M110" s="27"/>
       <c r="N110" s="27"/>
@@ -7963,8 +8085,8 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
       <c r="L111" s="27"/>
       <c r="M111" s="27"/>
       <c r="N111" s="27"/>
@@ -8008,8 +8130,8 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="39"/>
       <c r="L112" s="27"/>
       <c r="M112" s="27"/>
       <c r="N112" s="27"/>
@@ -8053,8 +8175,8 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
       <c r="L113" s="27"/>
       <c r="M113" s="27"/>
       <c r="N113" s="27"/>
@@ -8098,8 +8220,8 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="39"/>
       <c r="L114" s="27"/>
       <c r="M114" s="27"/>
       <c r="N114" s="27"/>
@@ -8143,8 +8265,8 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="39"/>
       <c r="L115" s="27"/>
       <c r="M115" s="27"/>
       <c r="N115" s="27"/>
@@ -8188,8 +8310,8 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
       <c r="L116" s="27"/>
       <c r="M116" s="27"/>
       <c r="N116" s="27"/>
@@ -8233,8 +8355,8 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
       <c r="L117" s="27"/>
       <c r="M117" s="27"/>
       <c r="N117" s="27"/>
@@ -8278,8 +8400,8 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="39"/>
       <c r="L118" s="27"/>
       <c r="M118" s="27"/>
       <c r="N118" s="27"/>
@@ -8323,8 +8445,8 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
       <c r="L119" s="27"/>
       <c r="M119" s="27"/>
       <c r="N119" s="27"/>
@@ -8368,8 +8490,8 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="39"/>
       <c r="L120" s="27"/>
       <c r="M120" s="27"/>
       <c r="N120" s="27"/>
@@ -8413,8 +8535,8 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
       <c r="L121" s="27"/>
       <c r="M121" s="27"/>
       <c r="N121" s="27"/>
@@ -8458,8 +8580,8 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="39"/>
       <c r="L122" s="27"/>
       <c r="M122" s="27"/>
       <c r="N122" s="27"/>
@@ -8503,8 +8625,8 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
       <c r="L123" s="27"/>
       <c r="M123" s="27"/>
       <c r="N123" s="27"/>
@@ -8548,8 +8670,8 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
       <c r="L124" s="27"/>
       <c r="M124" s="27"/>
       <c r="N124" s="27"/>
@@ -8593,8 +8715,8 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
       <c r="L125" s="27"/>
       <c r="M125" s="27"/>
       <c r="N125" s="27"/>
@@ -8638,8 +8760,8 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
       <c r="L126" s="27"/>
       <c r="M126" s="27"/>
       <c r="N126" s="27"/>
@@ -8683,8 +8805,8 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
       <c r="L127" s="27"/>
       <c r="M127" s="27"/>
       <c r="N127" s="27"/>
@@ -8728,8 +8850,8 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
+      <c r="J128" s="39"/>
+      <c r="K128" s="39"/>
       <c r="L128" s="27"/>
       <c r="M128" s="27"/>
       <c r="N128" s="27"/>
@@ -8773,8 +8895,8 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="39"/>
       <c r="L129" s="27"/>
       <c r="M129" s="27"/>
       <c r="N129" s="27"/>
@@ -8818,8 +8940,8 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="39"/>
       <c r="L130" s="27"/>
       <c r="M130" s="27"/>
       <c r="N130" s="27"/>
@@ -8863,8 +8985,8 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
       <c r="L131" s="27"/>
       <c r="M131" s="27"/>
       <c r="N131" s="27"/>
@@ -8908,8 +9030,8 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
       <c r="L132" s="27"/>
       <c r="M132" s="27"/>
       <c r="N132" s="27"/>
@@ -8953,8 +9075,8 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
       <c r="L133" s="27"/>
       <c r="M133" s="27"/>
       <c r="N133" s="27"/>
@@ -8998,8 +9120,8 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="39"/>
       <c r="L134" s="27"/>
       <c r="M134" s="27"/>
       <c r="N134" s="27"/>
@@ -9043,8 +9165,8 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
       <c r="L135" s="27"/>
       <c r="M135" s="27"/>
       <c r="N135" s="27"/>
@@ -9088,8 +9210,8 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
       <c r="L136" s="27"/>
       <c r="M136" s="27"/>
       <c r="N136" s="27"/>
@@ -9133,8 +9255,8 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="39"/>
       <c r="L137" s="27"/>
       <c r="M137" s="27"/>
       <c r="N137" s="27"/>
@@ -9178,8 +9300,8 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
+      <c r="J138" s="39"/>
+      <c r="K138" s="39"/>
       <c r="L138" s="27"/>
       <c r="M138" s="27"/>
       <c r="N138" s="27"/>
@@ -9223,8 +9345,8 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="39"/>
       <c r="L139" s="27"/>
       <c r="M139" s="27"/>
       <c r="N139" s="27"/>
@@ -9268,8 +9390,8 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="39"/>
       <c r="L140" s="27"/>
       <c r="M140" s="27"/>
       <c r="N140" s="27"/>
@@ -9313,8 +9435,8 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="39"/>
       <c r="L141" s="27"/>
       <c r="M141" s="27"/>
       <c r="N141" s="27"/>
@@ -9358,8 +9480,8 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="39"/>
       <c r="L142" s="27"/>
       <c r="M142" s="27"/>
       <c r="N142" s="27"/>
@@ -9403,8 +9525,8 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="39"/>
       <c r="L143" s="27"/>
       <c r="M143" s="27"/>
       <c r="N143" s="27"/>
@@ -9448,8 +9570,8 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="36"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="39"/>
       <c r="L144" s="27"/>
       <c r="M144" s="27"/>
       <c r="N144" s="27"/>
@@ -9493,8 +9615,8 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="36"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="39"/>
       <c r="L145" s="27"/>
       <c r="M145" s="27"/>
       <c r="N145" s="27"/>
@@ -9538,8 +9660,8 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="36"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="39"/>
       <c r="L146" s="27"/>
       <c r="M146" s="27"/>
       <c r="N146" s="27"/>
@@ -9583,8 +9705,8 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="39"/>
       <c r="L147" s="27"/>
       <c r="M147" s="27"/>
       <c r="N147" s="27"/>
@@ -9628,8 +9750,8 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="36"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="39"/>
       <c r="L148" s="27"/>
       <c r="M148" s="27"/>
       <c r="N148" s="27"/>
@@ -9673,8 +9795,8 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="36"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="39"/>
       <c r="L149" s="27"/>
       <c r="M149" s="27"/>
       <c r="N149" s="27"/>
@@ -9718,8 +9840,8 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="39"/>
       <c r="L150" s="27"/>
       <c r="M150" s="27"/>
       <c r="N150" s="27"/>
@@ -9763,8 +9885,8 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="39"/>
       <c r="L151" s="27"/>
       <c r="M151" s="27"/>
       <c r="N151" s="27"/>
@@ -9808,8 +9930,8 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="39"/>
       <c r="L152" s="27"/>
       <c r="M152" s="27"/>
       <c r="N152" s="27"/>
@@ -9853,8 +9975,8 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="39"/>
       <c r="L153" s="27"/>
       <c r="M153" s="27"/>
       <c r="N153" s="27"/>
@@ -9898,8 +10020,8 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="39"/>
       <c r="L154" s="27"/>
       <c r="M154" s="27"/>
       <c r="N154" s="27"/>
@@ -9943,8 +10065,8 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="36"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="39"/>
       <c r="L155" s="27"/>
       <c r="M155" s="27"/>
       <c r="N155" s="27"/>
@@ -9988,8 +10110,8 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="39"/>
       <c r="L156" s="27"/>
       <c r="M156" s="27"/>
       <c r="N156" s="27"/>
@@ -10033,8 +10155,8 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="36"/>
+      <c r="J157" s="39"/>
+      <c r="K157" s="39"/>
       <c r="L157" s="27"/>
       <c r="M157" s="27"/>
       <c r="N157" s="27"/>
@@ -10078,8 +10200,8 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="36"/>
+      <c r="J158" s="39"/>
+      <c r="K158" s="39"/>
       <c r="L158" s="27"/>
       <c r="M158" s="27"/>
       <c r="N158" s="27"/>
@@ -10123,8 +10245,8 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="36"/>
+      <c r="J159" s="39"/>
+      <c r="K159" s="39"/>
       <c r="L159" s="27"/>
       <c r="M159" s="27"/>
       <c r="N159" s="27"/>
@@ -10168,8 +10290,8 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
+      <c r="J160" s="39"/>
+      <c r="K160" s="39"/>
       <c r="L160" s="27"/>
       <c r="M160" s="27"/>
       <c r="N160" s="27"/>
@@ -10213,8 +10335,8 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="36"/>
+      <c r="J161" s="39"/>
+      <c r="K161" s="39"/>
       <c r="L161" s="27"/>
       <c r="M161" s="27"/>
       <c r="N161" s="27"/>
@@ -10258,8 +10380,8 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="36"/>
+      <c r="J162" s="39"/>
+      <c r="K162" s="39"/>
       <c r="L162" s="27"/>
       <c r="M162" s="27"/>
       <c r="N162" s="27"/>
@@ -10303,8 +10425,8 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="36"/>
+      <c r="J163" s="39"/>
+      <c r="K163" s="39"/>
       <c r="L163" s="27"/>
       <c r="M163" s="27"/>
       <c r="N163" s="27"/>
@@ -10348,8 +10470,8 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
+      <c r="J164" s="39"/>
+      <c r="K164" s="39"/>
       <c r="L164" s="27"/>
       <c r="M164" s="27"/>
       <c r="N164" s="27"/>
@@ -10393,8 +10515,8 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
+      <c r="J165" s="39"/>
+      <c r="K165" s="39"/>
       <c r="L165" s="27"/>
       <c r="M165" s="27"/>
       <c r="N165" s="27"/>
@@ -10438,8 +10560,8 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="39"/>
       <c r="L166" s="27"/>
       <c r="M166" s="27"/>
       <c r="N166" s="27"/>
@@ -10483,8 +10605,8 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
+      <c r="J167" s="39"/>
+      <c r="K167" s="39"/>
       <c r="L167" s="27"/>
       <c r="M167" s="27"/>
       <c r="N167" s="27"/>
@@ -10528,8 +10650,8 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="36"/>
+      <c r="J168" s="39"/>
+      <c r="K168" s="39"/>
       <c r="L168" s="27"/>
       <c r="M168" s="27"/>
       <c r="N168" s="27"/>
@@ -10573,8 +10695,8 @@
       <c r="G169" s="27"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
+      <c r="J169" s="39"/>
+      <c r="K169" s="39"/>
       <c r="L169" s="27"/>
       <c r="M169" s="27"/>
       <c r="N169" s="27"/>
@@ -10618,8 +10740,8 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="36"/>
+      <c r="J170" s="39"/>
+      <c r="K170" s="39"/>
       <c r="L170" s="27"/>
       <c r="M170" s="27"/>
       <c r="N170" s="27"/>
@@ -10663,8 +10785,8 @@
       <c r="G171" s="27"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="39"/>
       <c r="L171" s="27"/>
       <c r="M171" s="27"/>
       <c r="N171" s="27"/>
@@ -10708,8 +10830,8 @@
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="36"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="39"/>
       <c r="L172" s="27"/>
       <c r="M172" s="27"/>
       <c r="N172" s="27"/>
@@ -10753,8 +10875,8 @@
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
+      <c r="J173" s="39"/>
+      <c r="K173" s="39"/>
       <c r="L173" s="27"/>
       <c r="M173" s="27"/>
       <c r="N173" s="27"/>
@@ -10798,8 +10920,8 @@
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="36"/>
+      <c r="J174" s="39"/>
+      <c r="K174" s="39"/>
       <c r="L174" s="27"/>
       <c r="M174" s="27"/>
       <c r="N174" s="27"/>
@@ -10843,8 +10965,8 @@
       <c r="G175" s="27"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
       <c r="L175" s="27"/>
       <c r="M175" s="27"/>
       <c r="N175" s="27"/>
@@ -10888,8 +11010,8 @@
       <c r="G176" s="27"/>
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36"/>
+      <c r="J176" s="39"/>
+      <c r="K176" s="39"/>
       <c r="L176" s="27"/>
       <c r="M176" s="27"/>
       <c r="N176" s="27"/>
@@ -10933,8 +11055,8 @@
       <c r="G177" s="27"/>
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="36"/>
+      <c r="J177" s="39"/>
+      <c r="K177" s="39"/>
       <c r="L177" s="27"/>
       <c r="M177" s="27"/>
       <c r="N177" s="27"/>
@@ -10978,8 +11100,8 @@
       <c r="G178" s="27"/>
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
+      <c r="J178" s="39"/>
+      <c r="K178" s="39"/>
       <c r="L178" s="27"/>
       <c r="M178" s="27"/>
       <c r="N178" s="27"/>
@@ -11023,8 +11145,8 @@
       <c r="G179" s="27"/>
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
+      <c r="J179" s="39"/>
+      <c r="K179" s="39"/>
       <c r="L179" s="27"/>
       <c r="M179" s="27"/>
       <c r="N179" s="27"/>
@@ -11068,8 +11190,8 @@
       <c r="G180" s="27"/>
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="36"/>
+      <c r="J180" s="39"/>
+      <c r="K180" s="39"/>
       <c r="L180" s="27"/>
       <c r="M180" s="27"/>
       <c r="N180" s="27"/>
@@ -11113,8 +11235,8 @@
       <c r="G181" s="27"/>
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
+      <c r="J181" s="39"/>
+      <c r="K181" s="39"/>
       <c r="L181" s="27"/>
       <c r="M181" s="27"/>
       <c r="N181" s="27"/>
@@ -11158,8 +11280,8 @@
       <c r="G182" s="27"/>
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
+      <c r="J182" s="39"/>
+      <c r="K182" s="39"/>
       <c r="L182" s="27"/>
       <c r="M182" s="27"/>
       <c r="N182" s="27"/>
@@ -11203,8 +11325,8 @@
       <c r="G183" s="27"/>
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
+      <c r="J183" s="39"/>
+      <c r="K183" s="39"/>
       <c r="L183" s="27"/>
       <c r="M183" s="27"/>
       <c r="N183" s="27"/>
@@ -11248,8 +11370,8 @@
       <c r="G184" s="27"/>
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="39"/>
       <c r="L184" s="27"/>
       <c r="M184" s="27"/>
       <c r="N184" s="27"/>
@@ -11293,8 +11415,8 @@
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="36"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="39"/>
       <c r="L185" s="27"/>
       <c r="M185" s="27"/>
       <c r="N185" s="27"/>
@@ -11338,8 +11460,8 @@
       <c r="G186" s="27"/>
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="39"/>
       <c r="L186" s="27"/>
       <c r="M186" s="27"/>
       <c r="N186" s="27"/>
@@ -11383,8 +11505,8 @@
       <c r="G187" s="27"/>
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="36"/>
+      <c r="J187" s="39"/>
+      <c r="K187" s="39"/>
       <c r="L187" s="27"/>
       <c r="M187" s="27"/>
       <c r="N187" s="27"/>
@@ -11428,8 +11550,8 @@
       <c r="G188" s="27"/>
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
+      <c r="J188" s="39"/>
+      <c r="K188" s="39"/>
       <c r="L188" s="27"/>
       <c r="M188" s="27"/>
       <c r="N188" s="27"/>
@@ -11473,8 +11595,8 @@
       <c r="G189" s="27"/>
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
+      <c r="J189" s="39"/>
+      <c r="K189" s="39"/>
       <c r="L189" s="27"/>
       <c r="M189" s="27"/>
       <c r="N189" s="27"/>
@@ -11518,8 +11640,8 @@
       <c r="G190" s="27"/>
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="36"/>
+      <c r="J190" s="39"/>
+      <c r="K190" s="39"/>
       <c r="L190" s="27"/>
       <c r="M190" s="27"/>
       <c r="N190" s="27"/>
@@ -11563,8 +11685,8 @@
       <c r="G191" s="27"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
+      <c r="J191" s="39"/>
+      <c r="K191" s="39"/>
       <c r="L191" s="27"/>
       <c r="M191" s="27"/>
       <c r="N191" s="27"/>
@@ -11608,8 +11730,8 @@
       <c r="G192" s="27"/>
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
+      <c r="J192" s="39"/>
+      <c r="K192" s="39"/>
       <c r="L192" s="27"/>
       <c r="M192" s="27"/>
       <c r="N192" s="27"/>
@@ -11653,8 +11775,8 @@
       <c r="G193" s="27"/>
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
+      <c r="J193" s="39"/>
+      <c r="K193" s="39"/>
       <c r="L193" s="27"/>
       <c r="M193" s="27"/>
       <c r="N193" s="27"/>
@@ -11698,8 +11820,8 @@
       <c r="G194" s="27"/>
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
-      <c r="J194" s="36"/>
-      <c r="K194" s="36"/>
+      <c r="J194" s="39"/>
+      <c r="K194" s="39"/>
       <c r="L194" s="27"/>
       <c r="M194" s="27"/>
       <c r="N194" s="27"/>
@@ -11743,8 +11865,8 @@
       <c r="G195" s="27"/>
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
-      <c r="J195" s="36"/>
-      <c r="K195" s="36"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="39"/>
       <c r="L195" s="27"/>
       <c r="M195" s="27"/>
       <c r="N195" s="27"/>
@@ -11788,8 +11910,8 @@
       <c r="G196" s="27"/>
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
-      <c r="J196" s="36"/>
-      <c r="K196" s="36"/>
+      <c r="J196" s="39"/>
+      <c r="K196" s="39"/>
       <c r="L196" s="27"/>
       <c r="M196" s="27"/>
       <c r="N196" s="27"/>
@@ -11833,8 +11955,8 @@
       <c r="G197" s="27"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="36"/>
-      <c r="K197" s="36"/>
+      <c r="J197" s="39"/>
+      <c r="K197" s="39"/>
       <c r="L197" s="27"/>
       <c r="M197" s="27"/>
       <c r="N197" s="27"/>
@@ -11878,8 +12000,8 @@
       <c r="G198" s="27"/>
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
-      <c r="J198" s="36"/>
-      <c r="K198" s="36"/>
+      <c r="J198" s="39"/>
+      <c r="K198" s="39"/>
       <c r="L198" s="27"/>
       <c r="M198" s="27"/>
       <c r="N198" s="27"/>
@@ -11923,8 +12045,8 @@
       <c r="G199" s="27"/>
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
-      <c r="J199" s="36"/>
-      <c r="K199" s="36"/>
+      <c r="J199" s="39"/>
+      <c r="K199" s="39"/>
       <c r="L199" s="27"/>
       <c r="M199" s="27"/>
       <c r="N199" s="27"/>
@@ -11968,8 +12090,8 @@
       <c r="G200" s="27"/>
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
-      <c r="J200" s="36"/>
-      <c r="K200" s="36"/>
+      <c r="J200" s="39"/>
+      <c r="K200" s="39"/>
       <c r="L200" s="27"/>
       <c r="M200" s="27"/>
       <c r="N200" s="27"/>
@@ -12013,8 +12135,8 @@
       <c r="G201" s="27"/>
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
-      <c r="J201" s="36"/>
-      <c r="K201" s="36"/>
+      <c r="J201" s="39"/>
+      <c r="K201" s="39"/>
       <c r="L201" s="27"/>
       <c r="M201" s="27"/>
       <c r="N201" s="27"/>
@@ -12058,8 +12180,8 @@
       <c r="G202" s="27"/>
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
-      <c r="J202" s="36"/>
-      <c r="K202" s="36"/>
+      <c r="J202" s="39"/>
+      <c r="K202" s="39"/>
       <c r="L202" s="27"/>
       <c r="M202" s="27"/>
       <c r="N202" s="27"/>
@@ -12103,8 +12225,8 @@
       <c r="G203" s="27"/>
       <c r="H203" s="27"/>
       <c r="I203" s="27"/>
-      <c r="J203" s="36"/>
-      <c r="K203" s="36"/>
+      <c r="J203" s="39"/>
+      <c r="K203" s="39"/>
       <c r="L203" s="27"/>
       <c r="M203" s="27"/>
       <c r="N203" s="27"/>
@@ -12148,8 +12270,8 @@
       <c r="G204" s="27"/>
       <c r="H204" s="27"/>
       <c r="I204" s="27"/>
-      <c r="J204" s="36"/>
-      <c r="K204" s="36"/>
+      <c r="J204" s="39"/>
+      <c r="K204" s="39"/>
       <c r="L204" s="27"/>
       <c r="M204" s="27"/>
       <c r="N204" s="27"/>
@@ -12193,8 +12315,8 @@
       <c r="G205" s="27"/>
       <c r="H205" s="27"/>
       <c r="I205" s="27"/>
-      <c r="J205" s="36"/>
-      <c r="K205" s="36"/>
+      <c r="J205" s="39"/>
+      <c r="K205" s="39"/>
       <c r="L205" s="27"/>
       <c r="M205" s="27"/>
       <c r="N205" s="27"/>
@@ -12238,8 +12360,8 @@
       <c r="G206" s="27"/>
       <c r="H206" s="27"/>
       <c r="I206" s="27"/>
-      <c r="J206" s="36"/>
-      <c r="K206" s="36"/>
+      <c r="J206" s="39"/>
+      <c r="K206" s="39"/>
       <c r="L206" s="27"/>
       <c r="M206" s="27"/>
       <c r="N206" s="27"/>
@@ -12283,8 +12405,8 @@
       <c r="G207" s="27"/>
       <c r="H207" s="27"/>
       <c r="I207" s="27"/>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
+      <c r="J207" s="39"/>
+      <c r="K207" s="39"/>
       <c r="L207" s="27"/>
       <c r="M207" s="27"/>
       <c r="N207" s="27"/>
@@ -12328,8 +12450,8 @@
       <c r="G208" s="27"/>
       <c r="H208" s="27"/>
       <c r="I208" s="27"/>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
+      <c r="J208" s="39"/>
+      <c r="K208" s="39"/>
       <c r="L208" s="27"/>
       <c r="M208" s="27"/>
       <c r="N208" s="27"/>
@@ -12373,8 +12495,8 @@
       <c r="G209" s="27"/>
       <c r="H209" s="27"/>
       <c r="I209" s="27"/>
-      <c r="J209" s="36"/>
-      <c r="K209" s="36"/>
+      <c r="J209" s="39"/>
+      <c r="K209" s="39"/>
       <c r="L209" s="27"/>
       <c r="M209" s="27"/>
       <c r="N209" s="27"/>
@@ -12418,8 +12540,8 @@
       <c r="G210" s="27"/>
       <c r="H210" s="27"/>
       <c r="I210" s="27"/>
-      <c r="J210" s="36"/>
-      <c r="K210" s="36"/>
+      <c r="J210" s="39"/>
+      <c r="K210" s="39"/>
       <c r="L210" s="27"/>
       <c r="M210" s="27"/>
       <c r="N210" s="27"/>
@@ -12463,8 +12585,8 @@
       <c r="G211" s="27"/>
       <c r="H211" s="27"/>
       <c r="I211" s="27"/>
-      <c r="J211" s="36"/>
-      <c r="K211" s="36"/>
+      <c r="J211" s="39"/>
+      <c r="K211" s="39"/>
       <c r="L211" s="27"/>
       <c r="M211" s="27"/>
       <c r="N211" s="27"/>
@@ -12508,8 +12630,8 @@
       <c r="G212" s="27"/>
       <c r="H212" s="27"/>
       <c r="I212" s="27"/>
-      <c r="J212" s="36"/>
-      <c r="K212" s="36"/>
+      <c r="J212" s="39"/>
+      <c r="K212" s="39"/>
       <c r="L212" s="27"/>
       <c r="M212" s="27"/>
       <c r="N212" s="27"/>
@@ -12553,8 +12675,8 @@
       <c r="G213" s="27"/>
       <c r="H213" s="27"/>
       <c r="I213" s="27"/>
-      <c r="J213" s="36"/>
-      <c r="K213" s="36"/>
+      <c r="J213" s="39"/>
+      <c r="K213" s="39"/>
       <c r="L213" s="27"/>
       <c r="M213" s="27"/>
       <c r="N213" s="27"/>
@@ -12598,8 +12720,8 @@
       <c r="G214" s="27"/>
       <c r="H214" s="27"/>
       <c r="I214" s="27"/>
-      <c r="J214" s="36"/>
-      <c r="K214" s="36"/>
+      <c r="J214" s="39"/>
+      <c r="K214" s="39"/>
       <c r="L214" s="27"/>
       <c r="M214" s="27"/>
       <c r="N214" s="27"/>
@@ -12643,8 +12765,8 @@
       <c r="G215" s="27"/>
       <c r="H215" s="27"/>
       <c r="I215" s="27"/>
-      <c r="J215" s="36"/>
-      <c r="K215" s="36"/>
+      <c r="J215" s="39"/>
+      <c r="K215" s="39"/>
       <c r="L215" s="27"/>
       <c r="M215" s="27"/>
       <c r="N215" s="27"/>
@@ -12688,8 +12810,8 @@
       <c r="G216" s="27"/>
       <c r="H216" s="27"/>
       <c r="I216" s="27"/>
-      <c r="J216" s="36"/>
-      <c r="K216" s="36"/>
+      <c r="J216" s="39"/>
+      <c r="K216" s="39"/>
       <c r="L216" s="27"/>
       <c r="M216" s="27"/>
       <c r="N216" s="27"/>
@@ -12733,8 +12855,8 @@
       <c r="G217" s="27"/>
       <c r="H217" s="27"/>
       <c r="I217" s="27"/>
-      <c r="J217" s="36"/>
-      <c r="K217" s="36"/>
+      <c r="J217" s="39"/>
+      <c r="K217" s="39"/>
       <c r="L217" s="27"/>
       <c r="M217" s="27"/>
       <c r="N217" s="27"/>
@@ -12778,8 +12900,8 @@
       <c r="G218" s="27"/>
       <c r="H218" s="27"/>
       <c r="I218" s="27"/>
-      <c r="J218" s="36"/>
-      <c r="K218" s="36"/>
+      <c r="J218" s="39"/>
+      <c r="K218" s="39"/>
       <c r="L218" s="27"/>
       <c r="M218" s="27"/>
       <c r="N218" s="27"/>
@@ -12823,8 +12945,8 @@
       <c r="G219" s="27"/>
       <c r="H219" s="27"/>
       <c r="I219" s="27"/>
-      <c r="J219" s="36"/>
-      <c r="K219" s="36"/>
+      <c r="J219" s="39"/>
+      <c r="K219" s="39"/>
       <c r="L219" s="27"/>
       <c r="M219" s="27"/>
       <c r="N219" s="27"/>
@@ -12868,8 +12990,8 @@
       <c r="G220" s="27"/>
       <c r="H220" s="27"/>
       <c r="I220" s="27"/>
-      <c r="J220" s="36"/>
-      <c r="K220" s="36"/>
+      <c r="J220" s="39"/>
+      <c r="K220" s="39"/>
       <c r="L220" s="27"/>
       <c r="M220" s="27"/>
       <c r="N220" s="27"/>
@@ -12913,8 +13035,8 @@
       <c r="G221" s="27"/>
       <c r="H221" s="27"/>
       <c r="I221" s="27"/>
-      <c r="J221" s="36"/>
-      <c r="K221" s="36"/>
+      <c r="J221" s="39"/>
+      <c r="K221" s="39"/>
       <c r="L221" s="27"/>
       <c r="M221" s="27"/>
       <c r="N221" s="27"/>
@@ -12958,8 +13080,8 @@
       <c r="G222" s="27"/>
       <c r="H222" s="27"/>
       <c r="I222" s="27"/>
-      <c r="J222" s="36"/>
-      <c r="K222" s="36"/>
+      <c r="J222" s="39"/>
+      <c r="K222" s="39"/>
       <c r="L222" s="27"/>
       <c r="M222" s="27"/>
       <c r="N222" s="27"/>
@@ -13003,8 +13125,8 @@
       <c r="G223" s="27"/>
       <c r="H223" s="27"/>
       <c r="I223" s="27"/>
-      <c r="J223" s="36"/>
-      <c r="K223" s="36"/>
+      <c r="J223" s="39"/>
+      <c r="K223" s="39"/>
       <c r="L223" s="27"/>
       <c r="M223" s="27"/>
       <c r="N223" s="27"/>
@@ -13048,8 +13170,8 @@
       <c r="G224" s="27"/>
       <c r="H224" s="27"/>
       <c r="I224" s="27"/>
-      <c r="J224" s="36"/>
-      <c r="K224" s="36"/>
+      <c r="J224" s="39"/>
+      <c r="K224" s="39"/>
       <c r="L224" s="27"/>
       <c r="M224" s="27"/>
       <c r="N224" s="27"/>
@@ -13093,8 +13215,8 @@
       <c r="G225" s="27"/>
       <c r="H225" s="27"/>
       <c r="I225" s="27"/>
-      <c r="J225" s="36"/>
-      <c r="K225" s="36"/>
+      <c r="J225" s="39"/>
+      <c r="K225" s="39"/>
       <c r="L225" s="27"/>
       <c r="M225" s="27"/>
       <c r="N225" s="27"/>
@@ -13138,8 +13260,8 @@
       <c r="G226" s="27"/>
       <c r="H226" s="27"/>
       <c r="I226" s="27"/>
-      <c r="J226" s="36"/>
-      <c r="K226" s="36"/>
+      <c r="J226" s="39"/>
+      <c r="K226" s="39"/>
       <c r="L226" s="27"/>
       <c r="M226" s="27"/>
       <c r="N226" s="27"/>
@@ -13183,8 +13305,8 @@
       <c r="G227" s="27"/>
       <c r="H227" s="27"/>
       <c r="I227" s="27"/>
-      <c r="J227" s="36"/>
-      <c r="K227" s="36"/>
+      <c r="J227" s="39"/>
+      <c r="K227" s="39"/>
       <c r="L227" s="27"/>
       <c r="M227" s="27"/>
       <c r="N227" s="27"/>
@@ -13228,8 +13350,8 @@
       <c r="G228" s="27"/>
       <c r="H228" s="27"/>
       <c r="I228" s="27"/>
-      <c r="J228" s="36"/>
-      <c r="K228" s="36"/>
+      <c r="J228" s="39"/>
+      <c r="K228" s="39"/>
       <c r="L228" s="27"/>
       <c r="M228" s="27"/>
       <c r="N228" s="27"/>
@@ -13273,8 +13395,8 @@
       <c r="G229" s="27"/>
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
-      <c r="J229" s="36"/>
-      <c r="K229" s="36"/>
+      <c r="J229" s="39"/>
+      <c r="K229" s="39"/>
       <c r="L229" s="27"/>
       <c r="M229" s="27"/>
       <c r="N229" s="27"/>
@@ -13318,8 +13440,8 @@
       <c r="G230" s="27"/>
       <c r="H230" s="27"/>
       <c r="I230" s="27"/>
-      <c r="J230" s="36"/>
-      <c r="K230" s="36"/>
+      <c r="J230" s="39"/>
+      <c r="K230" s="39"/>
       <c r="L230" s="27"/>
       <c r="M230" s="27"/>
       <c r="N230" s="27"/>
@@ -13363,8 +13485,8 @@
       <c r="G231" s="27"/>
       <c r="H231" s="27"/>
       <c r="I231" s="27"/>
-      <c r="J231" s="36"/>
-      <c r="K231" s="36"/>
+      <c r="J231" s="39"/>
+      <c r="K231" s="39"/>
       <c r="L231" s="27"/>
       <c r="M231" s="27"/>
       <c r="N231" s="27"/>
@@ -13408,8 +13530,8 @@
       <c r="G232" s="27"/>
       <c r="H232" s="27"/>
       <c r="I232" s="27"/>
-      <c r="J232" s="36"/>
-      <c r="K232" s="36"/>
+      <c r="J232" s="39"/>
+      <c r="K232" s="39"/>
       <c r="L232" s="27"/>
       <c r="M232" s="27"/>
       <c r="N232" s="27"/>
@@ -13453,8 +13575,8 @@
       <c r="G233" s="27"/>
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
-      <c r="J233" s="36"/>
-      <c r="K233" s="36"/>
+      <c r="J233" s="39"/>
+      <c r="K233" s="39"/>
       <c r="L233" s="27"/>
       <c r="M233" s="27"/>
       <c r="N233" s="27"/>
@@ -13498,8 +13620,8 @@
       <c r="G234" s="27"/>
       <c r="H234" s="27"/>
       <c r="I234" s="27"/>
-      <c r="J234" s="36"/>
-      <c r="K234" s="36"/>
+      <c r="J234" s="39"/>
+      <c r="K234" s="39"/>
       <c r="L234" s="27"/>
       <c r="M234" s="27"/>
       <c r="N234" s="27"/>
@@ -13543,8 +13665,8 @@
       <c r="G235" s="27"/>
       <c r="H235" s="27"/>
       <c r="I235" s="27"/>
-      <c r="J235" s="36"/>
-      <c r="K235" s="36"/>
+      <c r="J235" s="39"/>
+      <c r="K235" s="39"/>
       <c r="L235" s="27"/>
       <c r="M235" s="27"/>
       <c r="N235" s="27"/>
@@ -13588,8 +13710,8 @@
       <c r="G236" s="27"/>
       <c r="H236" s="27"/>
       <c r="I236" s="27"/>
-      <c r="J236" s="36"/>
-      <c r="K236" s="36"/>
+      <c r="J236" s="39"/>
+      <c r="K236" s="39"/>
       <c r="L236" s="27"/>
       <c r="M236" s="27"/>
       <c r="N236" s="27"/>
@@ -13633,8 +13755,8 @@
       <c r="G237" s="27"/>
       <c r="H237" s="27"/>
       <c r="I237" s="27"/>
-      <c r="J237" s="36"/>
-      <c r="K237" s="36"/>
+      <c r="J237" s="39"/>
+      <c r="K237" s="39"/>
       <c r="L237" s="27"/>
       <c r="M237" s="27"/>
       <c r="N237" s="27"/>
@@ -13678,8 +13800,8 @@
       <c r="G238" s="27"/>
       <c r="H238" s="27"/>
       <c r="I238" s="27"/>
-      <c r="J238" s="36"/>
-      <c r="K238" s="36"/>
+      <c r="J238" s="39"/>
+      <c r="K238" s="39"/>
       <c r="L238" s="27"/>
       <c r="M238" s="27"/>
       <c r="N238" s="27"/>
@@ -13723,8 +13845,8 @@
       <c r="G239" s="27"/>
       <c r="H239" s="27"/>
       <c r="I239" s="27"/>
-      <c r="J239" s="36"/>
-      <c r="K239" s="36"/>
+      <c r="J239" s="39"/>
+      <c r="K239" s="39"/>
       <c r="L239" s="27"/>
       <c r="M239" s="27"/>
       <c r="N239" s="27"/>
@@ -13768,8 +13890,8 @@
       <c r="G240" s="27"/>
       <c r="H240" s="27"/>
       <c r="I240" s="27"/>
-      <c r="J240" s="36"/>
-      <c r="K240" s="36"/>
+      <c r="J240" s="39"/>
+      <c r="K240" s="39"/>
       <c r="L240" s="27"/>
       <c r="M240" s="27"/>
       <c r="N240" s="27"/>
@@ -13813,8 +13935,8 @@
       <c r="G241" s="27"/>
       <c r="H241" s="27"/>
       <c r="I241" s="27"/>
-      <c r="J241" s="36"/>
-      <c r="K241" s="36"/>
+      <c r="J241" s="39"/>
+      <c r="K241" s="39"/>
       <c r="L241" s="27"/>
       <c r="M241" s="27"/>
       <c r="N241" s="27"/>
@@ -13858,8 +13980,8 @@
       <c r="G242" s="27"/>
       <c r="H242" s="27"/>
       <c r="I242" s="27"/>
-      <c r="J242" s="36"/>
-      <c r="K242" s="36"/>
+      <c r="J242" s="39"/>
+      <c r="K242" s="39"/>
       <c r="L242" s="27"/>
       <c r="M242" s="27"/>
       <c r="N242" s="27"/>
@@ -13903,8 +14025,8 @@
       <c r="G243" s="27"/>
       <c r="H243" s="27"/>
       <c r="I243" s="27"/>
-      <c r="J243" s="36"/>
-      <c r="K243" s="36"/>
+      <c r="J243" s="39"/>
+      <c r="K243" s="39"/>
       <c r="L243" s="27"/>
       <c r="M243" s="27"/>
       <c r="N243" s="27"/>
@@ -13948,8 +14070,8 @@
       <c r="G244" s="27"/>
       <c r="H244" s="27"/>
       <c r="I244" s="27"/>
-      <c r="J244" s="36"/>
-      <c r="K244" s="36"/>
+      <c r="J244" s="39"/>
+      <c r="K244" s="39"/>
       <c r="L244" s="27"/>
       <c r="M244" s="27"/>
       <c r="N244" s="27"/>
@@ -13993,8 +14115,8 @@
       <c r="G245" s="27"/>
       <c r="H245" s="27"/>
       <c r="I245" s="27"/>
-      <c r="J245" s="36"/>
-      <c r="K245" s="36"/>
+      <c r="J245" s="39"/>
+      <c r="K245" s="39"/>
       <c r="L245" s="27"/>
       <c r="M245" s="27"/>
       <c r="N245" s="27"/>
@@ -14038,8 +14160,8 @@
       <c r="G246" s="27"/>
       <c r="H246" s="27"/>
       <c r="I246" s="27"/>
-      <c r="J246" s="36"/>
-      <c r="K246" s="36"/>
+      <c r="J246" s="39"/>
+      <c r="K246" s="39"/>
       <c r="L246" s="27"/>
       <c r="M246" s="27"/>
       <c r="N246" s="27"/>
@@ -14083,8 +14205,8 @@
       <c r="G247" s="27"/>
       <c r="H247" s="27"/>
       <c r="I247" s="27"/>
-      <c r="J247" s="36"/>
-      <c r="K247" s="36"/>
+      <c r="J247" s="39"/>
+      <c r="K247" s="39"/>
       <c r="L247" s="27"/>
       <c r="M247" s="27"/>
       <c r="N247" s="27"/>
@@ -14128,8 +14250,8 @@
       <c r="G248" s="27"/>
       <c r="H248" s="27"/>
       <c r="I248" s="27"/>
-      <c r="J248" s="36"/>
-      <c r="K248" s="36"/>
+      <c r="J248" s="39"/>
+      <c r="K248" s="39"/>
       <c r="L248" s="27"/>
       <c r="M248" s="27"/>
       <c r="N248" s="27"/>
@@ -14173,8 +14295,8 @@
       <c r="G249" s="27"/>
       <c r="H249" s="27"/>
       <c r="I249" s="27"/>
-      <c r="J249" s="36"/>
-      <c r="K249" s="36"/>
+      <c r="J249" s="39"/>
+      <c r="K249" s="39"/>
       <c r="L249" s="27"/>
       <c r="M249" s="27"/>
       <c r="N249" s="27"/>
@@ -14218,8 +14340,8 @@
       <c r="G250" s="27"/>
       <c r="H250" s="27"/>
       <c r="I250" s="27"/>
-      <c r="J250" s="36"/>
-      <c r="K250" s="36"/>
+      <c r="J250" s="39"/>
+      <c r="K250" s="39"/>
       <c r="L250" s="27"/>
       <c r="M250" s="27"/>
       <c r="N250" s="27"/>
@@ -14263,8 +14385,8 @@
       <c r="G251" s="27"/>
       <c r="H251" s="27"/>
       <c r="I251" s="27"/>
-      <c r="J251" s="36"/>
-      <c r="K251" s="36"/>
+      <c r="J251" s="39"/>
+      <c r="K251" s="39"/>
       <c r="L251" s="27"/>
       <c r="M251" s="27"/>
       <c r="N251" s="27"/>
@@ -14308,8 +14430,8 @@
       <c r="G252" s="27"/>
       <c r="H252" s="27"/>
       <c r="I252" s="27"/>
-      <c r="J252" s="36"/>
-      <c r="K252" s="36"/>
+      <c r="J252" s="39"/>
+      <c r="K252" s="39"/>
       <c r="L252" s="27"/>
       <c r="M252" s="27"/>
       <c r="N252" s="27"/>
@@ -14353,8 +14475,8 @@
       <c r="G253" s="27"/>
       <c r="H253" s="27"/>
       <c r="I253" s="27"/>
-      <c r="J253" s="36"/>
-      <c r="K253" s="36"/>
+      <c r="J253" s="39"/>
+      <c r="K253" s="39"/>
       <c r="L253" s="27"/>
       <c r="M253" s="27"/>
       <c r="N253" s="27"/>
@@ -14398,8 +14520,8 @@
       <c r="G254" s="27"/>
       <c r="H254" s="27"/>
       <c r="I254" s="27"/>
-      <c r="J254" s="36"/>
-      <c r="K254" s="36"/>
+      <c r="J254" s="39"/>
+      <c r="K254" s="39"/>
       <c r="L254" s="27"/>
       <c r="M254" s="27"/>
       <c r="N254" s="27"/>
@@ -14443,8 +14565,8 @@
       <c r="G255" s="27"/>
       <c r="H255" s="27"/>
       <c r="I255" s="27"/>
-      <c r="J255" s="36"/>
-      <c r="K255" s="36"/>
+      <c r="J255" s="39"/>
+      <c r="K255" s="39"/>
       <c r="L255" s="27"/>
       <c r="M255" s="27"/>
       <c r="N255" s="27"/>
@@ -14488,8 +14610,8 @@
       <c r="G256" s="27"/>
       <c r="H256" s="27"/>
       <c r="I256" s="27"/>
-      <c r="J256" s="36"/>
-      <c r="K256" s="36"/>
+      <c r="J256" s="39"/>
+      <c r="K256" s="39"/>
       <c r="L256" s="27"/>
       <c r="M256" s="27"/>
       <c r="N256" s="27"/>
@@ -14533,8 +14655,8 @@
       <c r="G257" s="27"/>
       <c r="H257" s="27"/>
       <c r="I257" s="27"/>
-      <c r="J257" s="36"/>
-      <c r="K257" s="36"/>
+      <c r="J257" s="39"/>
+      <c r="K257" s="39"/>
       <c r="L257" s="27"/>
       <c r="M257" s="27"/>
       <c r="N257" s="27"/>
@@ -14578,8 +14700,8 @@
       <c r="G258" s="27"/>
       <c r="H258" s="27"/>
       <c r="I258" s="27"/>
-      <c r="J258" s="36"/>
-      <c r="K258" s="36"/>
+      <c r="J258" s="39"/>
+      <c r="K258" s="39"/>
       <c r="L258" s="27"/>
       <c r="M258" s="27"/>
       <c r="N258" s="27"/>
@@ -14623,8 +14745,8 @@
       <c r="G259" s="27"/>
       <c r="H259" s="27"/>
       <c r="I259" s="27"/>
-      <c r="J259" s="36"/>
-      <c r="K259" s="36"/>
+      <c r="J259" s="39"/>
+      <c r="K259" s="39"/>
       <c r="L259" s="27"/>
       <c r="M259" s="27"/>
       <c r="N259" s="27"/>
@@ -14668,8 +14790,8 @@
       <c r="G260" s="27"/>
       <c r="H260" s="27"/>
       <c r="I260" s="27"/>
-      <c r="J260" s="36"/>
-      <c r="K260" s="36"/>
+      <c r="J260" s="39"/>
+      <c r="K260" s="39"/>
       <c r="L260" s="27"/>
       <c r="M260" s="27"/>
       <c r="N260" s="27"/>
@@ -14713,8 +14835,8 @@
       <c r="G261" s="27"/>
       <c r="H261" s="27"/>
       <c r="I261" s="27"/>
-      <c r="J261" s="36"/>
-      <c r="K261" s="36"/>
+      <c r="J261" s="39"/>
+      <c r="K261" s="39"/>
       <c r="L261" s="27"/>
       <c r="M261" s="27"/>
       <c r="N261" s="27"/>
@@ -14758,8 +14880,8 @@
       <c r="G262" s="27"/>
       <c r="H262" s="27"/>
       <c r="I262" s="27"/>
-      <c r="J262" s="36"/>
-      <c r="K262" s="36"/>
+      <c r="J262" s="39"/>
+      <c r="K262" s="39"/>
       <c r="L262" s="27"/>
       <c r="M262" s="27"/>
       <c r="N262" s="27"/>
@@ -14803,8 +14925,8 @@
       <c r="G263" s="27"/>
       <c r="H263" s="27"/>
       <c r="I263" s="27"/>
-      <c r="J263" s="36"/>
-      <c r="K263" s="36"/>
+      <c r="J263" s="39"/>
+      <c r="K263" s="39"/>
       <c r="L263" s="27"/>
       <c r="M263" s="27"/>
       <c r="N263" s="27"/>
@@ -14848,8 +14970,8 @@
       <c r="G264" s="27"/>
       <c r="H264" s="27"/>
       <c r="I264" s="27"/>
-      <c r="J264" s="36"/>
-      <c r="K264" s="36"/>
+      <c r="J264" s="39"/>
+      <c r="K264" s="39"/>
       <c r="L264" s="27"/>
       <c r="M264" s="27"/>
       <c r="N264" s="27"/>
@@ -14893,8 +15015,8 @@
       <c r="G265" s="27"/>
       <c r="H265" s="27"/>
       <c r="I265" s="27"/>
-      <c r="J265" s="36"/>
-      <c r="K265" s="36"/>
+      <c r="J265" s="39"/>
+      <c r="K265" s="39"/>
       <c r="L265" s="27"/>
       <c r="M265" s="27"/>
       <c r="N265" s="27"/>
@@ -14938,8 +15060,8 @@
       <c r="G266" s="27"/>
       <c r="H266" s="27"/>
       <c r="I266" s="27"/>
-      <c r="J266" s="36"/>
-      <c r="K266" s="36"/>
+      <c r="J266" s="39"/>
+      <c r="K266" s="39"/>
       <c r="L266" s="27"/>
       <c r="M266" s="27"/>
       <c r="N266" s="27"/>
@@ -14983,8 +15105,8 @@
       <c r="G267" s="27"/>
       <c r="H267" s="27"/>
       <c r="I267" s="27"/>
-      <c r="J267" s="36"/>
-      <c r="K267" s="36"/>
+      <c r="J267" s="39"/>
+      <c r="K267" s="39"/>
       <c r="L267" s="27"/>
       <c r="M267" s="27"/>
       <c r="N267" s="27"/>
@@ -15028,8 +15150,8 @@
       <c r="G268" s="27"/>
       <c r="H268" s="27"/>
       <c r="I268" s="27"/>
-      <c r="J268" s="36"/>
-      <c r="K268" s="36"/>
+      <c r="J268" s="39"/>
+      <c r="K268" s="39"/>
       <c r="L268" s="27"/>
       <c r="M268" s="27"/>
       <c r="N268" s="27"/>
@@ -15073,8 +15195,8 @@
       <c r="G269" s="27"/>
       <c r="H269" s="27"/>
       <c r="I269" s="27"/>
-      <c r="J269" s="36"/>
-      <c r="K269" s="36"/>
+      <c r="J269" s="39"/>
+      <c r="K269" s="39"/>
       <c r="L269" s="27"/>
       <c r="M269" s="27"/>
       <c r="N269" s="27"/>
@@ -15118,8 +15240,8 @@
       <c r="G270" s="27"/>
       <c r="H270" s="27"/>
       <c r="I270" s="27"/>
-      <c r="J270" s="36"/>
-      <c r="K270" s="36"/>
+      <c r="J270" s="39"/>
+      <c r="K270" s="39"/>
       <c r="L270" s="27"/>
       <c r="M270" s="27"/>
       <c r="N270" s="27"/>
@@ -15163,8 +15285,8 @@
       <c r="G271" s="27"/>
       <c r="H271" s="27"/>
       <c r="I271" s="27"/>
-      <c r="J271" s="36"/>
-      <c r="K271" s="36"/>
+      <c r="J271" s="39"/>
+      <c r="K271" s="39"/>
       <c r="L271" s="27"/>
       <c r="M271" s="27"/>
       <c r="N271" s="27"/>
@@ -15208,8 +15330,8 @@
       <c r="G272" s="27"/>
       <c r="H272" s="27"/>
       <c r="I272" s="27"/>
-      <c r="J272" s="36"/>
-      <c r="K272" s="36"/>
+      <c r="J272" s="39"/>
+      <c r="K272" s="39"/>
       <c r="L272" s="27"/>
       <c r="M272" s="27"/>
       <c r="N272" s="27"/>
@@ -15253,8 +15375,8 @@
       <c r="G273" s="27"/>
       <c r="H273" s="27"/>
       <c r="I273" s="27"/>
-      <c r="J273" s="36"/>
-      <c r="K273" s="36"/>
+      <c r="J273" s="39"/>
+      <c r="K273" s="39"/>
       <c r="L273" s="27"/>
       <c r="M273" s="27"/>
       <c r="N273" s="27"/>
@@ -15298,8 +15420,8 @@
       <c r="G274" s="27"/>
       <c r="H274" s="27"/>
       <c r="I274" s="27"/>
-      <c r="J274" s="36"/>
-      <c r="K274" s="36"/>
+      <c r="J274" s="39"/>
+      <c r="K274" s="39"/>
       <c r="L274" s="27"/>
       <c r="M274" s="27"/>
       <c r="N274" s="27"/>
@@ -15343,8 +15465,8 @@
       <c r="G275" s="27"/>
       <c r="H275" s="27"/>
       <c r="I275" s="27"/>
-      <c r="J275" s="36"/>
-      <c r="K275" s="36"/>
+      <c r="J275" s="39"/>
+      <c r="K275" s="39"/>
       <c r="L275" s="27"/>
       <c r="M275" s="27"/>
       <c r="N275" s="27"/>
@@ -15388,8 +15510,8 @@
       <c r="G276" s="27"/>
       <c r="H276" s="27"/>
       <c r="I276" s="27"/>
-      <c r="J276" s="36"/>
-      <c r="K276" s="36"/>
+      <c r="J276" s="39"/>
+      <c r="K276" s="39"/>
       <c r="L276" s="27"/>
       <c r="M276" s="27"/>
       <c r="N276" s="27"/>
@@ -15433,8 +15555,8 @@
       <c r="G277" s="27"/>
       <c r="H277" s="27"/>
       <c r="I277" s="27"/>
-      <c r="J277" s="36"/>
-      <c r="K277" s="36"/>
+      <c r="J277" s="39"/>
+      <c r="K277" s="39"/>
       <c r="L277" s="27"/>
       <c r="M277" s="27"/>
       <c r="N277" s="27"/>
@@ -15478,8 +15600,8 @@
       <c r="G278" s="27"/>
       <c r="H278" s="27"/>
       <c r="I278" s="27"/>
-      <c r="J278" s="36"/>
-      <c r="K278" s="36"/>
+      <c r="J278" s="39"/>
+      <c r="K278" s="39"/>
       <c r="L278" s="27"/>
       <c r="M278" s="27"/>
       <c r="N278" s="27"/>
@@ -15523,8 +15645,8 @@
       <c r="G279" s="27"/>
       <c r="H279" s="27"/>
       <c r="I279" s="27"/>
-      <c r="J279" s="36"/>
-      <c r="K279" s="36"/>
+      <c r="J279" s="39"/>
+      <c r="K279" s="39"/>
       <c r="L279" s="27"/>
       <c r="M279" s="27"/>
       <c r="N279" s="27"/>
@@ -15568,8 +15690,8 @@
       <c r="G280" s="27"/>
       <c r="H280" s="27"/>
       <c r="I280" s="27"/>
-      <c r="J280" s="36"/>
-      <c r="K280" s="36"/>
+      <c r="J280" s="39"/>
+      <c r="K280" s="39"/>
       <c r="L280" s="27"/>
       <c r="M280" s="27"/>
       <c r="N280" s="27"/>
@@ -15613,8 +15735,8 @@
       <c r="G281" s="27"/>
       <c r="H281" s="27"/>
       <c r="I281" s="27"/>
-      <c r="J281" s="36"/>
-      <c r="K281" s="36"/>
+      <c r="J281" s="39"/>
+      <c r="K281" s="39"/>
       <c r="L281" s="27"/>
       <c r="M281" s="27"/>
       <c r="N281" s="27"/>
@@ -15658,8 +15780,8 @@
       <c r="G282" s="27"/>
       <c r="H282" s="27"/>
       <c r="I282" s="27"/>
-      <c r="J282" s="36"/>
-      <c r="K282" s="36"/>
+      <c r="J282" s="39"/>
+      <c r="K282" s="39"/>
       <c r="L282" s="27"/>
       <c r="M282" s="27"/>
       <c r="N282" s="27"/>
@@ -15703,8 +15825,8 @@
       <c r="G283" s="27"/>
       <c r="H283" s="27"/>
       <c r="I283" s="27"/>
-      <c r="J283" s="36"/>
-      <c r="K283" s="36"/>
+      <c r="J283" s="39"/>
+      <c r="K283" s="39"/>
       <c r="L283" s="27"/>
       <c r="M283" s="27"/>
       <c r="N283" s="27"/>
@@ -15748,8 +15870,8 @@
       <c r="G284" s="27"/>
       <c r="H284" s="27"/>
       <c r="I284" s="27"/>
-      <c r="J284" s="36"/>
-      <c r="K284" s="36"/>
+      <c r="J284" s="39"/>
+      <c r="K284" s="39"/>
       <c r="L284" s="27"/>
       <c r="M284" s="27"/>
       <c r="N284" s="27"/>
@@ -15793,8 +15915,8 @@
       <c r="G285" s="27"/>
       <c r="H285" s="27"/>
       <c r="I285" s="27"/>
-      <c r="J285" s="36"/>
-      <c r="K285" s="36"/>
+      <c r="J285" s="39"/>
+      <c r="K285" s="39"/>
       <c r="L285" s="27"/>
       <c r="M285" s="27"/>
       <c r="N285" s="27"/>
@@ -15838,8 +15960,8 @@
       <c r="G286" s="27"/>
       <c r="H286" s="27"/>
       <c r="I286" s="27"/>
-      <c r="J286" s="36"/>
-      <c r="K286" s="36"/>
+      <c r="J286" s="39"/>
+      <c r="K286" s="39"/>
       <c r="L286" s="27"/>
       <c r="M286" s="27"/>
       <c r="N286" s="27"/>
@@ -15883,8 +16005,8 @@
       <c r="G287" s="27"/>
       <c r="H287" s="27"/>
       <c r="I287" s="27"/>
-      <c r="J287" s="36"/>
-      <c r="K287" s="36"/>
+      <c r="J287" s="39"/>
+      <c r="K287" s="39"/>
       <c r="L287" s="27"/>
       <c r="M287" s="27"/>
       <c r="N287" s="27"/>
@@ -15928,8 +16050,8 @@
       <c r="G288" s="27"/>
       <c r="H288" s="27"/>
       <c r="I288" s="27"/>
-      <c r="J288" s="36"/>
-      <c r="K288" s="36"/>
+      <c r="J288" s="39"/>
+      <c r="K288" s="39"/>
       <c r="L288" s="27"/>
       <c r="M288" s="27"/>
       <c r="N288" s="27"/>
@@ -15973,8 +16095,8 @@
       <c r="G289" s="27"/>
       <c r="H289" s="27"/>
       <c r="I289" s="27"/>
-      <c r="J289" s="36"/>
-      <c r="K289" s="36"/>
+      <c r="J289" s="39"/>
+      <c r="K289" s="39"/>
       <c r="L289" s="27"/>
       <c r="M289" s="27"/>
       <c r="N289" s="27"/>
@@ -16018,8 +16140,8 @@
       <c r="G290" s="27"/>
       <c r="H290" s="27"/>
       <c r="I290" s="27"/>
-      <c r="J290" s="36"/>
-      <c r="K290" s="36"/>
+      <c r="J290" s="39"/>
+      <c r="K290" s="39"/>
       <c r="L290" s="27"/>
       <c r="M290" s="27"/>
       <c r="N290" s="27"/>
@@ -16063,8 +16185,8 @@
       <c r="G291" s="27"/>
       <c r="H291" s="27"/>
       <c r="I291" s="27"/>
-      <c r="J291" s="36"/>
-      <c r="K291" s="36"/>
+      <c r="J291" s="39"/>
+      <c r="K291" s="39"/>
       <c r="L291" s="27"/>
       <c r="M291" s="27"/>
       <c r="N291" s="27"/>
@@ -16108,8 +16230,8 @@
       <c r="G292" s="27"/>
       <c r="H292" s="27"/>
       <c r="I292" s="27"/>
-      <c r="J292" s="36"/>
-      <c r="K292" s="36"/>
+      <c r="J292" s="39"/>
+      <c r="K292" s="39"/>
       <c r="L292" s="27"/>
       <c r="M292" s="27"/>
       <c r="N292" s="27"/>
@@ -16153,8 +16275,8 @@
       <c r="G293" s="27"/>
       <c r="H293" s="27"/>
       <c r="I293" s="27"/>
-      <c r="J293" s="36"/>
-      <c r="K293" s="36"/>
+      <c r="J293" s="39"/>
+      <c r="K293" s="39"/>
       <c r="L293" s="27"/>
       <c r="M293" s="27"/>
       <c r="N293" s="27"/>
@@ -16198,8 +16320,8 @@
       <c r="G294" s="27"/>
       <c r="H294" s="27"/>
       <c r="I294" s="27"/>
-      <c r="J294" s="36"/>
-      <c r="K294" s="36"/>
+      <c r="J294" s="39"/>
+      <c r="K294" s="39"/>
       <c r="L294" s="27"/>
       <c r="M294" s="27"/>
       <c r="N294" s="27"/>
@@ -16243,8 +16365,8 @@
       <c r="G295" s="27"/>
       <c r="H295" s="27"/>
       <c r="I295" s="27"/>
-      <c r="J295" s="36"/>
-      <c r="K295" s="36"/>
+      <c r="J295" s="39"/>
+      <c r="K295" s="39"/>
       <c r="L295" s="27"/>
       <c r="M295" s="27"/>
       <c r="N295" s="27"/>
@@ -16288,8 +16410,8 @@
       <c r="G296" s="27"/>
       <c r="H296" s="27"/>
       <c r="I296" s="27"/>
-      <c r="J296" s="36"/>
-      <c r="K296" s="36"/>
+      <c r="J296" s="39"/>
+      <c r="K296" s="39"/>
       <c r="L296" s="27"/>
       <c r="M296" s="27"/>
       <c r="N296" s="27"/>
@@ -16333,8 +16455,8 @@
       <c r="G297" s="27"/>
       <c r="H297" s="27"/>
       <c r="I297" s="27"/>
-      <c r="J297" s="36"/>
-      <c r="K297" s="36"/>
+      <c r="J297" s="39"/>
+      <c r="K297" s="39"/>
       <c r="L297" s="27"/>
       <c r="M297" s="27"/>
       <c r="N297" s="27"/>
@@ -16378,8 +16500,8 @@
       <c r="G298" s="27"/>
       <c r="H298" s="27"/>
       <c r="I298" s="27"/>
-      <c r="J298" s="36"/>
-      <c r="K298" s="36"/>
+      <c r="J298" s="39"/>
+      <c r="K298" s="39"/>
       <c r="L298" s="27"/>
       <c r="M298" s="27"/>
       <c r="N298" s="27"/>
@@ -16423,8 +16545,8 @@
       <c r="G299" s="27"/>
       <c r="H299" s="27"/>
       <c r="I299" s="27"/>
-      <c r="J299" s="36"/>
-      <c r="K299" s="36"/>
+      <c r="J299" s="39"/>
+      <c r="K299" s="39"/>
       <c r="L299" s="27"/>
       <c r="M299" s="27"/>
       <c r="N299" s="27"/>
@@ -16468,8 +16590,8 @@
       <c r="G300" s="27"/>
       <c r="H300" s="27"/>
       <c r="I300" s="27"/>
-      <c r="J300" s="36"/>
-      <c r="K300" s="36"/>
+      <c r="J300" s="39"/>
+      <c r="K300" s="39"/>
       <c r="L300" s="27"/>
       <c r="M300" s="27"/>
       <c r="N300" s="27"/>
@@ -16513,8 +16635,8 @@
       <c r="G301" s="27"/>
       <c r="H301" s="27"/>
       <c r="I301" s="27"/>
-      <c r="J301" s="36"/>
-      <c r="K301" s="36"/>
+      <c r="J301" s="39"/>
+      <c r="K301" s="39"/>
       <c r="L301" s="27"/>
       <c r="M301" s="27"/>
       <c r="N301" s="27"/>
@@ -16558,8 +16680,8 @@
       <c r="G302" s="27"/>
       <c r="H302" s="27"/>
       <c r="I302" s="27"/>
-      <c r="J302" s="36"/>
-      <c r="K302" s="36"/>
+      <c r="J302" s="39"/>
+      <c r="K302" s="39"/>
       <c r="L302" s="27"/>
       <c r="M302" s="27"/>
       <c r="N302" s="27"/>
@@ -16603,8 +16725,8 @@
       <c r="G303" s="27"/>
       <c r="H303" s="27"/>
       <c r="I303" s="27"/>
-      <c r="J303" s="36"/>
-      <c r="K303" s="36"/>
+      <c r="J303" s="39"/>
+      <c r="K303" s="39"/>
       <c r="L303" s="27"/>
       <c r="M303" s="27"/>
       <c r="N303" s="27"/>
@@ -16648,8 +16770,8 @@
       <c r="G304" s="27"/>
       <c r="H304" s="27"/>
       <c r="I304" s="27"/>
-      <c r="J304" s="36"/>
-      <c r="K304" s="36"/>
+      <c r="J304" s="39"/>
+      <c r="K304" s="39"/>
       <c r="L304" s="27"/>
       <c r="M304" s="27"/>
       <c r="N304" s="27"/>
@@ -16693,8 +16815,8 @@
       <c r="G305" s="27"/>
       <c r="H305" s="27"/>
       <c r="I305" s="27"/>
-      <c r="J305" s="36"/>
-      <c r="K305" s="36"/>
+      <c r="J305" s="39"/>
+      <c r="K305" s="39"/>
       <c r="L305" s="27"/>
       <c r="M305" s="27"/>
       <c r="N305" s="27"/>
@@ -16738,8 +16860,8 @@
       <c r="G306" s="27"/>
       <c r="H306" s="27"/>
       <c r="I306" s="27"/>
-      <c r="J306" s="36"/>
-      <c r="K306" s="36"/>
+      <c r="J306" s="39"/>
+      <c r="K306" s="39"/>
       <c r="L306" s="27"/>
       <c r="M306" s="27"/>
       <c r="N306" s="27"/>
@@ -16783,8 +16905,8 @@
       <c r="G307" s="27"/>
       <c r="H307" s="27"/>
       <c r="I307" s="27"/>
-      <c r="J307" s="36"/>
-      <c r="K307" s="36"/>
+      <c r="J307" s="39"/>
+      <c r="K307" s="39"/>
       <c r="L307" s="27"/>
       <c r="M307" s="27"/>
       <c r="N307" s="27"/>
@@ -16828,8 +16950,8 @@
       <c r="G308" s="27"/>
       <c r="H308" s="27"/>
       <c r="I308" s="27"/>
-      <c r="J308" s="36"/>
-      <c r="K308" s="36"/>
+      <c r="J308" s="39"/>
+      <c r="K308" s="39"/>
       <c r="L308" s="27"/>
       <c r="M308" s="27"/>
       <c r="N308" s="27"/>
@@ -16873,8 +16995,8 @@
       <c r="G309" s="27"/>
       <c r="H309" s="27"/>
       <c r="I309" s="27"/>
-      <c r="J309" s="36"/>
-      <c r="K309" s="36"/>
+      <c r="J309" s="39"/>
+      <c r="K309" s="39"/>
       <c r="L309" s="27"/>
       <c r="M309" s="27"/>
       <c r="N309" s="27"/>
@@ -16918,8 +17040,8 @@
       <c r="G310" s="27"/>
       <c r="H310" s="27"/>
       <c r="I310" s="27"/>
-      <c r="J310" s="36"/>
-      <c r="K310" s="36"/>
+      <c r="J310" s="39"/>
+      <c r="K310" s="39"/>
       <c r="L310" s="27"/>
       <c r="M310" s="27"/>
       <c r="N310" s="27"/>
@@ -16963,8 +17085,8 @@
       <c r="G311" s="27"/>
       <c r="H311" s="27"/>
       <c r="I311" s="27"/>
-      <c r="J311" s="36"/>
-      <c r="K311" s="36"/>
+      <c r="J311" s="39"/>
+      <c r="K311" s="39"/>
       <c r="L311" s="27"/>
       <c r="M311" s="27"/>
       <c r="N311" s="27"/>
@@ -17008,8 +17130,8 @@
       <c r="G312" s="27"/>
       <c r="H312" s="27"/>
       <c r="I312" s="27"/>
-      <c r="J312" s="36"/>
-      <c r="K312" s="36"/>
+      <c r="J312" s="39"/>
+      <c r="K312" s="39"/>
       <c r="L312" s="27"/>
       <c r="M312" s="27"/>
       <c r="N312" s="27"/>
@@ -17053,8 +17175,8 @@
       <c r="G313" s="27"/>
       <c r="H313" s="27"/>
       <c r="I313" s="27"/>
-      <c r="J313" s="36"/>
-      <c r="K313" s="36"/>
+      <c r="J313" s="39"/>
+      <c r="K313" s="39"/>
       <c r="L313" s="27"/>
       <c r="M313" s="27"/>
       <c r="N313" s="27"/>
@@ -17098,8 +17220,8 @@
       <c r="G314" s="27"/>
       <c r="H314" s="27"/>
       <c r="I314" s="27"/>
-      <c r="J314" s="36"/>
-      <c r="K314" s="36"/>
+      <c r="J314" s="39"/>
+      <c r="K314" s="39"/>
       <c r="L314" s="27"/>
       <c r="M314" s="27"/>
       <c r="N314" s="27"/>
@@ -17143,8 +17265,8 @@
       <c r="G315" s="27"/>
       <c r="H315" s="27"/>
       <c r="I315" s="27"/>
-      <c r="J315" s="36"/>
-      <c r="K315" s="36"/>
+      <c r="J315" s="39"/>
+      <c r="K315" s="39"/>
       <c r="L315" s="27"/>
       <c r="M315" s="27"/>
       <c r="N315" s="27"/>
@@ -17188,8 +17310,8 @@
       <c r="G316" s="27"/>
       <c r="H316" s="27"/>
       <c r="I316" s="27"/>
-      <c r="J316" s="36"/>
-      <c r="K316" s="36"/>
+      <c r="J316" s="39"/>
+      <c r="K316" s="39"/>
       <c r="L316" s="27"/>
       <c r="M316" s="27"/>
       <c r="N316" s="27"/>
@@ -17233,8 +17355,8 @@
       <c r="G317" s="27"/>
       <c r="H317" s="27"/>
       <c r="I317" s="27"/>
-      <c r="J317" s="36"/>
-      <c r="K317" s="36"/>
+      <c r="J317" s="39"/>
+      <c r="K317" s="39"/>
       <c r="L317" s="27"/>
       <c r="M317" s="27"/>
       <c r="N317" s="27"/>
@@ -17278,8 +17400,8 @@
       <c r="G318" s="27"/>
       <c r="H318" s="27"/>
       <c r="I318" s="27"/>
-      <c r="J318" s="36"/>
-      <c r="K318" s="36"/>
+      <c r="J318" s="39"/>
+      <c r="K318" s="39"/>
       <c r="L318" s="27"/>
       <c r="M318" s="27"/>
       <c r="N318" s="27"/>
@@ -17323,8 +17445,8 @@
       <c r="G319" s="27"/>
       <c r="H319" s="27"/>
       <c r="I319" s="27"/>
-      <c r="J319" s="36"/>
-      <c r="K319" s="36"/>
+      <c r="J319" s="39"/>
+      <c r="K319" s="39"/>
       <c r="L319" s="27"/>
       <c r="M319" s="27"/>
       <c r="N319" s="27"/>
@@ -17368,8 +17490,8 @@
       <c r="G320" s="27"/>
       <c r="H320" s="27"/>
       <c r="I320" s="27"/>
-      <c r="J320" s="36"/>
-      <c r="K320" s="36"/>
+      <c r="J320" s="39"/>
+      <c r="K320" s="39"/>
       <c r="L320" s="27"/>
       <c r="M320" s="27"/>
       <c r="N320" s="27"/>
@@ -17413,8 +17535,8 @@
       <c r="G321" s="27"/>
       <c r="H321" s="27"/>
       <c r="I321" s="27"/>
-      <c r="J321" s="36"/>
-      <c r="K321" s="36"/>
+      <c r="J321" s="39"/>
+      <c r="K321" s="39"/>
       <c r="L321" s="27"/>
       <c r="M321" s="27"/>
       <c r="N321" s="27"/>
@@ -17458,8 +17580,8 @@
       <c r="G322" s="27"/>
       <c r="H322" s="27"/>
       <c r="I322" s="27"/>
-      <c r="J322" s="36"/>
-      <c r="K322" s="36"/>
+      <c r="J322" s="39"/>
+      <c r="K322" s="39"/>
       <c r="L322" s="27"/>
       <c r="M322" s="27"/>
       <c r="N322" s="27"/>
@@ -17503,8 +17625,8 @@
       <c r="G323" s="27"/>
       <c r="H323" s="27"/>
       <c r="I323" s="27"/>
-      <c r="J323" s="36"/>
-      <c r="K323" s="36"/>
+      <c r="J323" s="39"/>
+      <c r="K323" s="39"/>
       <c r="L323" s="27"/>
       <c r="M323" s="27"/>
       <c r="N323" s="27"/>
@@ -17548,8 +17670,8 @@
       <c r="G324" s="27"/>
       <c r="H324" s="27"/>
       <c r="I324" s="27"/>
-      <c r="J324" s="36"/>
-      <c r="K324" s="36"/>
+      <c r="J324" s="39"/>
+      <c r="K324" s="39"/>
       <c r="L324" s="27"/>
       <c r="M324" s="27"/>
       <c r="N324" s="27"/>
@@ -17593,8 +17715,8 @@
       <c r="G325" s="27"/>
       <c r="H325" s="27"/>
       <c r="I325" s="27"/>
-      <c r="J325" s="36"/>
-      <c r="K325" s="36"/>
+      <c r="J325" s="39"/>
+      <c r="K325" s="39"/>
       <c r="L325" s="27"/>
       <c r="M325" s="27"/>
       <c r="N325" s="27"/>
@@ -17638,8 +17760,8 @@
       <c r="G326" s="27"/>
       <c r="H326" s="27"/>
       <c r="I326" s="27"/>
-      <c r="J326" s="36"/>
-      <c r="K326" s="36"/>
+      <c r="J326" s="39"/>
+      <c r="K326" s="39"/>
       <c r="L326" s="27"/>
       <c r="M326" s="27"/>
       <c r="N326" s="27"/>
@@ -17683,8 +17805,8 @@
       <c r="G327" s="27"/>
       <c r="H327" s="27"/>
       <c r="I327" s="27"/>
-      <c r="J327" s="36"/>
-      <c r="K327" s="36"/>
+      <c r="J327" s="39"/>
+      <c r="K327" s="39"/>
       <c r="L327" s="27"/>
       <c r="M327" s="27"/>
       <c r="N327" s="27"/>
@@ -17728,8 +17850,8 @@
       <c r="G328" s="27"/>
       <c r="H328" s="27"/>
       <c r="I328" s="27"/>
-      <c r="J328" s="36"/>
-      <c r="K328" s="36"/>
+      <c r="J328" s="39"/>
+      <c r="K328" s="39"/>
       <c r="L328" s="27"/>
       <c r="M328" s="27"/>
       <c r="N328" s="27"/>
@@ -17773,8 +17895,8 @@
       <c r="G329" s="27"/>
       <c r="H329" s="27"/>
       <c r="I329" s="27"/>
-      <c r="J329" s="36"/>
-      <c r="K329" s="36"/>
+      <c r="J329" s="39"/>
+      <c r="K329" s="39"/>
       <c r="L329" s="27"/>
       <c r="M329" s="27"/>
       <c r="N329" s="27"/>
@@ -17818,8 +17940,8 @@
       <c r="G330" s="27"/>
       <c r="H330" s="27"/>
       <c r="I330" s="27"/>
-      <c r="J330" s="36"/>
-      <c r="K330" s="36"/>
+      <c r="J330" s="39"/>
+      <c r="K330" s="39"/>
       <c r="L330" s="27"/>
       <c r="M330" s="27"/>
       <c r="N330" s="27"/>
@@ -17863,8 +17985,8 @@
       <c r="G331" s="27"/>
       <c r="H331" s="27"/>
       <c r="I331" s="27"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
+      <c r="J331" s="39"/>
+      <c r="K331" s="39"/>
       <c r="L331" s="27"/>
       <c r="M331" s="27"/>
       <c r="N331" s="27"/>
@@ -17908,8 +18030,8 @@
       <c r="G332" s="27"/>
       <c r="H332" s="27"/>
       <c r="I332" s="27"/>
-      <c r="J332" s="36"/>
-      <c r="K332" s="36"/>
+      <c r="J332" s="39"/>
+      <c r="K332" s="39"/>
       <c r="L332" s="27"/>
       <c r="M332" s="27"/>
       <c r="N332" s="27"/>
@@ -17953,8 +18075,8 @@
       <c r="G333" s="27"/>
       <c r="H333" s="27"/>
       <c r="I333" s="27"/>
-      <c r="J333" s="36"/>
-      <c r="K333" s="36"/>
+      <c r="J333" s="39"/>
+      <c r="K333" s="39"/>
       <c r="L333" s="27"/>
       <c r="M333" s="27"/>
       <c r="N333" s="27"/>
@@ -17998,8 +18120,8 @@
       <c r="G334" s="27"/>
       <c r="H334" s="27"/>
       <c r="I334" s="27"/>
-      <c r="J334" s="36"/>
-      <c r="K334" s="36"/>
+      <c r="J334" s="39"/>
+      <c r="K334" s="39"/>
       <c r="L334" s="27"/>
       <c r="M334" s="27"/>
       <c r="N334" s="27"/>
@@ -18043,8 +18165,8 @@
       <c r="G335" s="27"/>
       <c r="H335" s="27"/>
       <c r="I335" s="27"/>
-      <c r="J335" s="36"/>
-      <c r="K335" s="36"/>
+      <c r="J335" s="39"/>
+      <c r="K335" s="39"/>
       <c r="L335" s="27"/>
       <c r="M335" s="27"/>
       <c r="N335" s="27"/>
@@ -18088,8 +18210,8 @@
       <c r="G336" s="27"/>
       <c r="H336" s="27"/>
       <c r="I336" s="27"/>
-      <c r="J336" s="36"/>
-      <c r="K336" s="36"/>
+      <c r="J336" s="39"/>
+      <c r="K336" s="39"/>
       <c r="L336" s="27"/>
       <c r="M336" s="27"/>
       <c r="N336" s="27"/>
@@ -18133,8 +18255,8 @@
       <c r="G337" s="27"/>
       <c r="H337" s="27"/>
       <c r="I337" s="27"/>
-      <c r="J337" s="36"/>
-      <c r="K337" s="36"/>
+      <c r="J337" s="39"/>
+      <c r="K337" s="39"/>
       <c r="L337" s="27"/>
       <c r="M337" s="27"/>
       <c r="N337" s="27"/>
@@ -18178,8 +18300,8 @@
       <c r="G338" s="27"/>
       <c r="H338" s="27"/>
       <c r="I338" s="27"/>
-      <c r="J338" s="36"/>
-      <c r="K338" s="36"/>
+      <c r="J338" s="39"/>
+      <c r="K338" s="39"/>
       <c r="L338" s="27"/>
       <c r="M338" s="27"/>
       <c r="N338" s="27"/>
@@ -18223,8 +18345,8 @@
       <c r="G339" s="27"/>
       <c r="H339" s="27"/>
       <c r="I339" s="27"/>
-      <c r="J339" s="36"/>
-      <c r="K339" s="36"/>
+      <c r="J339" s="39"/>
+      <c r="K339" s="39"/>
       <c r="L339" s="27"/>
       <c r="M339" s="27"/>
       <c r="N339" s="27"/>
@@ -18268,8 +18390,8 @@
       <c r="G340" s="27"/>
       <c r="H340" s="27"/>
       <c r="I340" s="27"/>
-      <c r="J340" s="36"/>
-      <c r="K340" s="36"/>
+      <c r="J340" s="39"/>
+      <c r="K340" s="39"/>
       <c r="L340" s="27"/>
       <c r="M340" s="27"/>
       <c r="N340" s="27"/>
@@ -18313,8 +18435,8 @@
       <c r="G341" s="27"/>
       <c r="H341" s="27"/>
       <c r="I341" s="27"/>
-      <c r="J341" s="36"/>
-      <c r="K341" s="36"/>
+      <c r="J341" s="39"/>
+      <c r="K341" s="39"/>
       <c r="L341" s="27"/>
       <c r="M341" s="27"/>
       <c r="N341" s="27"/>
@@ -18358,8 +18480,8 @@
       <c r="G342" s="27"/>
       <c r="H342" s="27"/>
       <c r="I342" s="27"/>
-      <c r="J342" s="36"/>
-      <c r="K342" s="36"/>
+      <c r="J342" s="39"/>
+      <c r="K342" s="39"/>
       <c r="L342" s="27"/>
       <c r="M342" s="27"/>
       <c r="N342" s="27"/>
@@ -18403,8 +18525,8 @@
       <c r="G343" s="27"/>
       <c r="H343" s="27"/>
       <c r="I343" s="27"/>
-      <c r="J343" s="36"/>
-      <c r="K343" s="36"/>
+      <c r="J343" s="39"/>
+      <c r="K343" s="39"/>
       <c r="L343" s="27"/>
       <c r="M343" s="27"/>
       <c r="N343" s="27"/>
@@ -18448,8 +18570,8 @@
       <c r="G344" s="27"/>
       <c r="H344" s="27"/>
       <c r="I344" s="27"/>
-      <c r="J344" s="36"/>
-      <c r="K344" s="36"/>
+      <c r="J344" s="39"/>
+      <c r="K344" s="39"/>
       <c r="L344" s="27"/>
       <c r="M344" s="27"/>
       <c r="N344" s="27"/>
@@ -18493,8 +18615,8 @@
       <c r="G345" s="27"/>
       <c r="H345" s="27"/>
       <c r="I345" s="27"/>
-      <c r="J345" s="36"/>
-      <c r="K345" s="36"/>
+      <c r="J345" s="39"/>
+      <c r="K345" s="39"/>
       <c r="L345" s="27"/>
       <c r="M345" s="27"/>
       <c r="N345" s="27"/>
@@ -18538,8 +18660,8 @@
       <c r="G346" s="27"/>
       <c r="H346" s="27"/>
       <c r="I346" s="27"/>
-      <c r="J346" s="36"/>
-      <c r="K346" s="36"/>
+      <c r="J346" s="39"/>
+      <c r="K346" s="39"/>
       <c r="L346" s="27"/>
       <c r="M346" s="27"/>
       <c r="N346" s="27"/>
@@ -18583,8 +18705,8 @@
       <c r="G347" s="27"/>
       <c r="H347" s="27"/>
       <c r="I347" s="27"/>
-      <c r="J347" s="36"/>
-      <c r="K347" s="36"/>
+      <c r="J347" s="39"/>
+      <c r="K347" s="39"/>
       <c r="L347" s="27"/>
       <c r="M347" s="27"/>
       <c r="N347" s="27"/>
@@ -18628,8 +18750,8 @@
       <c r="G348" s="27"/>
       <c r="H348" s="27"/>
       <c r="I348" s="27"/>
-      <c r="J348" s="36"/>
-      <c r="K348" s="36"/>
+      <c r="J348" s="39"/>
+      <c r="K348" s="39"/>
       <c r="L348" s="27"/>
       <c r="M348" s="27"/>
       <c r="N348" s="27"/>
@@ -18673,8 +18795,8 @@
       <c r="G349" s="27"/>
       <c r="H349" s="27"/>
       <c r="I349" s="27"/>
-      <c r="J349" s="36"/>
-      <c r="K349" s="36"/>
+      <c r="J349" s="39"/>
+      <c r="K349" s="39"/>
       <c r="L349" s="27"/>
       <c r="M349" s="27"/>
       <c r="N349" s="27"/>
@@ -18718,8 +18840,8 @@
       <c r="G350" s="27"/>
       <c r="H350" s="27"/>
       <c r="I350" s="27"/>
-      <c r="J350" s="36"/>
-      <c r="K350" s="36"/>
+      <c r="J350" s="39"/>
+      <c r="K350" s="39"/>
       <c r="L350" s="27"/>
       <c r="M350" s="27"/>
       <c r="N350" s="27"/>
@@ -18763,8 +18885,8 @@
       <c r="G351" s="27"/>
       <c r="H351" s="27"/>
       <c r="I351" s="27"/>
-      <c r="J351" s="36"/>
-      <c r="K351" s="36"/>
+      <c r="J351" s="39"/>
+      <c r="K351" s="39"/>
       <c r="L351" s="27"/>
       <c r="M351" s="27"/>
       <c r="N351" s="27"/>
@@ -18808,8 +18930,8 @@
       <c r="G352" s="27"/>
       <c r="H352" s="27"/>
       <c r="I352" s="27"/>
-      <c r="J352" s="36"/>
-      <c r="K352" s="36"/>
+      <c r="J352" s="39"/>
+      <c r="K352" s="39"/>
       <c r="L352" s="27"/>
       <c r="M352" s="27"/>
       <c r="N352" s="27"/>
@@ -18853,8 +18975,8 @@
       <c r="G353" s="27"/>
       <c r="H353" s="27"/>
       <c r="I353" s="27"/>
-      <c r="J353" s="36"/>
-      <c r="K353" s="36"/>
+      <c r="J353" s="39"/>
+      <c r="K353" s="39"/>
       <c r="L353" s="27"/>
       <c r="M353" s="27"/>
       <c r="N353" s="27"/>
@@ -18898,8 +19020,8 @@
       <c r="G354" s="27"/>
       <c r="H354" s="27"/>
       <c r="I354" s="27"/>
-      <c r="J354" s="36"/>
-      <c r="K354" s="36"/>
+      <c r="J354" s="39"/>
+      <c r="K354" s="39"/>
       <c r="L354" s="27"/>
       <c r="M354" s="27"/>
       <c r="N354" s="27"/>
@@ -18943,8 +19065,8 @@
       <c r="G355" s="27"/>
       <c r="H355" s="27"/>
       <c r="I355" s="27"/>
-      <c r="J355" s="36"/>
-      <c r="K355" s="36"/>
+      <c r="J355" s="39"/>
+      <c r="K355" s="39"/>
       <c r="L355" s="27"/>
       <c r="M355" s="27"/>
       <c r="N355" s="27"/>
@@ -18988,8 +19110,8 @@
       <c r="G356" s="27"/>
       <c r="H356" s="27"/>
       <c r="I356" s="27"/>
-      <c r="J356" s="36"/>
-      <c r="K356" s="36"/>
+      <c r="J356" s="39"/>
+      <c r="K356" s="39"/>
       <c r="L356" s="27"/>
       <c r="M356" s="27"/>
       <c r="N356" s="27"/>
@@ -19033,8 +19155,8 @@
       <c r="G357" s="27"/>
       <c r="H357" s="27"/>
       <c r="I357" s="27"/>
-      <c r="J357" s="36"/>
-      <c r="K357" s="36"/>
+      <c r="J357" s="39"/>
+      <c r="K357" s="39"/>
       <c r="L357" s="27"/>
       <c r="M357" s="27"/>
       <c r="N357" s="27"/>
@@ -19078,8 +19200,8 @@
       <c r="G358" s="27"/>
       <c r="H358" s="27"/>
       <c r="I358" s="27"/>
-      <c r="J358" s="36"/>
-      <c r="K358" s="36"/>
+      <c r="J358" s="39"/>
+      <c r="K358" s="39"/>
       <c r="L358" s="27"/>
       <c r="M358" s="27"/>
       <c r="N358" s="27"/>
@@ -19123,8 +19245,8 @@
       <c r="G359" s="27"/>
       <c r="H359" s="27"/>
       <c r="I359" s="27"/>
-      <c r="J359" s="36"/>
-      <c r="K359" s="36"/>
+      <c r="J359" s="39"/>
+      <c r="K359" s="39"/>
       <c r="L359" s="27"/>
       <c r="M359" s="27"/>
       <c r="N359" s="27"/>
@@ -19168,8 +19290,8 @@
       <c r="G360" s="27"/>
       <c r="H360" s="27"/>
       <c r="I360" s="27"/>
-      <c r="J360" s="36"/>
-      <c r="K360" s="36"/>
+      <c r="J360" s="39"/>
+      <c r="K360" s="39"/>
       <c r="L360" s="27"/>
       <c r="M360" s="27"/>
       <c r="N360" s="27"/>
@@ -19213,8 +19335,8 @@
       <c r="G361" s="27"/>
       <c r="H361" s="27"/>
       <c r="I361" s="27"/>
-      <c r="J361" s="36"/>
-      <c r="K361" s="36"/>
+      <c r="J361" s="39"/>
+      <c r="K361" s="39"/>
       <c r="L361" s="27"/>
       <c r="M361" s="27"/>
       <c r="N361" s="27"/>
@@ -19258,8 +19380,8 @@
       <c r="G362" s="27"/>
       <c r="H362" s="27"/>
       <c r="I362" s="27"/>
-      <c r="J362" s="36"/>
-      <c r="K362" s="36"/>
+      <c r="J362" s="39"/>
+      <c r="K362" s="39"/>
       <c r="L362" s="27"/>
       <c r="M362" s="27"/>
       <c r="N362" s="27"/>
@@ -19303,8 +19425,8 @@
       <c r="G363" s="27"/>
       <c r="H363" s="27"/>
       <c r="I363" s="27"/>
-      <c r="J363" s="36"/>
-      <c r="K363" s="36"/>
+      <c r="J363" s="39"/>
+      <c r="K363" s="39"/>
       <c r="L363" s="27"/>
       <c r="M363" s="27"/>
       <c r="N363" s="27"/>
@@ -19348,8 +19470,8 @@
       <c r="G364" s="27"/>
       <c r="H364" s="27"/>
       <c r="I364" s="27"/>
-      <c r="J364" s="36"/>
-      <c r="K364" s="36"/>
+      <c r="J364" s="39"/>
+      <c r="K364" s="39"/>
       <c r="L364" s="27"/>
       <c r="M364" s="27"/>
       <c r="N364" s="27"/>
@@ -19393,8 +19515,8 @@
       <c r="G365" s="27"/>
       <c r="H365" s="27"/>
       <c r="I365" s="27"/>
-      <c r="J365" s="36"/>
-      <c r="K365" s="36"/>
+      <c r="J365" s="39"/>
+      <c r="K365" s="39"/>
       <c r="L365" s="27"/>
       <c r="M365" s="27"/>
       <c r="N365" s="27"/>
@@ -19438,8 +19560,8 @@
       <c r="G366" s="27"/>
       <c r="H366" s="27"/>
       <c r="I366" s="27"/>
-      <c r="J366" s="36"/>
-      <c r="K366" s="36"/>
+      <c r="J366" s="39"/>
+      <c r="K366" s="39"/>
       <c r="L366" s="27"/>
       <c r="M366" s="27"/>
       <c r="N366" s="27"/>
@@ -19483,8 +19605,8 @@
       <c r="G367" s="27"/>
       <c r="H367" s="27"/>
       <c r="I367" s="27"/>
-      <c r="J367" s="36"/>
-      <c r="K367" s="36"/>
+      <c r="J367" s="39"/>
+      <c r="K367" s="39"/>
       <c r="L367" s="27"/>
       <c r="M367" s="27"/>
       <c r="N367" s="27"/>
@@ -19528,8 +19650,8 @@
       <c r="G368" s="27"/>
       <c r="H368" s="27"/>
       <c r="I368" s="27"/>
-      <c r="J368" s="36"/>
-      <c r="K368" s="36"/>
+      <c r="J368" s="39"/>
+      <c r="K368" s="39"/>
       <c r="L368" s="27"/>
       <c r="M368" s="27"/>
       <c r="N368" s="27"/>
@@ -19573,8 +19695,8 @@
       <c r="G369" s="27"/>
       <c r="H369" s="27"/>
       <c r="I369" s="27"/>
-      <c r="J369" s="36"/>
-      <c r="K369" s="36"/>
+      <c r="J369" s="39"/>
+      <c r="K369" s="39"/>
       <c r="L369" s="27"/>
       <c r="M369" s="27"/>
       <c r="N369" s="27"/>
@@ -19618,8 +19740,8 @@
       <c r="G370" s="27"/>
       <c r="H370" s="27"/>
       <c r="I370" s="27"/>
-      <c r="J370" s="36"/>
-      <c r="K370" s="36"/>
+      <c r="J370" s="39"/>
+      <c r="K370" s="39"/>
       <c r="L370" s="27"/>
       <c r="M370" s="27"/>
       <c r="N370" s="27"/>
@@ -19663,8 +19785,8 @@
       <c r="G371" s="27"/>
       <c r="H371" s="27"/>
       <c r="I371" s="27"/>
-      <c r="J371" s="36"/>
-      <c r="K371" s="36"/>
+      <c r="J371" s="39"/>
+      <c r="K371" s="39"/>
       <c r="L371" s="27"/>
       <c r="M371" s="27"/>
       <c r="N371" s="27"/>
@@ -19708,8 +19830,8 @@
       <c r="G372" s="27"/>
       <c r="H372" s="27"/>
       <c r="I372" s="27"/>
-      <c r="J372" s="36"/>
-      <c r="K372" s="36"/>
+      <c r="J372" s="39"/>
+      <c r="K372" s="39"/>
       <c r="L372" s="27"/>
       <c r="M372" s="27"/>
       <c r="N372" s="27"/>
@@ -19753,8 +19875,8 @@
       <c r="G373" s="27"/>
       <c r="H373" s="27"/>
       <c r="I373" s="27"/>
-      <c r="J373" s="36"/>
-      <c r="K373" s="36"/>
+      <c r="J373" s="39"/>
+      <c r="K373" s="39"/>
       <c r="L373" s="27"/>
       <c r="M373" s="27"/>
       <c r="N373" s="27"/>
@@ -19798,8 +19920,8 @@
       <c r="G374" s="27"/>
       <c r="H374" s="27"/>
       <c r="I374" s="27"/>
-      <c r="J374" s="36"/>
-      <c r="K374" s="36"/>
+      <c r="J374" s="39"/>
+      <c r="K374" s="39"/>
       <c r="L374" s="27"/>
       <c r="M374" s="27"/>
       <c r="N374" s="27"/>
@@ -19843,8 +19965,8 @@
       <c r="G375" s="27"/>
       <c r="H375" s="27"/>
       <c r="I375" s="27"/>
-      <c r="J375" s="36"/>
-      <c r="K375" s="36"/>
+      <c r="J375" s="39"/>
+      <c r="K375" s="39"/>
       <c r="L375" s="27"/>
       <c r="M375" s="27"/>
       <c r="N375" s="27"/>
@@ -19888,8 +20010,8 @@
       <c r="G376" s="27"/>
       <c r="H376" s="27"/>
       <c r="I376" s="27"/>
-      <c r="J376" s="36"/>
-      <c r="K376" s="36"/>
+      <c r="J376" s="39"/>
+      <c r="K376" s="39"/>
       <c r="L376" s="27"/>
       <c r="M376" s="27"/>
       <c r="N376" s="27"/>
@@ -19933,8 +20055,8 @@
       <c r="G377" s="27"/>
       <c r="H377" s="27"/>
       <c r="I377" s="27"/>
-      <c r="J377" s="36"/>
-      <c r="K377" s="36"/>
+      <c r="J377" s="39"/>
+      <c r="K377" s="39"/>
       <c r="L377" s="27"/>
       <c r="M377" s="27"/>
       <c r="N377" s="27"/>
@@ -19978,8 +20100,8 @@
       <c r="G378" s="27"/>
       <c r="H378" s="27"/>
       <c r="I378" s="27"/>
-      <c r="J378" s="36"/>
-      <c r="K378" s="36"/>
+      <c r="J378" s="39"/>
+      <c r="K378" s="39"/>
       <c r="L378" s="27"/>
       <c r="M378" s="27"/>
       <c r="N378" s="27"/>
@@ -20023,8 +20145,8 @@
       <c r="G379" s="27"/>
       <c r="H379" s="27"/>
       <c r="I379" s="27"/>
-      <c r="J379" s="36"/>
-      <c r="K379" s="36"/>
+      <c r="J379" s="39"/>
+      <c r="K379" s="39"/>
       <c r="L379" s="27"/>
       <c r="M379" s="27"/>
       <c r="N379" s="27"/>
@@ -20068,8 +20190,8 @@
       <c r="G380" s="27"/>
       <c r="H380" s="27"/>
       <c r="I380" s="27"/>
-      <c r="J380" s="36"/>
-      <c r="K380" s="36"/>
+      <c r="J380" s="39"/>
+      <c r="K380" s="39"/>
       <c r="L380" s="27"/>
       <c r="M380" s="27"/>
       <c r="N380" s="27"/>
@@ -20113,8 +20235,8 @@
       <c r="G381" s="27"/>
       <c r="H381" s="27"/>
       <c r="I381" s="27"/>
-      <c r="J381" s="36"/>
-      <c r="K381" s="36"/>
+      <c r="J381" s="39"/>
+      <c r="K381" s="39"/>
       <c r="L381" s="27"/>
       <c r="M381" s="27"/>
       <c r="N381" s="27"/>
@@ -20158,8 +20280,8 @@
       <c r="G382" s="27"/>
       <c r="H382" s="27"/>
       <c r="I382" s="27"/>
-      <c r="J382" s="36"/>
-      <c r="K382" s="36"/>
+      <c r="J382" s="39"/>
+      <c r="K382" s="39"/>
       <c r="L382" s="27"/>
       <c r="M382" s="27"/>
       <c r="N382" s="27"/>
@@ -20203,8 +20325,8 @@
       <c r="G383" s="27"/>
       <c r="H383" s="27"/>
       <c r="I383" s="27"/>
-      <c r="J383" s="36"/>
-      <c r="K383" s="36"/>
+      <c r="J383" s="39"/>
+      <c r="K383" s="39"/>
       <c r="L383" s="27"/>
       <c r="M383" s="27"/>
       <c r="N383" s="27"/>
@@ -20248,8 +20370,8 @@
       <c r="G384" s="27"/>
       <c r="H384" s="27"/>
       <c r="I384" s="27"/>
-      <c r="J384" s="36"/>
-      <c r="K384" s="36"/>
+      <c r="J384" s="39"/>
+      <c r="K384" s="39"/>
       <c r="L384" s="27"/>
       <c r="M384" s="27"/>
       <c r="N384" s="27"/>
@@ -20293,8 +20415,8 @@
       <c r="G385" s="27"/>
       <c r="H385" s="27"/>
       <c r="I385" s="27"/>
-      <c r="J385" s="36"/>
-      <c r="K385" s="36"/>
+      <c r="J385" s="39"/>
+      <c r="K385" s="39"/>
       <c r="L385" s="27"/>
       <c r="M385" s="27"/>
       <c r="N385" s="27"/>
@@ -20338,8 +20460,8 @@
       <c r="G386" s="27"/>
       <c r="H386" s="27"/>
       <c r="I386" s="27"/>
-      <c r="J386" s="36"/>
-      <c r="K386" s="36"/>
+      <c r="J386" s="39"/>
+      <c r="K386" s="39"/>
       <c r="L386" s="27"/>
       <c r="M386" s="27"/>
       <c r="N386" s="27"/>
@@ -20383,8 +20505,8 @@
       <c r="G387" s="27"/>
       <c r="H387" s="27"/>
       <c r="I387" s="27"/>
-      <c r="J387" s="36"/>
-      <c r="K387" s="36"/>
+      <c r="J387" s="39"/>
+      <c r="K387" s="39"/>
       <c r="L387" s="27"/>
       <c r="M387" s="27"/>
       <c r="N387" s="27"/>
@@ -20428,8 +20550,8 @@
       <c r="G388" s="27"/>
       <c r="H388" s="27"/>
       <c r="I388" s="27"/>
-      <c r="J388" s="36"/>
-      <c r="K388" s="36"/>
+      <c r="J388" s="39"/>
+      <c r="K388" s="39"/>
       <c r="L388" s="27"/>
       <c r="M388" s="27"/>
       <c r="N388" s="27"/>
@@ -20473,8 +20595,8 @@
       <c r="G389" s="27"/>
       <c r="H389" s="27"/>
       <c r="I389" s="27"/>
-      <c r="J389" s="36"/>
-      <c r="K389" s="36"/>
+      <c r="J389" s="39"/>
+      <c r="K389" s="39"/>
       <c r="L389" s="27"/>
       <c r="M389" s="27"/>
       <c r="N389" s="27"/>
@@ -20518,8 +20640,8 @@
       <c r="G390" s="27"/>
       <c r="H390" s="27"/>
       <c r="I390" s="27"/>
-      <c r="J390" s="36"/>
-      <c r="K390" s="36"/>
+      <c r="J390" s="39"/>
+      <c r="K390" s="39"/>
       <c r="L390" s="27"/>
       <c r="M390" s="27"/>
       <c r="N390" s="27"/>
@@ -20563,8 +20685,8 @@
       <c r="G391" s="27"/>
       <c r="H391" s="27"/>
       <c r="I391" s="27"/>
-      <c r="J391" s="36"/>
-      <c r="K391" s="36"/>
+      <c r="J391" s="39"/>
+      <c r="K391" s="39"/>
       <c r="L391" s="27"/>
       <c r="M391" s="27"/>
       <c r="N391" s="27"/>
@@ -20608,8 +20730,8 @@
       <c r="G392" s="27"/>
       <c r="H392" s="27"/>
       <c r="I392" s="27"/>
-      <c r="J392" s="36"/>
-      <c r="K392" s="36"/>
+      <c r="J392" s="39"/>
+      <c r="K392" s="39"/>
       <c r="L392" s="27"/>
       <c r="M392" s="27"/>
       <c r="N392" s="27"/>
@@ -20653,8 +20775,8 @@
       <c r="G393" s="27"/>
       <c r="H393" s="27"/>
       <c r="I393" s="27"/>
-      <c r="J393" s="36"/>
-      <c r="K393" s="36"/>
+      <c r="J393" s="39"/>
+      <c r="K393" s="39"/>
       <c r="L393" s="27"/>
       <c r="M393" s="27"/>
       <c r="N393" s="27"/>
@@ -20698,8 +20820,8 @@
       <c r="G394" s="27"/>
       <c r="H394" s="27"/>
       <c r="I394" s="27"/>
-      <c r="J394" s="36"/>
-      <c r="K394" s="36"/>
+      <c r="J394" s="39"/>
+      <c r="K394" s="39"/>
       <c r="L394" s="27"/>
       <c r="M394" s="27"/>
       <c r="N394" s="27"/>
@@ -20743,8 +20865,8 @@
       <c r="G395" s="27"/>
       <c r="H395" s="27"/>
       <c r="I395" s="27"/>
-      <c r="J395" s="36"/>
-      <c r="K395" s="36"/>
+      <c r="J395" s="39"/>
+      <c r="K395" s="39"/>
       <c r="L395" s="27"/>
       <c r="M395" s="27"/>
       <c r="N395" s="27"/>
@@ -20788,8 +20910,8 @@
       <c r="G396" s="27"/>
       <c r="H396" s="27"/>
       <c r="I396" s="27"/>
-      <c r="J396" s="36"/>
-      <c r="K396" s="36"/>
+      <c r="J396" s="39"/>
+      <c r="K396" s="39"/>
       <c r="L396" s="27"/>
       <c r="M396" s="27"/>
       <c r="N396" s="27"/>
@@ -20833,8 +20955,8 @@
       <c r="G397" s="27"/>
       <c r="H397" s="27"/>
       <c r="I397" s="27"/>
-      <c r="J397" s="36"/>
-      <c r="K397" s="36"/>
+      <c r="J397" s="39"/>
+      <c r="K397" s="39"/>
       <c r="L397" s="27"/>
       <c r="M397" s="27"/>
       <c r="N397" s="27"/>
@@ -20878,8 +21000,8 @@
       <c r="G398" s="27"/>
       <c r="H398" s="27"/>
       <c r="I398" s="27"/>
-      <c r="J398" s="36"/>
-      <c r="K398" s="36"/>
+      <c r="J398" s="39"/>
+      <c r="K398" s="39"/>
       <c r="L398" s="27"/>
       <c r="M398" s="27"/>
       <c r="N398" s="27"/>
@@ -20923,8 +21045,8 @@
       <c r="G399" s="27"/>
       <c r="H399" s="27"/>
       <c r="I399" s="27"/>
-      <c r="J399" s="36"/>
-      <c r="K399" s="36"/>
+      <c r="J399" s="39"/>
+      <c r="K399" s="39"/>
       <c r="L399" s="27"/>
       <c r="M399" s="27"/>
       <c r="N399" s="27"/>
@@ -20968,8 +21090,8 @@
       <c r="G400" s="27"/>
       <c r="H400" s="27"/>
       <c r="I400" s="27"/>
-      <c r="J400" s="36"/>
-      <c r="K400" s="36"/>
+      <c r="J400" s="39"/>
+      <c r="K400" s="39"/>
       <c r="L400" s="27"/>
       <c r="M400" s="27"/>
       <c r="N400" s="27"/>
@@ -21013,8 +21135,8 @@
       <c r="G401" s="27"/>
       <c r="H401" s="27"/>
       <c r="I401" s="27"/>
-      <c r="J401" s="36"/>
-      <c r="K401" s="36"/>
+      <c r="J401" s="39"/>
+      <c r="K401" s="39"/>
       <c r="L401" s="27"/>
       <c r="M401" s="27"/>
       <c r="N401" s="27"/>
@@ -21058,8 +21180,8 @@
       <c r="G402" s="27"/>
       <c r="H402" s="27"/>
       <c r="I402" s="27"/>
-      <c r="J402" s="36"/>
-      <c r="K402" s="36"/>
+      <c r="J402" s="39"/>
+      <c r="K402" s="39"/>
       <c r="L402" s="27"/>
       <c r="M402" s="27"/>
       <c r="N402" s="27"/>
@@ -21103,8 +21225,8 @@
       <c r="G403" s="27"/>
       <c r="H403" s="27"/>
       <c r="I403" s="27"/>
-      <c r="J403" s="36"/>
-      <c r="K403" s="36"/>
+      <c r="J403" s="39"/>
+      <c r="K403" s="39"/>
       <c r="L403" s="27"/>
       <c r="M403" s="27"/>
       <c r="N403" s="27"/>
@@ -21148,8 +21270,8 @@
       <c r="G404" s="27"/>
       <c r="H404" s="27"/>
       <c r="I404" s="27"/>
-      <c r="J404" s="36"/>
-      <c r="K404" s="36"/>
+      <c r="J404" s="39"/>
+      <c r="K404" s="39"/>
       <c r="L404" s="27"/>
       <c r="M404" s="27"/>
       <c r="N404" s="27"/>
@@ -21193,8 +21315,8 @@
       <c r="G405" s="27"/>
       <c r="H405" s="27"/>
       <c r="I405" s="27"/>
-      <c r="J405" s="36"/>
-      <c r="K405" s="36"/>
+      <c r="J405" s="39"/>
+      <c r="K405" s="39"/>
       <c r="L405" s="27"/>
       <c r="M405" s="27"/>
       <c r="N405" s="27"/>
@@ -21238,8 +21360,8 @@
       <c r="G406" s="27"/>
       <c r="H406" s="27"/>
       <c r="I406" s="27"/>
-      <c r="J406" s="36"/>
-      <c r="K406" s="36"/>
+      <c r="J406" s="39"/>
+      <c r="K406" s="39"/>
       <c r="L406" s="27"/>
       <c r="M406" s="27"/>
       <c r="N406" s="27"/>
@@ -21283,8 +21405,8 @@
       <c r="G407" s="27"/>
       <c r="H407" s="27"/>
       <c r="I407" s="27"/>
-      <c r="J407" s="36"/>
-      <c r="K407" s="36"/>
+      <c r="J407" s="39"/>
+      <c r="K407" s="39"/>
       <c r="L407" s="27"/>
       <c r="M407" s="27"/>
       <c r="N407" s="27"/>
@@ -21328,8 +21450,8 @@
       <c r="G408" s="27"/>
       <c r="H408" s="27"/>
       <c r="I408" s="27"/>
-      <c r="J408" s="36"/>
-      <c r="K408" s="36"/>
+      <c r="J408" s="39"/>
+      <c r="K408" s="39"/>
       <c r="L408" s="27"/>
       <c r="M408" s="27"/>
       <c r="N408" s="27"/>
@@ -21373,8 +21495,8 @@
       <c r="G409" s="27"/>
       <c r="H409" s="27"/>
       <c r="I409" s="27"/>
-      <c r="J409" s="36"/>
-      <c r="K409" s="36"/>
+      <c r="J409" s="39"/>
+      <c r="K409" s="39"/>
       <c r="L409" s="27"/>
       <c r="M409" s="27"/>
       <c r="N409" s="27"/>
@@ -21418,8 +21540,8 @@
       <c r="G410" s="27"/>
       <c r="H410" s="27"/>
       <c r="I410" s="27"/>
-      <c r="J410" s="36"/>
-      <c r="K410" s="36"/>
+      <c r="J410" s="39"/>
+      <c r="K410" s="39"/>
       <c r="L410" s="27"/>
       <c r="M410" s="27"/>
       <c r="N410" s="27"/>
@@ -21463,8 +21585,8 @@
       <c r="G411" s="27"/>
       <c r="H411" s="27"/>
       <c r="I411" s="27"/>
-      <c r="J411" s="36"/>
-      <c r="K411" s="36"/>
+      <c r="J411" s="39"/>
+      <c r="K411" s="39"/>
       <c r="L411" s="27"/>
       <c r="M411" s="27"/>
       <c r="N411" s="27"/>
@@ -21508,8 +21630,8 @@
       <c r="G412" s="27"/>
       <c r="H412" s="27"/>
       <c r="I412" s="27"/>
-      <c r="J412" s="36"/>
-      <c r="K412" s="36"/>
+      <c r="J412" s="39"/>
+      <c r="K412" s="39"/>
       <c r="L412" s="27"/>
       <c r="M412" s="27"/>
       <c r="N412" s="27"/>
@@ -21553,8 +21675,8 @@
       <c r="G413" s="27"/>
       <c r="H413" s="27"/>
       <c r="I413" s="27"/>
-      <c r="J413" s="36"/>
-      <c r="K413" s="36"/>
+      <c r="J413" s="39"/>
+      <c r="K413" s="39"/>
       <c r="L413" s="27"/>
       <c r="M413" s="27"/>
       <c r="N413" s="27"/>
@@ -21598,8 +21720,8 @@
       <c r="G414" s="27"/>
       <c r="H414" s="27"/>
       <c r="I414" s="27"/>
-      <c r="J414" s="36"/>
-      <c r="K414" s="36"/>
+      <c r="J414" s="39"/>
+      <c r="K414" s="39"/>
       <c r="L414" s="27"/>
       <c r="M414" s="27"/>
       <c r="N414" s="27"/>
@@ -21643,8 +21765,8 @@
       <c r="G415" s="27"/>
       <c r="H415" s="27"/>
       <c r="I415" s="27"/>
-      <c r="J415" s="36"/>
-      <c r="K415" s="36"/>
+      <c r="J415" s="39"/>
+      <c r="K415" s="39"/>
       <c r="L415" s="27"/>
       <c r="M415" s="27"/>
       <c r="N415" s="27"/>
@@ -21688,8 +21810,8 @@
       <c r="G416" s="27"/>
       <c r="H416" s="27"/>
       <c r="I416" s="27"/>
-      <c r="J416" s="36"/>
-      <c r="K416" s="36"/>
+      <c r="J416" s="39"/>
+      <c r="K416" s="39"/>
       <c r="L416" s="27"/>
       <c r="M416" s="27"/>
       <c r="N416" s="27"/>
@@ -21733,8 +21855,8 @@
       <c r="G417" s="27"/>
       <c r="H417" s="27"/>
       <c r="I417" s="27"/>
-      <c r="J417" s="36"/>
-      <c r="K417" s="36"/>
+      <c r="J417" s="39"/>
+      <c r="K417" s="39"/>
       <c r="L417" s="27"/>
       <c r="M417" s="27"/>
       <c r="N417" s="27"/>
@@ -21778,8 +21900,8 @@
       <c r="G418" s="27"/>
       <c r="H418" s="27"/>
       <c r="I418" s="27"/>
-      <c r="J418" s="36"/>
-      <c r="K418" s="36"/>
+      <c r="J418" s="39"/>
+      <c r="K418" s="39"/>
       <c r="L418" s="27"/>
       <c r="M418" s="27"/>
       <c r="N418" s="27"/>
@@ -21823,8 +21945,8 @@
       <c r="G419" s="27"/>
       <c r="H419" s="27"/>
       <c r="I419" s="27"/>
-      <c r="J419" s="36"/>
-      <c r="K419" s="36"/>
+      <c r="J419" s="39"/>
+      <c r="K419" s="39"/>
       <c r="L419" s="27"/>
       <c r="M419" s="27"/>
       <c r="N419" s="27"/>
@@ -21868,8 +21990,8 @@
       <c r="G420" s="27"/>
       <c r="H420" s="27"/>
       <c r="I420" s="27"/>
-      <c r="J420" s="36"/>
-      <c r="K420" s="36"/>
+      <c r="J420" s="39"/>
+      <c r="K420" s="39"/>
       <c r="L420" s="27"/>
       <c r="M420" s="27"/>
       <c r="N420" s="27"/>
@@ -21913,8 +22035,8 @@
       <c r="G421" s="27"/>
       <c r="H421" s="27"/>
       <c r="I421" s="27"/>
-      <c r="J421" s="36"/>
-      <c r="K421" s="36"/>
+      <c r="J421" s="39"/>
+      <c r="K421" s="39"/>
       <c r="L421" s="27"/>
       <c r="M421" s="27"/>
       <c r="N421" s="27"/>
@@ -21958,8 +22080,8 @@
       <c r="G422" s="27"/>
       <c r="H422" s="27"/>
       <c r="I422" s="27"/>
-      <c r="J422" s="36"/>
-      <c r="K422" s="36"/>
+      <c r="J422" s="39"/>
+      <c r="K422" s="39"/>
       <c r="L422" s="27"/>
       <c r="M422" s="27"/>
       <c r="N422" s="27"/>
@@ -22003,8 +22125,8 @@
       <c r="G423" s="27"/>
       <c r="H423" s="27"/>
       <c r="I423" s="27"/>
-      <c r="J423" s="36"/>
-      <c r="K423" s="36"/>
+      <c r="J423" s="39"/>
+      <c r="K423" s="39"/>
       <c r="L423" s="27"/>
       <c r="M423" s="27"/>
       <c r="N423" s="27"/>
@@ -22048,8 +22170,8 @@
       <c r="G424" s="27"/>
       <c r="H424" s="27"/>
       <c r="I424" s="27"/>
-      <c r="J424" s="36"/>
-      <c r="K424" s="36"/>
+      <c r="J424" s="39"/>
+      <c r="K424" s="39"/>
       <c r="L424" s="27"/>
       <c r="M424" s="27"/>
       <c r="N424" s="27"/>
@@ -22093,8 +22215,8 @@
       <c r="G425" s="27"/>
       <c r="H425" s="27"/>
       <c r="I425" s="27"/>
-      <c r="J425" s="36"/>
-      <c r="K425" s="36"/>
+      <c r="J425" s="39"/>
+      <c r="K425" s="39"/>
       <c r="L425" s="27"/>
       <c r="M425" s="27"/>
       <c r="N425" s="27"/>
@@ -22138,8 +22260,8 @@
       <c r="G426" s="27"/>
       <c r="H426" s="27"/>
       <c r="I426" s="27"/>
-      <c r="J426" s="36"/>
-      <c r="K426" s="36"/>
+      <c r="J426" s="39"/>
+      <c r="K426" s="39"/>
       <c r="L426" s="27"/>
       <c r="M426" s="27"/>
       <c r="N426" s="27"/>
@@ -22183,8 +22305,8 @@
       <c r="G427" s="27"/>
       <c r="H427" s="27"/>
       <c r="I427" s="27"/>
-      <c r="J427" s="36"/>
-      <c r="K427" s="36"/>
+      <c r="J427" s="39"/>
+      <c r="K427" s="39"/>
       <c r="L427" s="27"/>
       <c r="M427" s="27"/>
       <c r="N427" s="27"/>
@@ -22228,8 +22350,8 @@
       <c r="G428" s="27"/>
       <c r="H428" s="27"/>
       <c r="I428" s="27"/>
-      <c r="J428" s="36"/>
-      <c r="K428" s="36"/>
+      <c r="J428" s="39"/>
+      <c r="K428" s="39"/>
       <c r="L428" s="27"/>
       <c r="M428" s="27"/>
       <c r="N428" s="27"/>
@@ -22273,8 +22395,8 @@
       <c r="G429" s="27"/>
       <c r="H429" s="27"/>
       <c r="I429" s="27"/>
-      <c r="J429" s="36"/>
-      <c r="K429" s="36"/>
+      <c r="J429" s="39"/>
+      <c r="K429" s="39"/>
       <c r="L429" s="27"/>
       <c r="M429" s="27"/>
       <c r="N429" s="27"/>
@@ -22318,8 +22440,8 @@
       <c r="G430" s="27"/>
       <c r="H430" s="27"/>
       <c r="I430" s="27"/>
-      <c r="J430" s="36"/>
-      <c r="K430" s="36"/>
+      <c r="J430" s="39"/>
+      <c r="K430" s="39"/>
       <c r="L430" s="27"/>
       <c r="M430" s="27"/>
       <c r="N430" s="27"/>
@@ -22363,8 +22485,8 @@
       <c r="G431" s="27"/>
       <c r="H431" s="27"/>
       <c r="I431" s="27"/>
-      <c r="J431" s="36"/>
-      <c r="K431" s="36"/>
+      <c r="J431" s="39"/>
+      <c r="K431" s="39"/>
       <c r="L431" s="27"/>
       <c r="M431" s="27"/>
       <c r="N431" s="27"/>
@@ -22408,8 +22530,8 @@
       <c r="G432" s="27"/>
       <c r="H432" s="27"/>
       <c r="I432" s="27"/>
-      <c r="J432" s="36"/>
-      <c r="K432" s="36"/>
+      <c r="J432" s="39"/>
+      <c r="K432" s="39"/>
       <c r="L432" s="27"/>
       <c r="M432" s="27"/>
       <c r="N432" s="27"/>
@@ -22453,8 +22575,8 @@
       <c r="G433" s="27"/>
       <c r="H433" s="27"/>
       <c r="I433" s="27"/>
-      <c r="J433" s="36"/>
-      <c r="K433" s="36"/>
+      <c r="J433" s="39"/>
+      <c r="K433" s="39"/>
       <c r="L433" s="27"/>
       <c r="M433" s="27"/>
       <c r="N433" s="27"/>
@@ -22498,8 +22620,8 @@
       <c r="G434" s="27"/>
       <c r="H434" s="27"/>
       <c r="I434" s="27"/>
-      <c r="J434" s="36"/>
-      <c r="K434" s="36"/>
+      <c r="J434" s="39"/>
+      <c r="K434" s="39"/>
       <c r="L434" s="27"/>
       <c r="M434" s="27"/>
       <c r="N434" s="27"/>
@@ -22543,8 +22665,8 @@
       <c r="G435" s="27"/>
       <c r="H435" s="27"/>
       <c r="I435" s="27"/>
-      <c r="J435" s="36"/>
-      <c r="K435" s="36"/>
+      <c r="J435" s="39"/>
+      <c r="K435" s="39"/>
       <c r="L435" s="27"/>
       <c r="M435" s="27"/>
       <c r="N435" s="27"/>
@@ -22588,8 +22710,8 @@
       <c r="G436" s="27"/>
       <c r="H436" s="27"/>
       <c r="I436" s="27"/>
-      <c r="J436" s="36"/>
-      <c r="K436" s="36"/>
+      <c r="J436" s="39"/>
+      <c r="K436" s="39"/>
       <c r="L436" s="27"/>
       <c r="M436" s="27"/>
       <c r="N436" s="27"/>
@@ -22633,8 +22755,8 @@
       <c r="G437" s="27"/>
       <c r="H437" s="27"/>
       <c r="I437" s="27"/>
-      <c r="J437" s="36"/>
-      <c r="K437" s="36"/>
+      <c r="J437" s="39"/>
+      <c r="K437" s="39"/>
       <c r="L437" s="27"/>
       <c r="M437" s="27"/>
       <c r="N437" s="27"/>
@@ -22678,8 +22800,8 @@
       <c r="G438" s="27"/>
       <c r="H438" s="27"/>
       <c r="I438" s="27"/>
-      <c r="J438" s="36"/>
-      <c r="K438" s="36"/>
+      <c r="J438" s="39"/>
+      <c r="K438" s="39"/>
       <c r="L438" s="27"/>
       <c r="M438" s="27"/>
       <c r="N438" s="27"/>
@@ -22723,8 +22845,8 @@
       <c r="G439" s="27"/>
       <c r="H439" s="27"/>
       <c r="I439" s="27"/>
-      <c r="J439" s="36"/>
-      <c r="K439" s="36"/>
+      <c r="J439" s="39"/>
+      <c r="K439" s="39"/>
       <c r="L439" s="27"/>
       <c r="M439" s="27"/>
       <c r="N439" s="27"/>
@@ -22768,8 +22890,8 @@
       <c r="G440" s="27"/>
       <c r="H440" s="27"/>
       <c r="I440" s="27"/>
-      <c r="J440" s="36"/>
-      <c r="K440" s="36"/>
+      <c r="J440" s="39"/>
+      <c r="K440" s="39"/>
       <c r="L440" s="27"/>
       <c r="M440" s="27"/>
       <c r="N440" s="27"/>
@@ -22813,8 +22935,8 @@
       <c r="G441" s="27"/>
       <c r="H441" s="27"/>
       <c r="I441" s="27"/>
-      <c r="J441" s="36"/>
-      <c r="K441" s="36"/>
+      <c r="J441" s="39"/>
+      <c r="K441" s="39"/>
       <c r="L441" s="27"/>
       <c r="M441" s="27"/>
       <c r="N441" s="27"/>
@@ -22858,8 +22980,8 @@
       <c r="G442" s="27"/>
       <c r="H442" s="27"/>
       <c r="I442" s="27"/>
-      <c r="J442" s="36"/>
-      <c r="K442" s="36"/>
+      <c r="J442" s="39"/>
+      <c r="K442" s="39"/>
       <c r="L442" s="27"/>
       <c r="M442" s="27"/>
       <c r="N442" s="27"/>
@@ -22903,8 +23025,8 @@
       <c r="G443" s="27"/>
       <c r="H443" s="27"/>
       <c r="I443" s="27"/>
-      <c r="J443" s="36"/>
-      <c r="K443" s="36"/>
+      <c r="J443" s="39"/>
+      <c r="K443" s="39"/>
       <c r="L443" s="27"/>
       <c r="M443" s="27"/>
       <c r="N443" s="27"/>
@@ -22948,8 +23070,8 @@
       <c r="G444" s="27"/>
       <c r="H444" s="27"/>
       <c r="I444" s="27"/>
-      <c r="J444" s="36"/>
-      <c r="K444" s="36"/>
+      <c r="J444" s="39"/>
+      <c r="K444" s="39"/>
       <c r="L444" s="27"/>
       <c r="M444" s="27"/>
       <c r="N444" s="27"/>
@@ -22993,8 +23115,8 @@
       <c r="G445" s="27"/>
       <c r="H445" s="27"/>
       <c r="I445" s="27"/>
-      <c r="J445" s="36"/>
-      <c r="K445" s="36"/>
+      <c r="J445" s="39"/>
+      <c r="K445" s="39"/>
       <c r="L445" s="27"/>
       <c r="M445" s="27"/>
       <c r="N445" s="27"/>
@@ -23038,8 +23160,8 @@
       <c r="G446" s="27"/>
       <c r="H446" s="27"/>
       <c r="I446" s="27"/>
-      <c r="J446" s="36"/>
-      <c r="K446" s="36"/>
+      <c r="J446" s="39"/>
+      <c r="K446" s="39"/>
       <c r="L446" s="27"/>
       <c r="M446" s="27"/>
       <c r="N446" s="27"/>
@@ -23083,8 +23205,8 @@
       <c r="G447" s="27"/>
       <c r="H447" s="27"/>
       <c r="I447" s="27"/>
-      <c r="J447" s="36"/>
-      <c r="K447" s="36"/>
+      <c r="J447" s="39"/>
+      <c r="K447" s="39"/>
       <c r="L447" s="27"/>
       <c r="M447" s="27"/>
       <c r="N447" s="27"/>
@@ -23128,8 +23250,8 @@
       <c r="G448" s="27"/>
       <c r="H448" s="27"/>
       <c r="I448" s="27"/>
-      <c r="J448" s="36"/>
-      <c r="K448" s="36"/>
+      <c r="J448" s="39"/>
+      <c r="K448" s="39"/>
       <c r="L448" s="27"/>
       <c r="M448" s="27"/>
       <c r="N448" s="27"/>
@@ -23173,8 +23295,8 @@
       <c r="G449" s="27"/>
       <c r="H449" s="27"/>
       <c r="I449" s="27"/>
-      <c r="J449" s="36"/>
-      <c r="K449" s="36"/>
+      <c r="J449" s="39"/>
+      <c r="K449" s="39"/>
       <c r="L449" s="27"/>
       <c r="M449" s="27"/>
       <c r="N449" s="27"/>
@@ -23218,8 +23340,8 @@
       <c r="G450" s="27"/>
       <c r="H450" s="27"/>
       <c r="I450" s="27"/>
-      <c r="J450" s="36"/>
-      <c r="K450" s="36"/>
+      <c r="J450" s="39"/>
+      <c r="K450" s="39"/>
       <c r="L450" s="27"/>
       <c r="M450" s="27"/>
       <c r="N450" s="27"/>
@@ -23263,8 +23385,8 @@
       <c r="G451" s="27"/>
       <c r="H451" s="27"/>
       <c r="I451" s="27"/>
-      <c r="J451" s="36"/>
-      <c r="K451" s="36"/>
+      <c r="J451" s="39"/>
+      <c r="K451" s="39"/>
       <c r="L451" s="27"/>
       <c r="M451" s="27"/>
       <c r="N451" s="27"/>
@@ -23308,8 +23430,8 @@
       <c r="G452" s="27"/>
       <c r="H452" s="27"/>
       <c r="I452" s="27"/>
-      <c r="J452" s="36"/>
-      <c r="K452" s="36"/>
+      <c r="J452" s="39"/>
+      <c r="K452" s="39"/>
       <c r="L452" s="27"/>
       <c r="M452" s="27"/>
       <c r="N452" s="27"/>
@@ -23353,8 +23475,8 @@
       <c r="G453" s="27"/>
       <c r="H453" s="27"/>
       <c r="I453" s="27"/>
-      <c r="J453" s="36"/>
-      <c r="K453" s="36"/>
+      <c r="J453" s="39"/>
+      <c r="K453" s="39"/>
       <c r="L453" s="27"/>
       <c r="M453" s="27"/>
       <c r="N453" s="27"/>
@@ -23398,8 +23520,8 @@
       <c r="G454" s="27"/>
       <c r="H454" s="27"/>
       <c r="I454" s="27"/>
-      <c r="J454" s="36"/>
-      <c r="K454" s="36"/>
+      <c r="J454" s="39"/>
+      <c r="K454" s="39"/>
       <c r="L454" s="27"/>
       <c r="M454" s="27"/>
       <c r="N454" s="27"/>
@@ -23443,8 +23565,8 @@
       <c r="G455" s="27"/>
       <c r="H455" s="27"/>
       <c r="I455" s="27"/>
-      <c r="J455" s="36"/>
-      <c r="K455" s="36"/>
+      <c r="J455" s="39"/>
+      <c r="K455" s="39"/>
       <c r="L455" s="27"/>
       <c r="M455" s="27"/>
       <c r="N455" s="27"/>
@@ -23488,8 +23610,8 @@
       <c r="G456" s="27"/>
       <c r="H456" s="27"/>
       <c r="I456" s="27"/>
-      <c r="J456" s="36"/>
-      <c r="K456" s="36"/>
+      <c r="J456" s="39"/>
+      <c r="K456" s="39"/>
       <c r="L456" s="27"/>
       <c r="M456" s="27"/>
       <c r="N456" s="27"/>
@@ -23533,8 +23655,8 @@
       <c r="G457" s="27"/>
       <c r="H457" s="27"/>
       <c r="I457" s="27"/>
-      <c r="J457" s="36"/>
-      <c r="K457" s="36"/>
+      <c r="J457" s="39"/>
+      <c r="K457" s="39"/>
       <c r="L457" s="27"/>
       <c r="M457" s="27"/>
       <c r="N457" s="27"/>
@@ -23578,8 +23700,8 @@
       <c r="G458" s="27"/>
       <c r="H458" s="27"/>
       <c r="I458" s="27"/>
-      <c r="J458" s="36"/>
-      <c r="K458" s="36"/>
+      <c r="J458" s="39"/>
+      <c r="K458" s="39"/>
       <c r="L458" s="27"/>
       <c r="M458" s="27"/>
       <c r="N458" s="27"/>
@@ -23623,8 +23745,8 @@
       <c r="G459" s="27"/>
       <c r="H459" s="27"/>
       <c r="I459" s="27"/>
-      <c r="J459" s="36"/>
-      <c r="K459" s="36"/>
+      <c r="J459" s="39"/>
+      <c r="K459" s="39"/>
       <c r="L459" s="27"/>
       <c r="M459" s="27"/>
       <c r="N459" s="27"/>
@@ -23668,8 +23790,8 @@
       <c r="G460" s="27"/>
       <c r="H460" s="27"/>
       <c r="I460" s="27"/>
-      <c r="J460" s="36"/>
-      <c r="K460" s="36"/>
+      <c r="J460" s="39"/>
+      <c r="K460" s="39"/>
       <c r="L460" s="27"/>
       <c r="M460" s="27"/>
       <c r="N460" s="27"/>
@@ -23713,8 +23835,8 @@
       <c r="G461" s="27"/>
       <c r="H461" s="27"/>
       <c r="I461" s="27"/>
-      <c r="J461" s="36"/>
-      <c r="K461" s="36"/>
+      <c r="J461" s="39"/>
+      <c r="K461" s="39"/>
       <c r="L461" s="27"/>
       <c r="M461" s="27"/>
       <c r="N461" s="27"/>
@@ -23758,8 +23880,8 @@
       <c r="G462" s="27"/>
       <c r="H462" s="27"/>
       <c r="I462" s="27"/>
-      <c r="J462" s="36"/>
-      <c r="K462" s="36"/>
+      <c r="J462" s="39"/>
+      <c r="K462" s="39"/>
       <c r="L462" s="27"/>
       <c r="M462" s="27"/>
       <c r="N462" s="27"/>
@@ -23803,8 +23925,8 @@
       <c r="G463" s="27"/>
       <c r="H463" s="27"/>
       <c r="I463" s="27"/>
-      <c r="J463" s="36"/>
-      <c r="K463" s="36"/>
+      <c r="J463" s="39"/>
+      <c r="K463" s="39"/>
       <c r="L463" s="27"/>
       <c r="M463" s="27"/>
       <c r="N463" s="27"/>
@@ -23848,8 +23970,8 @@
       <c r="G464" s="27"/>
       <c r="H464" s="27"/>
       <c r="I464" s="27"/>
-      <c r="J464" s="36"/>
-      <c r="K464" s="36"/>
+      <c r="J464" s="39"/>
+      <c r="K464" s="39"/>
       <c r="L464" s="27"/>
       <c r="M464" s="27"/>
       <c r="N464" s="27"/>
@@ -23893,8 +24015,8 @@
       <c r="G465" s="27"/>
       <c r="H465" s="27"/>
       <c r="I465" s="27"/>
-      <c r="J465" s="36"/>
-      <c r="K465" s="36"/>
+      <c r="J465" s="39"/>
+      <c r="K465" s="39"/>
       <c r="L465" s="27"/>
       <c r="M465" s="27"/>
       <c r="N465" s="27"/>
@@ -23938,8 +24060,8 @@
       <c r="G466" s="27"/>
       <c r="H466" s="27"/>
       <c r="I466" s="27"/>
-      <c r="J466" s="36"/>
-      <c r="K466" s="36"/>
+      <c r="J466" s="39"/>
+      <c r="K466" s="39"/>
       <c r="L466" s="27"/>
       <c r="M466" s="27"/>
       <c r="N466" s="27"/>
@@ -23983,8 +24105,8 @@
       <c r="G467" s="27"/>
       <c r="H467" s="27"/>
       <c r="I467" s="27"/>
-      <c r="J467" s="36"/>
-      <c r="K467" s="36"/>
+      <c r="J467" s="39"/>
+      <c r="K467" s="39"/>
       <c r="L467" s="27"/>
       <c r="M467" s="27"/>
       <c r="N467" s="27"/>
@@ -24028,8 +24150,8 @@
       <c r="G468" s="27"/>
       <c r="H468" s="27"/>
       <c r="I468" s="27"/>
-      <c r="J468" s="36"/>
-      <c r="K468" s="36"/>
+      <c r="J468" s="39"/>
+      <c r="K468" s="39"/>
       <c r="L468" s="27"/>
       <c r="M468" s="27"/>
       <c r="N468" s="27"/>
@@ -24073,8 +24195,8 @@
       <c r="G469" s="27"/>
       <c r="H469" s="27"/>
       <c r="I469" s="27"/>
-      <c r="J469" s="36"/>
-      <c r="K469" s="36"/>
+      <c r="J469" s="39"/>
+      <c r="K469" s="39"/>
       <c r="L469" s="27"/>
       <c r="M469" s="27"/>
       <c r="N469" s="27"/>
@@ -24118,8 +24240,8 @@
       <c r="G470" s="27"/>
       <c r="H470" s="27"/>
       <c r="I470" s="27"/>
-      <c r="J470" s="36"/>
-      <c r="K470" s="36"/>
+      <c r="J470" s="39"/>
+      <c r="K470" s="39"/>
       <c r="L470" s="27"/>
       <c r="M470" s="27"/>
       <c r="N470" s="27"/>
@@ -24163,8 +24285,8 @@
       <c r="G471" s="27"/>
       <c r="H471" s="27"/>
       <c r="I471" s="27"/>
-      <c r="J471" s="36"/>
-      <c r="K471" s="36"/>
+      <c r="J471" s="39"/>
+      <c r="K471" s="39"/>
       <c r="L471" s="27"/>
       <c r="M471" s="27"/>
       <c r="N471" s="27"/>
@@ -24208,8 +24330,8 @@
       <c r="G472" s="27"/>
       <c r="H472" s="27"/>
       <c r="I472" s="27"/>
-      <c r="J472" s="36"/>
-      <c r="K472" s="36"/>
+      <c r="J472" s="39"/>
+      <c r="K472" s="39"/>
       <c r="L472" s="27"/>
       <c r="M472" s="27"/>
       <c r="N472" s="27"/>
@@ -24253,8 +24375,8 @@
       <c r="G473" s="27"/>
       <c r="H473" s="27"/>
       <c r="I473" s="27"/>
-      <c r="J473" s="36"/>
-      <c r="K473" s="36"/>
+      <c r="J473" s="39"/>
+      <c r="K473" s="39"/>
       <c r="L473" s="27"/>
       <c r="M473" s="27"/>
       <c r="N473" s="27"/>
@@ -24298,8 +24420,8 @@
       <c r="G474" s="27"/>
       <c r="H474" s="27"/>
       <c r="I474" s="27"/>
-      <c r="J474" s="36"/>
-      <c r="K474" s="36"/>
+      <c r="J474" s="39"/>
+      <c r="K474" s="39"/>
       <c r="L474" s="27"/>
       <c r="M474" s="27"/>
       <c r="N474" s="27"/>
@@ -24343,8 +24465,8 @@
       <c r="G475" s="27"/>
       <c r="H475" s="27"/>
       <c r="I475" s="27"/>
-      <c r="J475" s="36"/>
-      <c r="K475" s="36"/>
+      <c r="J475" s="39"/>
+      <c r="K475" s="39"/>
       <c r="L475" s="27"/>
       <c r="M475" s="27"/>
       <c r="N475" s="27"/>
@@ -24388,8 +24510,8 @@
       <c r="G476" s="27"/>
       <c r="H476" s="27"/>
       <c r="I476" s="27"/>
-      <c r="J476" s="36"/>
-      <c r="K476" s="36"/>
+      <c r="J476" s="39"/>
+      <c r="K476" s="39"/>
       <c r="L476" s="27"/>
       <c r="M476" s="27"/>
       <c r="N476" s="27"/>
@@ -24433,8 +24555,8 @@
       <c r="G477" s="27"/>
       <c r="H477" s="27"/>
       <c r="I477" s="27"/>
-      <c r="J477" s="36"/>
-      <c r="K477" s="36"/>
+      <c r="J477" s="39"/>
+      <c r="K477" s="39"/>
       <c r="L477" s="27"/>
       <c r="M477" s="27"/>
       <c r="N477" s="27"/>
@@ -24478,8 +24600,8 @@
       <c r="G478" s="27"/>
       <c r="H478" s="27"/>
       <c r="I478" s="27"/>
-      <c r="J478" s="36"/>
-      <c r="K478" s="36"/>
+      <c r="J478" s="39"/>
+      <c r="K478" s="39"/>
       <c r="L478" s="27"/>
       <c r="M478" s="27"/>
       <c r="N478" s="27"/>
@@ -24523,8 +24645,8 @@
       <c r="G479" s="27"/>
       <c r="H479" s="27"/>
       <c r="I479" s="27"/>
-      <c r="J479" s="36"/>
-      <c r="K479" s="36"/>
+      <c r="J479" s="39"/>
+      <c r="K479" s="39"/>
       <c r="L479" s="27"/>
       <c r="M479" s="27"/>
       <c r="N479" s="27"/>
@@ -24568,8 +24690,8 @@
       <c r="G480" s="27"/>
       <c r="H480" s="27"/>
       <c r="I480" s="27"/>
-      <c r="J480" s="36"/>
-      <c r="K480" s="36"/>
+      <c r="J480" s="39"/>
+      <c r="K480" s="39"/>
       <c r="L480" s="27"/>
       <c r="M480" s="27"/>
       <c r="N480" s="27"/>
@@ -24613,8 +24735,8 @@
       <c r="G481" s="27"/>
       <c r="H481" s="27"/>
       <c r="I481" s="27"/>
-      <c r="J481" s="36"/>
-      <c r="K481" s="36"/>
+      <c r="J481" s="39"/>
+      <c r="K481" s="39"/>
       <c r="L481" s="27"/>
       <c r="M481" s="27"/>
       <c r="N481" s="27"/>
@@ -24658,8 +24780,8 @@
       <c r="G482" s="27"/>
       <c r="H482" s="27"/>
       <c r="I482" s="27"/>
-      <c r="J482" s="36"/>
-      <c r="K482" s="36"/>
+      <c r="J482" s="39"/>
+      <c r="K482" s="39"/>
       <c r="L482" s="27"/>
       <c r="M482" s="27"/>
       <c r="N482" s="27"/>
@@ -24703,8 +24825,8 @@
       <c r="G483" s="27"/>
       <c r="H483" s="27"/>
       <c r="I483" s="27"/>
-      <c r="J483" s="36"/>
-      <c r="K483" s="36"/>
+      <c r="J483" s="39"/>
+      <c r="K483" s="39"/>
       <c r="L483" s="27"/>
       <c r="M483" s="27"/>
       <c r="N483" s="27"/>
@@ -24748,8 +24870,8 @@
       <c r="G484" s="27"/>
       <c r="H484" s="27"/>
       <c r="I484" s="27"/>
-      <c r="J484" s="36"/>
-      <c r="K484" s="36"/>
+      <c r="J484" s="39"/>
+      <c r="K484" s="39"/>
       <c r="L484" s="27"/>
       <c r="M484" s="27"/>
       <c r="N484" s="27"/>
@@ -24793,8 +24915,8 @@
       <c r="G485" s="27"/>
       <c r="H485" s="27"/>
       <c r="I485" s="27"/>
-      <c r="J485" s="36"/>
-      <c r="K485" s="36"/>
+      <c r="J485" s="39"/>
+      <c r="K485" s="39"/>
       <c r="L485" s="27"/>
       <c r="M485" s="27"/>
       <c r="N485" s="27"/>
@@ -24838,8 +24960,8 @@
       <c r="G486" s="27"/>
       <c r="H486" s="27"/>
       <c r="I486" s="27"/>
-      <c r="J486" s="36"/>
-      <c r="K486" s="36"/>
+      <c r="J486" s="39"/>
+      <c r="K486" s="39"/>
       <c r="L486" s="27"/>
       <c r="M486" s="27"/>
       <c r="N486" s="27"/>
@@ -24883,8 +25005,8 @@
       <c r="G487" s="27"/>
       <c r="H487" s="27"/>
       <c r="I487" s="27"/>
-      <c r="J487" s="36"/>
-      <c r="K487" s="36"/>
+      <c r="J487" s="39"/>
+      <c r="K487" s="39"/>
       <c r="L487" s="27"/>
       <c r="M487" s="27"/>
       <c r="N487" s="27"/>
@@ -24928,8 +25050,8 @@
       <c r="G488" s="27"/>
       <c r="H488" s="27"/>
       <c r="I488" s="27"/>
-      <c r="J488" s="36"/>
-      <c r="K488" s="36"/>
+      <c r="J488" s="39"/>
+      <c r="K488" s="39"/>
       <c r="L488" s="27"/>
       <c r="M488" s="27"/>
       <c r="N488" s="27"/>
@@ -24973,8 +25095,8 @@
       <c r="G489" s="27"/>
       <c r="H489" s="27"/>
       <c r="I489" s="27"/>
-      <c r="J489" s="36"/>
-      <c r="K489" s="36"/>
+      <c r="J489" s="39"/>
+      <c r="K489" s="39"/>
       <c r="L489" s="27"/>
       <c r="M489" s="27"/>
       <c r="N489" s="27"/>
@@ -25018,8 +25140,8 @@
       <c r="G490" s="27"/>
       <c r="H490" s="27"/>
       <c r="I490" s="27"/>
-      <c r="J490" s="36"/>
-      <c r="K490" s="36"/>
+      <c r="J490" s="39"/>
+      <c r="K490" s="39"/>
       <c r="L490" s="27"/>
       <c r="M490" s="27"/>
       <c r="N490" s="27"/>
@@ -25063,8 +25185,8 @@
       <c r="G491" s="27"/>
       <c r="H491" s="27"/>
       <c r="I491" s="27"/>
-      <c r="J491" s="36"/>
-      <c r="K491" s="36"/>
+      <c r="J491" s="39"/>
+      <c r="K491" s="39"/>
       <c r="L491" s="27"/>
       <c r="M491" s="27"/>
       <c r="N491" s="27"/>
@@ -25108,8 +25230,8 @@
       <c r="G492" s="27"/>
       <c r="H492" s="27"/>
       <c r="I492" s="27"/>
-      <c r="J492" s="36"/>
-      <c r="K492" s="36"/>
+      <c r="J492" s="39"/>
+      <c r="K492" s="39"/>
       <c r="L492" s="27"/>
       <c r="M492" s="27"/>
       <c r="N492" s="27"/>
@@ -25153,8 +25275,8 @@
       <c r="G493" s="27"/>
       <c r="H493" s="27"/>
       <c r="I493" s="27"/>
-      <c r="J493" s="36"/>
-      <c r="K493" s="36"/>
+      <c r="J493" s="39"/>
+      <c r="K493" s="39"/>
       <c r="L493" s="27"/>
       <c r="M493" s="27"/>
       <c r="N493" s="27"/>
@@ -25198,8 +25320,8 @@
       <c r="G494" s="27"/>
       <c r="H494" s="27"/>
       <c r="I494" s="27"/>
-      <c r="J494" s="36"/>
-      <c r="K494" s="36"/>
+      <c r="J494" s="39"/>
+      <c r="K494" s="39"/>
       <c r="L494" s="27"/>
       <c r="M494" s="27"/>
       <c r="N494" s="27"/>
@@ -25243,8 +25365,8 @@
       <c r="G495" s="27"/>
       <c r="H495" s="27"/>
       <c r="I495" s="27"/>
-      <c r="J495" s="36"/>
-      <c r="K495" s="36"/>
+      <c r="J495" s="39"/>
+      <c r="K495" s="39"/>
       <c r="L495" s="27"/>
       <c r="M495" s="27"/>
       <c r="N495" s="27"/>
@@ -25288,8 +25410,8 @@
       <c r="G496" s="27"/>
       <c r="H496" s="27"/>
       <c r="I496" s="27"/>
-      <c r="J496" s="36"/>
-      <c r="K496" s="36"/>
+      <c r="J496" s="39"/>
+      <c r="K496" s="39"/>
       <c r="L496" s="27"/>
       <c r="M496" s="27"/>
       <c r="N496" s="27"/>
@@ -25333,8 +25455,8 @@
       <c r="G497" s="27"/>
       <c r="H497" s="27"/>
       <c r="I497" s="27"/>
-      <c r="J497" s="36"/>
-      <c r="K497" s="36"/>
+      <c r="J497" s="39"/>
+      <c r="K497" s="39"/>
       <c r="L497" s="27"/>
       <c r="M497" s="27"/>
       <c r="N497" s="27"/>
@@ -25378,8 +25500,8 @@
       <c r="G498" s="27"/>
       <c r="H498" s="27"/>
       <c r="I498" s="27"/>
-      <c r="J498" s="36"/>
-      <c r="K498" s="36"/>
+      <c r="J498" s="39"/>
+      <c r="K498" s="39"/>
       <c r="L498" s="27"/>
       <c r="M498" s="27"/>
       <c r="N498" s="27"/>
@@ -25423,8 +25545,8 @@
       <c r="G499" s="27"/>
       <c r="H499" s="27"/>
       <c r="I499" s="27"/>
-      <c r="J499" s="36"/>
-      <c r="K499" s="36"/>
+      <c r="J499" s="39"/>
+      <c r="K499" s="39"/>
       <c r="L499" s="27"/>
       <c r="M499" s="27"/>
       <c r="N499" s="27"/>
@@ -25468,8 +25590,8 @@
       <c r="G500" s="27"/>
       <c r="H500" s="27"/>
       <c r="I500" s="27"/>
-      <c r="J500" s="36"/>
-      <c r="K500" s="36"/>
+      <c r="J500" s="39"/>
+      <c r="K500" s="39"/>
       <c r="L500" s="27"/>
       <c r="M500" s="27"/>
       <c r="N500" s="27"/>
@@ -25513,8 +25635,8 @@
       <c r="G501" s="27"/>
       <c r="H501" s="27"/>
       <c r="I501" s="27"/>
-      <c r="J501" s="36"/>
-      <c r="K501" s="36"/>
+      <c r="J501" s="39"/>
+      <c r="K501" s="39"/>
       <c r="L501" s="27"/>
       <c r="M501" s="27"/>
       <c r="N501" s="27"/>
@@ -25558,8 +25680,8 @@
       <c r="G502" s="27"/>
       <c r="H502" s="27"/>
       <c r="I502" s="27"/>
-      <c r="J502" s="36"/>
-      <c r="K502" s="36"/>
+      <c r="J502" s="39"/>
+      <c r="K502" s="39"/>
       <c r="L502" s="27"/>
       <c r="M502" s="27"/>
       <c r="N502" s="27"/>
@@ -25603,8 +25725,8 @@
       <c r="G503" s="27"/>
       <c r="H503" s="27"/>
       <c r="I503" s="27"/>
-      <c r="J503" s="36"/>
-      <c r="K503" s="36"/>
+      <c r="J503" s="39"/>
+      <c r="K503" s="39"/>
       <c r="L503" s="27"/>
       <c r="M503" s="27"/>
       <c r="N503" s="27"/>
@@ -25648,8 +25770,8 @@
       <c r="G504" s="27"/>
       <c r="H504" s="27"/>
       <c r="I504" s="27"/>
-      <c r="J504" s="36"/>
-      <c r="K504" s="36"/>
+      <c r="J504" s="39"/>
+      <c r="K504" s="39"/>
       <c r="L504" s="27"/>
       <c r="M504" s="27"/>
       <c r="N504" s="27"/>
@@ -25693,8 +25815,8 @@
       <c r="G505" s="27"/>
       <c r="H505" s="27"/>
       <c r="I505" s="27"/>
-      <c r="J505" s="36"/>
-      <c r="K505" s="36"/>
+      <c r="J505" s="39"/>
+      <c r="K505" s="39"/>
       <c r="L505" s="27"/>
       <c r="M505" s="27"/>
       <c r="N505" s="27"/>
@@ -25738,8 +25860,8 @@
       <c r="G506" s="27"/>
       <c r="H506" s="27"/>
       <c r="I506" s="27"/>
-      <c r="J506" s="36"/>
-      <c r="K506" s="36"/>
+      <c r="J506" s="39"/>
+      <c r="K506" s="39"/>
       <c r="L506" s="27"/>
       <c r="M506" s="27"/>
       <c r="N506" s="27"/>
@@ -25783,8 +25905,8 @@
       <c r="G507" s="27"/>
       <c r="H507" s="27"/>
       <c r="I507" s="27"/>
-      <c r="J507" s="36"/>
-      <c r="K507" s="36"/>
+      <c r="J507" s="39"/>
+      <c r="K507" s="39"/>
       <c r="L507" s="27"/>
       <c r="M507" s="27"/>
       <c r="N507" s="27"/>
@@ -25828,8 +25950,8 @@
       <c r="G508" s="27"/>
       <c r="H508" s="27"/>
       <c r="I508" s="27"/>
-      <c r="J508" s="36"/>
-      <c r="K508" s="36"/>
+      <c r="J508" s="39"/>
+      <c r="K508" s="39"/>
       <c r="L508" s="27"/>
       <c r="M508" s="27"/>
       <c r="N508" s="27"/>
@@ -25873,8 +25995,8 @@
       <c r="G509" s="27"/>
       <c r="H509" s="27"/>
       <c r="I509" s="27"/>
-      <c r="J509" s="36"/>
-      <c r="K509" s="36"/>
+      <c r="J509" s="39"/>
+      <c r="K509" s="39"/>
       <c r="L509" s="27"/>
       <c r="M509" s="27"/>
       <c r="N509" s="27"/>
@@ -25918,8 +26040,8 @@
       <c r="G510" s="27"/>
       <c r="H510" s="27"/>
       <c r="I510" s="27"/>
-      <c r="J510" s="36"/>
-      <c r="K510" s="36"/>
+      <c r="J510" s="39"/>
+      <c r="K510" s="39"/>
       <c r="L510" s="27"/>
       <c r="M510" s="27"/>
       <c r="N510" s="27"/>
@@ -25963,8 +26085,8 @@
       <c r="G511" s="27"/>
       <c r="H511" s="27"/>
       <c r="I511" s="27"/>
-      <c r="J511" s="36"/>
-      <c r="K511" s="36"/>
+      <c r="J511" s="39"/>
+      <c r="K511" s="39"/>
       <c r="L511" s="27"/>
       <c r="M511" s="27"/>
       <c r="N511" s="27"/>
@@ -26008,8 +26130,8 @@
       <c r="G512" s="27"/>
       <c r="H512" s="27"/>
       <c r="I512" s="27"/>
-      <c r="J512" s="36"/>
-      <c r="K512" s="36"/>
+      <c r="J512" s="39"/>
+      <c r="K512" s="39"/>
       <c r="L512" s="27"/>
       <c r="M512" s="27"/>
       <c r="N512" s="27"/>
@@ -26053,8 +26175,8 @@
       <c r="G513" s="27"/>
       <c r="H513" s="27"/>
       <c r="I513" s="27"/>
-      <c r="J513" s="36"/>
-      <c r="K513" s="36"/>
+      <c r="J513" s="39"/>
+      <c r="K513" s="39"/>
       <c r="L513" s="27"/>
       <c r="M513" s="27"/>
       <c r="N513" s="27"/>
@@ -26098,8 +26220,8 @@
       <c r="G514" s="27"/>
       <c r="H514" s="27"/>
       <c r="I514" s="27"/>
-      <c r="J514" s="36"/>
-      <c r="K514" s="36"/>
+      <c r="J514" s="39"/>
+      <c r="K514" s="39"/>
       <c r="L514" s="27"/>
       <c r="M514" s="27"/>
       <c r="N514" s="27"/>
@@ -26143,8 +26265,8 @@
       <c r="G515" s="27"/>
       <c r="H515" s="27"/>
       <c r="I515" s="27"/>
-      <c r="J515" s="36"/>
-      <c r="K515" s="36"/>
+      <c r="J515" s="39"/>
+      <c r="K515" s="39"/>
       <c r="L515" s="27"/>
       <c r="M515" s="27"/>
       <c r="N515" s="27"/>
@@ -26188,8 +26310,8 @@
       <c r="G516" s="27"/>
       <c r="H516" s="27"/>
       <c r="I516" s="27"/>
-      <c r="J516" s="36"/>
-      <c r="K516" s="36"/>
+      <c r="J516" s="39"/>
+      <c r="K516" s="39"/>
       <c r="L516" s="27"/>
       <c r="M516" s="27"/>
       <c r="N516" s="27"/>
@@ -26233,8 +26355,8 @@
       <c r="G517" s="27"/>
       <c r="H517" s="27"/>
       <c r="I517" s="27"/>
-      <c r="J517" s="36"/>
-      <c r="K517" s="36"/>
+      <c r="J517" s="39"/>
+      <c r="K517" s="39"/>
       <c r="L517" s="27"/>
       <c r="M517" s="27"/>
       <c r="N517" s="27"/>
@@ -26278,8 +26400,8 @@
       <c r="G518" s="27"/>
       <c r="H518" s="27"/>
       <c r="I518" s="27"/>
-      <c r="J518" s="36"/>
-      <c r="K518" s="36"/>
+      <c r="J518" s="39"/>
+      <c r="K518" s="39"/>
       <c r="L518" s="27"/>
       <c r="M518" s="27"/>
       <c r="N518" s="27"/>
@@ -26323,8 +26445,8 @@
       <c r="G519" s="27"/>
       <c r="H519" s="27"/>
       <c r="I519" s="27"/>
-      <c r="J519" s="36"/>
-      <c r="K519" s="36"/>
+      <c r="J519" s="39"/>
+      <c r="K519" s="39"/>
       <c r="L519" s="27"/>
       <c r="M519" s="27"/>
       <c r="N519" s="27"/>
@@ -26368,8 +26490,8 @@
       <c r="G520" s="27"/>
       <c r="H520" s="27"/>
       <c r="I520" s="27"/>
-      <c r="J520" s="36"/>
-      <c r="K520" s="36"/>
+      <c r="J520" s="39"/>
+      <c r="K520" s="39"/>
       <c r="L520" s="27"/>
       <c r="M520" s="27"/>
       <c r="N520" s="27"/>
@@ -26413,8 +26535,8 @@
       <c r="G521" s="27"/>
       <c r="H521" s="27"/>
       <c r="I521" s="27"/>
-      <c r="J521" s="36"/>
-      <c r="K521" s="36"/>
+      <c r="J521" s="39"/>
+      <c r="K521" s="39"/>
       <c r="L521" s="27"/>
       <c r="M521" s="27"/>
       <c r="N521" s="27"/>
@@ -26458,8 +26580,8 @@
       <c r="G522" s="27"/>
       <c r="H522" s="27"/>
       <c r="I522" s="27"/>
-      <c r="J522" s="36"/>
-      <c r="K522" s="36"/>
+      <c r="J522" s="39"/>
+      <c r="K522" s="39"/>
       <c r="L522" s="27"/>
       <c r="M522" s="27"/>
       <c r="N522" s="27"/>
@@ -26503,8 +26625,8 @@
       <c r="G523" s="27"/>
       <c r="H523" s="27"/>
       <c r="I523" s="27"/>
-      <c r="J523" s="36"/>
-      <c r="K523" s="36"/>
+      <c r="J523" s="39"/>
+      <c r="K523" s="39"/>
       <c r="L523" s="27"/>
       <c r="M523" s="27"/>
       <c r="N523" s="27"/>
@@ -26548,8 +26670,8 @@
       <c r="G524" s="27"/>
       <c r="H524" s="27"/>
       <c r="I524" s="27"/>
-      <c r="J524" s="36"/>
-      <c r="K524" s="36"/>
+      <c r="J524" s="39"/>
+      <c r="K524" s="39"/>
       <c r="L524" s="27"/>
       <c r="M524" s="27"/>
       <c r="N524" s="27"/>
@@ -26593,8 +26715,8 @@
       <c r="G525" s="27"/>
       <c r="H525" s="27"/>
       <c r="I525" s="27"/>
-      <c r="J525" s="36"/>
-      <c r="K525" s="36"/>
+      <c r="J525" s="39"/>
+      <c r="K525" s="39"/>
       <c r="L525" s="27"/>
       <c r="M525" s="27"/>
       <c r="N525" s="27"/>
@@ -26638,8 +26760,8 @@
       <c r="G526" s="27"/>
       <c r="H526" s="27"/>
       <c r="I526" s="27"/>
-      <c r="J526" s="36"/>
-      <c r="K526" s="36"/>
+      <c r="J526" s="39"/>
+      <c r="K526" s="39"/>
       <c r="L526" s="27"/>
       <c r="M526" s="27"/>
       <c r="N526" s="27"/>
@@ -26683,8 +26805,8 @@
       <c r="G527" s="27"/>
       <c r="H527" s="27"/>
       <c r="I527" s="27"/>
-      <c r="J527" s="36"/>
-      <c r="K527" s="36"/>
+      <c r="J527" s="39"/>
+      <c r="K527" s="39"/>
       <c r="L527" s="27"/>
       <c r="M527" s="27"/>
       <c r="N527" s="27"/>
@@ -26728,8 +26850,8 @@
       <c r="G528" s="27"/>
       <c r="H528" s="27"/>
       <c r="I528" s="27"/>
-      <c r="J528" s="36"/>
-      <c r="K528" s="36"/>
+      <c r="J528" s="39"/>
+      <c r="K528" s="39"/>
       <c r="L528" s="27"/>
       <c r="M528" s="27"/>
       <c r="N528" s="27"/>
@@ -26773,8 +26895,8 @@
       <c r="G529" s="27"/>
       <c r="H529" s="27"/>
       <c r="I529" s="27"/>
-      <c r="J529" s="36"/>
-      <c r="K529" s="36"/>
+      <c r="J529" s="39"/>
+      <c r="K529" s="39"/>
       <c r="L529" s="27"/>
       <c r="M529" s="27"/>
       <c r="N529" s="27"/>
@@ -26818,8 +26940,8 @@
       <c r="G530" s="27"/>
       <c r="H530" s="27"/>
       <c r="I530" s="27"/>
-      <c r="J530" s="36"/>
-      <c r="K530" s="36"/>
+      <c r="J530" s="39"/>
+      <c r="K530" s="39"/>
       <c r="L530" s="27"/>
       <c r="M530" s="27"/>
       <c r="N530" s="27"/>
@@ -26863,8 +26985,8 @@
       <c r="G531" s="27"/>
       <c r="H531" s="27"/>
       <c r="I531" s="27"/>
-      <c r="J531" s="36"/>
-      <c r="K531" s="36"/>
+      <c r="J531" s="39"/>
+      <c r="K531" s="39"/>
       <c r="L531" s="27"/>
       <c r="M531" s="27"/>
       <c r="N531" s="27"/>
@@ -26908,8 +27030,8 @@
       <c r="G532" s="27"/>
       <c r="H532" s="27"/>
       <c r="I532" s="27"/>
-      <c r="J532" s="36"/>
-      <c r="K532" s="36"/>
+      <c r="J532" s="39"/>
+      <c r="K532" s="39"/>
       <c r="L532" s="27"/>
       <c r="M532" s="27"/>
       <c r="N532" s="27"/>
@@ -26953,8 +27075,8 @@
       <c r="G533" s="27"/>
       <c r="H533" s="27"/>
       <c r="I533" s="27"/>
-      <c r="J533" s="36"/>
-      <c r="K533" s="36"/>
+      <c r="J533" s="39"/>
+      <c r="K533" s="39"/>
       <c r="L533" s="27"/>
       <c r="M533" s="27"/>
       <c r="N533" s="27"/>
@@ -26998,8 +27120,8 @@
       <c r="G534" s="27"/>
       <c r="H534" s="27"/>
       <c r="I534" s="27"/>
-      <c r="J534" s="36"/>
-      <c r="K534" s="36"/>
+      <c r="J534" s="39"/>
+      <c r="K534" s="39"/>
       <c r="L534" s="27"/>
       <c r="M534" s="27"/>
       <c r="N534" s="27"/>
@@ -27043,8 +27165,8 @@
       <c r="G535" s="27"/>
       <c r="H535" s="27"/>
       <c r="I535" s="27"/>
-      <c r="J535" s="36"/>
-      <c r="K535" s="36"/>
+      <c r="J535" s="39"/>
+      <c r="K535" s="39"/>
       <c r="L535" s="27"/>
       <c r="M535" s="27"/>
       <c r="N535" s="27"/>
@@ -27088,8 +27210,8 @@
       <c r="G536" s="27"/>
       <c r="H536" s="27"/>
       <c r="I536" s="27"/>
-      <c r="J536" s="36"/>
-      <c r="K536" s="36"/>
+      <c r="J536" s="39"/>
+      <c r="K536" s="39"/>
       <c r="L536" s="27"/>
       <c r="M536" s="27"/>
       <c r="N536" s="27"/>
@@ -27133,8 +27255,8 @@
       <c r="G537" s="27"/>
       <c r="H537" s="27"/>
       <c r="I537" s="27"/>
-      <c r="J537" s="36"/>
-      <c r="K537" s="36"/>
+      <c r="J537" s="39"/>
+      <c r="K537" s="39"/>
       <c r="L537" s="27"/>
       <c r="M537" s="27"/>
       <c r="N537" s="27"/>
@@ -27178,8 +27300,8 @@
       <c r="G538" s="27"/>
       <c r="H538" s="27"/>
       <c r="I538" s="27"/>
-      <c r="J538" s="36"/>
-      <c r="K538" s="36"/>
+      <c r="J538" s="39"/>
+      <c r="K538" s="39"/>
       <c r="L538" s="27"/>
       <c r="M538" s="27"/>
       <c r="N538" s="27"/>
@@ -27223,8 +27345,8 @@
       <c r="G539" s="27"/>
       <c r="H539" s="27"/>
       <c r="I539" s="27"/>
-      <c r="J539" s="36"/>
-      <c r="K539" s="36"/>
+      <c r="J539" s="39"/>
+      <c r="K539" s="39"/>
       <c r="L539" s="27"/>
       <c r="M539" s="27"/>
       <c r="N539" s="27"/>
@@ -27268,8 +27390,8 @@
       <c r="G540" s="27"/>
       <c r="H540" s="27"/>
       <c r="I540" s="27"/>
-      <c r="J540" s="36"/>
-      <c r="K540" s="36"/>
+      <c r="J540" s="39"/>
+      <c r="K540" s="39"/>
       <c r="L540" s="27"/>
       <c r="M540" s="27"/>
       <c r="N540" s="27"/>
@@ -27313,8 +27435,8 @@
       <c r="G541" s="27"/>
       <c r="H541" s="27"/>
       <c r="I541" s="27"/>
-      <c r="J541" s="36"/>
-      <c r="K541" s="36"/>
+      <c r="J541" s="39"/>
+      <c r="K541" s="39"/>
       <c r="L541" s="27"/>
       <c r="M541" s="27"/>
       <c r="N541" s="27"/>
@@ -27358,8 +27480,8 @@
       <c r="G542" s="27"/>
       <c r="H542" s="27"/>
       <c r="I542" s="27"/>
-      <c r="J542" s="36"/>
-      <c r="K542" s="36"/>
+      <c r="J542" s="39"/>
+      <c r="K542" s="39"/>
       <c r="L542" s="27"/>
       <c r="M542" s="27"/>
       <c r="N542" s="27"/>
@@ -27403,8 +27525,8 @@
       <c r="G543" s="27"/>
       <c r="H543" s="27"/>
       <c r="I543" s="27"/>
-      <c r="J543" s="36"/>
-      <c r="K543" s="36"/>
+      <c r="J543" s="39"/>
+      <c r="K543" s="39"/>
       <c r="L543" s="27"/>
       <c r="M543" s="27"/>
       <c r="N543" s="27"/>
@@ -27448,8 +27570,8 @@
       <c r="G544" s="27"/>
       <c r="H544" s="27"/>
       <c r="I544" s="27"/>
-      <c r="J544" s="36"/>
-      <c r="K544" s="36"/>
+      <c r="J544" s="39"/>
+      <c r="K544" s="39"/>
       <c r="L544" s="27"/>
       <c r="M544" s="27"/>
       <c r="N544" s="27"/>
@@ -27493,8 +27615,8 @@
       <c r="G545" s="27"/>
       <c r="H545" s="27"/>
       <c r="I545" s="27"/>
-      <c r="J545" s="36"/>
-      <c r="K545" s="36"/>
+      <c r="J545" s="39"/>
+      <c r="K545" s="39"/>
       <c r="L545" s="27"/>
       <c r="M545" s="27"/>
       <c r="N545" s="27"/>
@@ -27538,8 +27660,8 @@
       <c r="G546" s="27"/>
       <c r="H546" s="27"/>
       <c r="I546" s="27"/>
-      <c r="J546" s="36"/>
-      <c r="K546" s="36"/>
+      <c r="J546" s="39"/>
+      <c r="K546" s="39"/>
       <c r="L546" s="27"/>
       <c r="M546" s="27"/>
       <c r="N546" s="27"/>
@@ -27583,8 +27705,8 @@
       <c r="G547" s="27"/>
       <c r="H547" s="27"/>
       <c r="I547" s="27"/>
-      <c r="J547" s="36"/>
-      <c r="K547" s="36"/>
+      <c r="J547" s="39"/>
+      <c r="K547" s="39"/>
       <c r="L547" s="27"/>
       <c r="M547" s="27"/>
       <c r="N547" s="27"/>
@@ -27628,8 +27750,8 @@
       <c r="G548" s="27"/>
       <c r="H548" s="27"/>
       <c r="I548" s="27"/>
-      <c r="J548" s="36"/>
-      <c r="K548" s="36"/>
+      <c r="J548" s="39"/>
+      <c r="K548" s="39"/>
       <c r="L548" s="27"/>
       <c r="M548" s="27"/>
       <c r="N548" s="27"/>
@@ -27673,8 +27795,8 @@
       <c r="G549" s="27"/>
       <c r="H549" s="27"/>
       <c r="I549" s="27"/>
-      <c r="J549" s="36"/>
-      <c r="K549" s="36"/>
+      <c r="J549" s="39"/>
+      <c r="K549" s="39"/>
       <c r="L549" s="27"/>
       <c r="M549" s="27"/>
       <c r="N549" s="27"/>
@@ -27718,8 +27840,8 @@
       <c r="G550" s="27"/>
       <c r="H550" s="27"/>
       <c r="I550" s="27"/>
-      <c r="J550" s="36"/>
-      <c r="K550" s="36"/>
+      <c r="J550" s="39"/>
+      <c r="K550" s="39"/>
       <c r="L550" s="27"/>
       <c r="M550" s="27"/>
       <c r="N550" s="27"/>
@@ -27763,8 +27885,8 @@
       <c r="G551" s="27"/>
       <c r="H551" s="27"/>
       <c r="I551" s="27"/>
-      <c r="J551" s="36"/>
-      <c r="K551" s="36"/>
+      <c r="J551" s="39"/>
+      <c r="K551" s="39"/>
       <c r="L551" s="27"/>
       <c r="M551" s="27"/>
       <c r="N551" s="27"/>
@@ -27808,8 +27930,8 @@
       <c r="G552" s="27"/>
       <c r="H552" s="27"/>
       <c r="I552" s="27"/>
-      <c r="J552" s="36"/>
-      <c r="K552" s="36"/>
+      <c r="J552" s="39"/>
+      <c r="K552" s="39"/>
       <c r="L552" s="27"/>
       <c r="M552" s="27"/>
       <c r="N552" s="27"/>
@@ -27853,8 +27975,8 @@
       <c r="G553" s="27"/>
       <c r="H553" s="27"/>
       <c r="I553" s="27"/>
-      <c r="J553" s="36"/>
-      <c r="K553" s="36"/>
+      <c r="J553" s="39"/>
+      <c r="K553" s="39"/>
       <c r="L553" s="27"/>
       <c r="M553" s="27"/>
       <c r="N553" s="27"/>
@@ -27898,8 +28020,8 @@
       <c r="G554" s="27"/>
       <c r="H554" s="27"/>
       <c r="I554" s="27"/>
-      <c r="J554" s="36"/>
-      <c r="K554" s="36"/>
+      <c r="J554" s="39"/>
+      <c r="K554" s="39"/>
       <c r="L554" s="27"/>
       <c r="M554" s="27"/>
       <c r="N554" s="27"/>
@@ -27943,8 +28065,8 @@
       <c r="G555" s="27"/>
       <c r="H555" s="27"/>
       <c r="I555" s="27"/>
-      <c r="J555" s="36"/>
-      <c r="K555" s="36"/>
+      <c r="J555" s="39"/>
+      <c r="K555" s="39"/>
       <c r="L555" s="27"/>
       <c r="M555" s="27"/>
       <c r="N555" s="27"/>
@@ -27988,8 +28110,8 @@
       <c r="G556" s="27"/>
       <c r="H556" s="27"/>
       <c r="I556" s="27"/>
-      <c r="J556" s="36"/>
-      <c r="K556" s="36"/>
+      <c r="J556" s="39"/>
+      <c r="K556" s="39"/>
       <c r="L556" s="27"/>
       <c r="M556" s="27"/>
       <c r="N556" s="27"/>
@@ -28033,8 +28155,8 @@
       <c r="G557" s="27"/>
       <c r="H557" s="27"/>
       <c r="I557" s="27"/>
-      <c r="J557" s="36"/>
-      <c r="K557" s="36"/>
+      <c r="J557" s="39"/>
+      <c r="K557" s="39"/>
       <c r="L557" s="27"/>
       <c r="M557" s="27"/>
       <c r="N557" s="27"/>
@@ -28078,8 +28200,8 @@
       <c r="G558" s="27"/>
       <c r="H558" s="27"/>
       <c r="I558" s="27"/>
-      <c r="J558" s="36"/>
-      <c r="K558" s="36"/>
+      <c r="J558" s="39"/>
+      <c r="K558" s="39"/>
       <c r="L558" s="27"/>
       <c r="M558" s="27"/>
       <c r="N558" s="27"/>
@@ -28123,8 +28245,8 @@
       <c r="G559" s="27"/>
       <c r="H559" s="27"/>
       <c r="I559" s="27"/>
-      <c r="J559" s="36"/>
-      <c r="K559" s="36"/>
+      <c r="J559" s="39"/>
+      <c r="K559" s="39"/>
       <c r="L559" s="27"/>
       <c r="M559" s="27"/>
       <c r="N559" s="27"/>
@@ -28168,8 +28290,8 @@
       <c r="G560" s="27"/>
       <c r="H560" s="27"/>
       <c r="I560" s="27"/>
-      <c r="J560" s="36"/>
-      <c r="K560" s="36"/>
+      <c r="J560" s="39"/>
+      <c r="K560" s="39"/>
       <c r="L560" s="27"/>
       <c r="M560" s="27"/>
       <c r="N560" s="27"/>
@@ -28213,8 +28335,8 @@
       <c r="G561" s="27"/>
       <c r="H561" s="27"/>
       <c r="I561" s="27"/>
-      <c r="J561" s="36"/>
-      <c r="K561" s="36"/>
+      <c r="J561" s="39"/>
+      <c r="K561" s="39"/>
       <c r="L561" s="27"/>
       <c r="M561" s="27"/>
       <c r="N561" s="27"/>
@@ -28258,8 +28380,8 @@
       <c r="G562" s="27"/>
       <c r="H562" s="27"/>
       <c r="I562" s="27"/>
-      <c r="J562" s="36"/>
-      <c r="K562" s="36"/>
+      <c r="J562" s="39"/>
+      <c r="K562" s="39"/>
       <c r="L562" s="27"/>
       <c r="M562" s="27"/>
       <c r="N562" s="27"/>
@@ -28303,8 +28425,8 @@
       <c r="G563" s="27"/>
       <c r="H563" s="27"/>
       <c r="I563" s="27"/>
-      <c r="J563" s="36"/>
-      <c r="K563" s="36"/>
+      <c r="J563" s="39"/>
+      <c r="K563" s="39"/>
       <c r="L563" s="27"/>
       <c r="M563" s="27"/>
       <c r="N563" s="27"/>
@@ -28348,8 +28470,8 @@
       <c r="G564" s="27"/>
       <c r="H564" s="27"/>
       <c r="I564" s="27"/>
-      <c r="J564" s="36"/>
-      <c r="K564" s="36"/>
+      <c r="J564" s="39"/>
+      <c r="K564" s="39"/>
       <c r="L564" s="27"/>
       <c r="M564" s="27"/>
       <c r="N564" s="27"/>
@@ -28393,8 +28515,8 @@
       <c r="G565" s="27"/>
       <c r="H565" s="27"/>
       <c r="I565" s="27"/>
-      <c r="J565" s="36"/>
-      <c r="K565" s="36"/>
+      <c r="J565" s="39"/>
+      <c r="K565" s="39"/>
       <c r="L565" s="27"/>
       <c r="M565" s="27"/>
       <c r="N565" s="27"/>
@@ -28438,8 +28560,8 @@
       <c r="G566" s="27"/>
       <c r="H566" s="27"/>
       <c r="I566" s="27"/>
-      <c r="J566" s="36"/>
-      <c r="K566" s="36"/>
+      <c r="J566" s="39"/>
+      <c r="K566" s="39"/>
       <c r="L566" s="27"/>
       <c r="M566" s="27"/>
       <c r="N566" s="27"/>
@@ -28483,8 +28605,8 @@
       <c r="G567" s="27"/>
       <c r="H567" s="27"/>
       <c r="I567" s="27"/>
-      <c r="J567" s="36"/>
-      <c r="K567" s="36"/>
+      <c r="J567" s="39"/>
+      <c r="K567" s="39"/>
       <c r="L567" s="27"/>
       <c r="M567" s="27"/>
       <c r="N567" s="27"/>
@@ -28528,8 +28650,8 @@
       <c r="G568" s="27"/>
       <c r="H568" s="27"/>
       <c r="I568" s="27"/>
-      <c r="J568" s="36"/>
-      <c r="K568" s="36"/>
+      <c r="J568" s="39"/>
+      <c r="K568" s="39"/>
       <c r="L568" s="27"/>
       <c r="M568" s="27"/>
       <c r="N568" s="27"/>
@@ -28573,8 +28695,8 @@
       <c r="G569" s="27"/>
       <c r="H569" s="27"/>
       <c r="I569" s="27"/>
-      <c r="J569" s="36"/>
-      <c r="K569" s="36"/>
+      <c r="J569" s="39"/>
+      <c r="K569" s="39"/>
       <c r="L569" s="27"/>
       <c r="M569" s="27"/>
       <c r="N569" s="27"/>
@@ -28618,8 +28740,8 @@
       <c r="G570" s="27"/>
       <c r="H570" s="27"/>
       <c r="I570" s="27"/>
-      <c r="J570" s="36"/>
-      <c r="K570" s="36"/>
+      <c r="J570" s="39"/>
+      <c r="K570" s="39"/>
       <c r="L570" s="27"/>
       <c r="M570" s="27"/>
       <c r="N570" s="27"/>
@@ -28663,8 +28785,8 @@
       <c r="G571" s="27"/>
       <c r="H571" s="27"/>
       <c r="I571" s="27"/>
-      <c r="J571" s="36"/>
-      <c r="K571" s="36"/>
+      <c r="J571" s="39"/>
+      <c r="K571" s="39"/>
       <c r="L571" s="27"/>
       <c r="M571" s="27"/>
       <c r="N571" s="27"/>
@@ -28708,8 +28830,8 @@
       <c r="G572" s="27"/>
       <c r="H572" s="27"/>
       <c r="I572" s="27"/>
-      <c r="J572" s="36"/>
-      <c r="K572" s="36"/>
+      <c r="J572" s="39"/>
+      <c r="K572" s="39"/>
       <c r="L572" s="27"/>
       <c r="M572" s="27"/>
       <c r="N572" s="27"/>
@@ -28753,8 +28875,8 @@
       <c r="G573" s="27"/>
       <c r="H573" s="27"/>
       <c r="I573" s="27"/>
-      <c r="J573" s="36"/>
-      <c r="K573" s="36"/>
+      <c r="J573" s="39"/>
+      <c r="K573" s="39"/>
       <c r="L573" s="27"/>
       <c r="M573" s="27"/>
       <c r="N573" s="27"/>
@@ -28798,8 +28920,8 @@
       <c r="G574" s="27"/>
       <c r="H574" s="27"/>
       <c r="I574" s="27"/>
-      <c r="J574" s="36"/>
-      <c r="K574" s="36"/>
+      <c r="J574" s="39"/>
+      <c r="K574" s="39"/>
       <c r="L574" s="27"/>
       <c r="M574" s="27"/>
       <c r="N574" s="27"/>
@@ -28843,8 +28965,8 @@
       <c r="G575" s="27"/>
       <c r="H575" s="27"/>
       <c r="I575" s="27"/>
-      <c r="J575" s="36"/>
-      <c r="K575" s="36"/>
+      <c r="J575" s="39"/>
+      <c r="K575" s="39"/>
       <c r="L575" s="27"/>
       <c r="M575" s="27"/>
       <c r="N575" s="27"/>
@@ -28888,8 +29010,8 @@
       <c r="G576" s="27"/>
       <c r="H576" s="27"/>
       <c r="I576" s="27"/>
-      <c r="J576" s="36"/>
-      <c r="K576" s="36"/>
+      <c r="J576" s="39"/>
+      <c r="K576" s="39"/>
       <c r="L576" s="27"/>
       <c r="M576" s="27"/>
       <c r="N576" s="27"/>
@@ -28933,8 +29055,8 @@
       <c r="G577" s="27"/>
       <c r="H577" s="27"/>
       <c r="I577" s="27"/>
-      <c r="J577" s="36"/>
-      <c r="K577" s="36"/>
+      <c r="J577" s="39"/>
+      <c r="K577" s="39"/>
       <c r="L577" s="27"/>
       <c r="M577" s="27"/>
       <c r="N577" s="27"/>
@@ -28978,8 +29100,8 @@
       <c r="G578" s="27"/>
       <c r="H578" s="27"/>
       <c r="I578" s="27"/>
-      <c r="J578" s="36"/>
-      <c r="K578" s="36"/>
+      <c r="J578" s="39"/>
+      <c r="K578" s="39"/>
       <c r="L578" s="27"/>
       <c r="M578" s="27"/>
       <c r="N578" s="27"/>
@@ -29023,8 +29145,8 @@
       <c r="G579" s="27"/>
       <c r="H579" s="27"/>
       <c r="I579" s="27"/>
-      <c r="J579" s="36"/>
-      <c r="K579" s="36"/>
+      <c r="J579" s="39"/>
+      <c r="K579" s="39"/>
       <c r="L579" s="27"/>
       <c r="M579" s="27"/>
       <c r="N579" s="27"/>
@@ -29068,8 +29190,8 @@
       <c r="G580" s="27"/>
       <c r="H580" s="27"/>
       <c r="I580" s="27"/>
-      <c r="J580" s="36"/>
-      <c r="K580" s="36"/>
+      <c r="J580" s="39"/>
+      <c r="K580" s="39"/>
       <c r="L580" s="27"/>
       <c r="M580" s="27"/>
       <c r="N580" s="27"/>
@@ -29113,8 +29235,8 @@
       <c r="G581" s="27"/>
       <c r="H581" s="27"/>
       <c r="I581" s="27"/>
-      <c r="J581" s="36"/>
-      <c r="K581" s="36"/>
+      <c r="J581" s="39"/>
+      <c r="K581" s="39"/>
       <c r="L581" s="27"/>
       <c r="M581" s="27"/>
       <c r="N581" s="27"/>
@@ -29158,8 +29280,8 @@
       <c r="G582" s="27"/>
       <c r="H582" s="27"/>
       <c r="I582" s="27"/>
-      <c r="J582" s="36"/>
-      <c r="K582" s="36"/>
+      <c r="J582" s="39"/>
+      <c r="K582" s="39"/>
       <c r="L582" s="27"/>
       <c r="M582" s="27"/>
       <c r="N582" s="27"/>
@@ -29203,8 +29325,8 @@
       <c r="G583" s="27"/>
       <c r="H583" s="27"/>
       <c r="I583" s="27"/>
-      <c r="J583" s="36"/>
-      <c r="K583" s="36"/>
+      <c r="J583" s="39"/>
+      <c r="K583" s="39"/>
       <c r="L583" s="27"/>
       <c r="M583" s="27"/>
       <c r="N583" s="27"/>
@@ -29248,8 +29370,8 @@
       <c r="G584" s="27"/>
       <c r="H584" s="27"/>
       <c r="I584" s="27"/>
-      <c r="J584" s="36"/>
-      <c r="K584" s="36"/>
+      <c r="J584" s="39"/>
+      <c r="K584" s="39"/>
       <c r="L584" s="27"/>
       <c r="M584" s="27"/>
       <c r="N584" s="27"/>
@@ -29293,8 +29415,8 @@
       <c r="G585" s="27"/>
       <c r="H585" s="27"/>
       <c r="I585" s="27"/>
-      <c r="J585" s="36"/>
-      <c r="K585" s="36"/>
+      <c r="J585" s="39"/>
+      <c r="K585" s="39"/>
       <c r="L585" s="27"/>
       <c r="M585" s="27"/>
       <c r="N585" s="27"/>
@@ -29338,8 +29460,8 @@
       <c r="G586" s="27"/>
       <c r="H586" s="27"/>
       <c r="I586" s="27"/>
-      <c r="J586" s="36"/>
-      <c r="K586" s="36"/>
+      <c r="J586" s="39"/>
+      <c r="K586" s="39"/>
       <c r="L586" s="27"/>
       <c r="M586" s="27"/>
       <c r="N586" s="27"/>
@@ -29383,8 +29505,8 @@
       <c r="G587" s="27"/>
       <c r="H587" s="27"/>
       <c r="I587" s="27"/>
-      <c r="J587" s="36"/>
-      <c r="K587" s="36"/>
+      <c r="J587" s="39"/>
+      <c r="K587" s="39"/>
       <c r="L587" s="27"/>
       <c r="M587" s="27"/>
       <c r="N587" s="27"/>
@@ -29428,8 +29550,8 @@
       <c r="G588" s="27"/>
       <c r="H588" s="27"/>
       <c r="I588" s="27"/>
-      <c r="J588" s="36"/>
-      <c r="K588" s="36"/>
+      <c r="J588" s="39"/>
+      <c r="K588" s="39"/>
       <c r="L588" s="27"/>
       <c r="M588" s="27"/>
       <c r="N588" s="27"/>
@@ -29473,8 +29595,8 @@
       <c r="G589" s="27"/>
       <c r="H589" s="27"/>
       <c r="I589" s="27"/>
-      <c r="J589" s="36"/>
-      <c r="K589" s="36"/>
+      <c r="J589" s="39"/>
+      <c r="K589" s="39"/>
       <c r="L589" s="27"/>
       <c r="M589" s="27"/>
       <c r="N589" s="27"/>
@@ -29518,8 +29640,8 @@
       <c r="G590" s="27"/>
       <c r="H590" s="27"/>
       <c r="I590" s="27"/>
-      <c r="J590" s="36"/>
-      <c r="K590" s="36"/>
+      <c r="J590" s="39"/>
+      <c r="K590" s="39"/>
       <c r="L590" s="27"/>
       <c r="M590" s="27"/>
       <c r="N590" s="27"/>
@@ -29563,8 +29685,8 @@
       <c r="G591" s="27"/>
       <c r="H591" s="27"/>
       <c r="I591" s="27"/>
-      <c r="J591" s="36"/>
-      <c r="K591" s="36"/>
+      <c r="J591" s="39"/>
+      <c r="K591" s="39"/>
       <c r="L591" s="27"/>
       <c r="M591" s="27"/>
       <c r="N591" s="27"/>
@@ -29608,8 +29730,8 @@
       <c r="G592" s="27"/>
       <c r="H592" s="27"/>
       <c r="I592" s="27"/>
-      <c r="J592" s="36"/>
-      <c r="K592" s="36"/>
+      <c r="J592" s="39"/>
+      <c r="K592" s="39"/>
       <c r="L592" s="27"/>
       <c r="M592" s="27"/>
       <c r="N592" s="27"/>
@@ -29653,8 +29775,8 @@
       <c r="G593" s="27"/>
       <c r="H593" s="27"/>
       <c r="I593" s="27"/>
-      <c r="J593" s="36"/>
-      <c r="K593" s="36"/>
+      <c r="J593" s="39"/>
+      <c r="K593" s="39"/>
       <c r="L593" s="27"/>
       <c r="M593" s="27"/>
       <c r="N593" s="27"/>
@@ -29698,8 +29820,8 @@
       <c r="G594" s="27"/>
       <c r="H594" s="27"/>
       <c r="I594" s="27"/>
-      <c r="J594" s="36"/>
-      <c r="K594" s="36"/>
+      <c r="J594" s="39"/>
+      <c r="K594" s="39"/>
       <c r="L594" s="27"/>
       <c r="M594" s="27"/>
       <c r="N594" s="27"/>
@@ -29743,8 +29865,8 @@
       <c r="G595" s="27"/>
       <c r="H595" s="27"/>
       <c r="I595" s="27"/>
-      <c r="J595" s="36"/>
-      <c r="K595" s="36"/>
+      <c r="J595" s="39"/>
+      <c r="K595" s="39"/>
       <c r="L595" s="27"/>
       <c r="M595" s="27"/>
       <c r="N595" s="27"/>
@@ -29788,8 +29910,8 @@
       <c r="G596" s="27"/>
       <c r="H596" s="27"/>
       <c r="I596" s="27"/>
-      <c r="J596" s="36"/>
-      <c r="K596" s="36"/>
+      <c r="J596" s="39"/>
+      <c r="K596" s="39"/>
       <c r="L596" s="27"/>
       <c r="M596" s="27"/>
       <c r="N596" s="27"/>
@@ -29833,8 +29955,8 @@
       <c r="G597" s="27"/>
       <c r="H597" s="27"/>
       <c r="I597" s="27"/>
-      <c r="J597" s="36"/>
-      <c r="K597" s="36"/>
+      <c r="J597" s="39"/>
+      <c r="K597" s="39"/>
       <c r="L597" s="27"/>
       <c r="M597" s="27"/>
       <c r="N597" s="27"/>
@@ -29878,8 +30000,8 @@
       <c r="G598" s="27"/>
       <c r="H598" s="27"/>
       <c r="I598" s="27"/>
-      <c r="J598" s="36"/>
-      <c r="K598" s="36"/>
+      <c r="J598" s="39"/>
+      <c r="K598" s="39"/>
       <c r="L598" s="27"/>
       <c r="M598" s="27"/>
       <c r="N598" s="27"/>
@@ -29923,8 +30045,8 @@
       <c r="G599" s="27"/>
       <c r="H599" s="27"/>
       <c r="I599" s="27"/>
-      <c r="J599" s="36"/>
-      <c r="K599" s="36"/>
+      <c r="J599" s="39"/>
+      <c r="K599" s="39"/>
       <c r="L599" s="27"/>
       <c r="M599" s="27"/>
       <c r="N599" s="27"/>
@@ -29968,8 +30090,8 @@
       <c r="G600" s="27"/>
       <c r="H600" s="27"/>
       <c r="I600" s="27"/>
-      <c r="J600" s="36"/>
-      <c r="K600" s="36"/>
+      <c r="J600" s="39"/>
+      <c r="K600" s="39"/>
       <c r="L600" s="27"/>
       <c r="M600" s="27"/>
       <c r="N600" s="27"/>
@@ -30013,8 +30135,8 @@
       <c r="G601" s="27"/>
       <c r="H601" s="27"/>
       <c r="I601" s="27"/>
-      <c r="J601" s="36"/>
-      <c r="K601" s="36"/>
+      <c r="J601" s="39"/>
+      <c r="K601" s="39"/>
       <c r="L601" s="27"/>
       <c r="M601" s="27"/>
       <c r="N601" s="27"/>
@@ -30058,8 +30180,8 @@
       <c r="G602" s="27"/>
       <c r="H602" s="27"/>
       <c r="I602" s="27"/>
-      <c r="J602" s="36"/>
-      <c r="K602" s="36"/>
+      <c r="J602" s="39"/>
+      <c r="K602" s="39"/>
       <c r="L602" s="27"/>
       <c r="M602" s="27"/>
       <c r="N602" s="27"/>
@@ -30103,8 +30225,8 @@
       <c r="G603" s="27"/>
       <c r="H603" s="27"/>
       <c r="I603" s="27"/>
-      <c r="J603" s="36"/>
-      <c r="K603" s="36"/>
+      <c r="J603" s="39"/>
+      <c r="K603" s="39"/>
       <c r="L603" s="27"/>
       <c r="M603" s="27"/>
       <c r="N603" s="27"/>
@@ -30148,8 +30270,8 @@
       <c r="G604" s="27"/>
       <c r="H604" s="27"/>
       <c r="I604" s="27"/>
-      <c r="J604" s="36"/>
-      <c r="K604" s="36"/>
+      <c r="J604" s="39"/>
+      <c r="K604" s="39"/>
       <c r="L604" s="27"/>
       <c r="M604" s="27"/>
       <c r="N604" s="27"/>
@@ -30193,8 +30315,8 @@
       <c r="G605" s="27"/>
       <c r="H605" s="27"/>
       <c r="I605" s="27"/>
-      <c r="J605" s="36"/>
-      <c r="K605" s="36"/>
+      <c r="J605" s="39"/>
+      <c r="K605" s="39"/>
       <c r="L605" s="27"/>
       <c r="M605" s="27"/>
       <c r="N605" s="27"/>
@@ -30238,8 +30360,8 @@
       <c r="G606" s="27"/>
       <c r="H606" s="27"/>
       <c r="I606" s="27"/>
-      <c r="J606" s="36"/>
-      <c r="K606" s="36"/>
+      <c r="J606" s="39"/>
+      <c r="K606" s="39"/>
       <c r="L606" s="27"/>
       <c r="M606" s="27"/>
       <c r="N606" s="27"/>
@@ -30283,8 +30405,8 @@
       <c r="G607" s="27"/>
       <c r="H607" s="27"/>
       <c r="I607" s="27"/>
-      <c r="J607" s="36"/>
-      <c r="K607" s="36"/>
+      <c r="J607" s="39"/>
+      <c r="K607" s="39"/>
       <c r="L607" s="27"/>
       <c r="M607" s="27"/>
       <c r="N607" s="27"/>
@@ -30328,8 +30450,8 @@
       <c r="G608" s="27"/>
       <c r="H608" s="27"/>
       <c r="I608" s="27"/>
-      <c r="J608" s="36"/>
-      <c r="K608" s="36"/>
+      <c r="J608" s="39"/>
+      <c r="K608" s="39"/>
       <c r="L608" s="27"/>
       <c r="M608" s="27"/>
       <c r="N608" s="27"/>
@@ -30373,8 +30495,8 @@
       <c r="G609" s="27"/>
       <c r="H609" s="27"/>
       <c r="I609" s="27"/>
-      <c r="J609" s="36"/>
-      <c r="K609" s="36"/>
+      <c r="J609" s="39"/>
+      <c r="K609" s="39"/>
       <c r="L609" s="27"/>
       <c r="M609" s="27"/>
       <c r="N609" s="27"/>
@@ -30418,8 +30540,8 @@
       <c r="G610" s="27"/>
       <c r="H610" s="27"/>
       <c r="I610" s="27"/>
-      <c r="J610" s="36"/>
-      <c r="K610" s="36"/>
+      <c r="J610" s="39"/>
+      <c r="K610" s="39"/>
       <c r="L610" s="27"/>
       <c r="M610" s="27"/>
       <c r="N610" s="27"/>
@@ -30463,8 +30585,8 @@
       <c r="G611" s="27"/>
       <c r="H611" s="27"/>
       <c r="I611" s="27"/>
-      <c r="J611" s="36"/>
-      <c r="K611" s="36"/>
+      <c r="J611" s="39"/>
+      <c r="K611" s="39"/>
       <c r="L611" s="27"/>
       <c r="M611" s="27"/>
       <c r="N611" s="27"/>
@@ -30508,8 +30630,8 @@
       <c r="G612" s="27"/>
       <c r="H612" s="27"/>
       <c r="I612" s="27"/>
-      <c r="J612" s="36"/>
-      <c r="K612" s="36"/>
+      <c r="J612" s="39"/>
+      <c r="K612" s="39"/>
       <c r="L612" s="27"/>
       <c r="M612" s="27"/>
       <c r="N612" s="27"/>
@@ -30553,8 +30675,8 @@
       <c r="G613" s="27"/>
       <c r="H613" s="27"/>
       <c r="I613" s="27"/>
-      <c r="J613" s="36"/>
-      <c r="K613" s="36"/>
+      <c r="J613" s="39"/>
+      <c r="K613" s="39"/>
       <c r="L613" s="27"/>
       <c r="M613" s="27"/>
       <c r="N613" s="27"/>
@@ -30598,8 +30720,8 @@
       <c r="G614" s="27"/>
       <c r="H614" s="27"/>
       <c r="I614" s="27"/>
-      <c r="J614" s="36"/>
-      <c r="K614" s="36"/>
+      <c r="J614" s="39"/>
+      <c r="K614" s="39"/>
       <c r="L614" s="27"/>
       <c r="M614" s="27"/>
       <c r="N614" s="27"/>
@@ -30643,8 +30765,8 @@
       <c r="G615" s="27"/>
       <c r="H615" s="27"/>
       <c r="I615" s="27"/>
-      <c r="J615" s="36"/>
-      <c r="K615" s="36"/>
+      <c r="J615" s="39"/>
+      <c r="K615" s="39"/>
       <c r="L615" s="27"/>
       <c r="M615" s="27"/>
       <c r="N615" s="27"/>
@@ -30688,8 +30810,8 @@
       <c r="G616" s="27"/>
       <c r="H616" s="27"/>
       <c r="I616" s="27"/>
-      <c r="J616" s="36"/>
-      <c r="K616" s="36"/>
+      <c r="J616" s="39"/>
+      <c r="K616" s="39"/>
       <c r="L616" s="27"/>
       <c r="M616" s="27"/>
       <c r="N616" s="27"/>
@@ -30733,8 +30855,8 @@
       <c r="G617" s="27"/>
       <c r="H617" s="27"/>
       <c r="I617" s="27"/>
-      <c r="J617" s="36"/>
-      <c r="K617" s="36"/>
+      <c r="J617" s="39"/>
+      <c r="K617" s="39"/>
       <c r="L617" s="27"/>
       <c r="M617" s="27"/>
       <c r="N617" s="27"/>
@@ -30778,8 +30900,8 @@
       <c r="G618" s="27"/>
       <c r="H618" s="27"/>
       <c r="I618" s="27"/>
-      <c r="J618" s="36"/>
-      <c r="K618" s="36"/>
+      <c r="J618" s="39"/>
+      <c r="K618" s="39"/>
       <c r="L618" s="27"/>
       <c r="M618" s="27"/>
       <c r="N618" s="27"/>
@@ -30823,8 +30945,8 @@
       <c r="G619" s="27"/>
       <c r="H619" s="27"/>
       <c r="I619" s="27"/>
-      <c r="J619" s="36"/>
-      <c r="K619" s="36"/>
+      <c r="J619" s="39"/>
+      <c r="K619" s="39"/>
       <c r="L619" s="27"/>
       <c r="M619" s="27"/>
       <c r="N619" s="27"/>
@@ -30868,8 +30990,8 @@
       <c r="G620" s="27"/>
       <c r="H620" s="27"/>
       <c r="I620" s="27"/>
-      <c r="J620" s="36"/>
-      <c r="K620" s="36"/>
+      <c r="J620" s="39"/>
+      <c r="K620" s="39"/>
       <c r="L620" s="27"/>
       <c r="M620" s="27"/>
       <c r="N620" s="27"/>
@@ -30913,8 +31035,8 @@
       <c r="G621" s="27"/>
       <c r="H621" s="27"/>
       <c r="I621" s="27"/>
-      <c r="J621" s="36"/>
-      <c r="K621" s="36"/>
+      <c r="J621" s="39"/>
+      <c r="K621" s="39"/>
       <c r="L621" s="27"/>
       <c r="M621" s="27"/>
       <c r="N621" s="27"/>
@@ -30958,8 +31080,8 @@
       <c r="G622" s="27"/>
       <c r="H622" s="27"/>
       <c r="I622" s="27"/>
-      <c r="J622" s="36"/>
-      <c r="K622" s="36"/>
+      <c r="J622" s="39"/>
+      <c r="K622" s="39"/>
       <c r="L622" s="27"/>
       <c r="M622" s="27"/>
       <c r="N622" s="27"/>
@@ -31003,8 +31125,8 @@
       <c r="G623" s="27"/>
       <c r="H623" s="27"/>
       <c r="I623" s="27"/>
-      <c r="J623" s="36"/>
-      <c r="K623" s="36"/>
+      <c r="J623" s="39"/>
+      <c r="K623" s="39"/>
       <c r="L623" s="27"/>
       <c r="M623" s="27"/>
       <c r="N623" s="27"/>
@@ -31048,8 +31170,8 @@
       <c r="G624" s="27"/>
       <c r="H624" s="27"/>
       <c r="I624" s="27"/>
-      <c r="J624" s="36"/>
-      <c r="K624" s="36"/>
+      <c r="J624" s="39"/>
+      <c r="K624" s="39"/>
       <c r="L624" s="27"/>
       <c r="M624" s="27"/>
       <c r="N624" s="27"/>
@@ -31093,8 +31215,8 @@
       <c r="G625" s="27"/>
       <c r="H625" s="27"/>
       <c r="I625" s="27"/>
-      <c r="J625" s="36"/>
-      <c r="K625" s="36"/>
+      <c r="J625" s="39"/>
+      <c r="K625" s="39"/>
       <c r="L625" s="27"/>
       <c r="M625" s="27"/>
       <c r="N625" s="27"/>
@@ -31138,8 +31260,8 @@
       <c r="G626" s="27"/>
       <c r="H626" s="27"/>
       <c r="I626" s="27"/>
-      <c r="J626" s="36"/>
-      <c r="K626" s="36"/>
+      <c r="J626" s="39"/>
+      <c r="K626" s="39"/>
       <c r="L626" s="27"/>
       <c r="M626" s="27"/>
       <c r="N626" s="27"/>
@@ -31183,8 +31305,8 @@
       <c r="G627" s="27"/>
       <c r="H627" s="27"/>
       <c r="I627" s="27"/>
-      <c r="J627" s="36"/>
-      <c r="K627" s="36"/>
+      <c r="J627" s="39"/>
+      <c r="K627" s="39"/>
       <c r="L627" s="27"/>
       <c r="M627" s="27"/>
       <c r="N627" s="27"/>
@@ -31228,8 +31350,8 @@
       <c r="G628" s="27"/>
       <c r="H628" s="27"/>
       <c r="I628" s="27"/>
-      <c r="J628" s="36"/>
-      <c r="K628" s="36"/>
+      <c r="J628" s="39"/>
+      <c r="K628" s="39"/>
       <c r="L628" s="27"/>
       <c r="M628" s="27"/>
       <c r="N628" s="27"/>
@@ -31273,8 +31395,8 @@
       <c r="G629" s="27"/>
       <c r="H629" s="27"/>
       <c r="I629" s="27"/>
-      <c r="J629" s="36"/>
-      <c r="K629" s="36"/>
+      <c r="J629" s="39"/>
+      <c r="K629" s="39"/>
       <c r="L629" s="27"/>
       <c r="M629" s="27"/>
       <c r="N629" s="27"/>
@@ -31318,8 +31440,8 @@
       <c r="G630" s="27"/>
       <c r="H630" s="27"/>
       <c r="I630" s="27"/>
-      <c r="J630" s="36"/>
-      <c r="K630" s="36"/>
+      <c r="J630" s="39"/>
+      <c r="K630" s="39"/>
       <c r="L630" s="27"/>
       <c r="M630" s="27"/>
       <c r="N630" s="27"/>
@@ -31363,8 +31485,8 @@
       <c r="G631" s="27"/>
       <c r="H631" s="27"/>
       <c r="I631" s="27"/>
-      <c r="J631" s="36"/>
-      <c r="K631" s="36"/>
+      <c r="J631" s="39"/>
+      <c r="K631" s="39"/>
       <c r="L631" s="27"/>
       <c r="M631" s="27"/>
       <c r="N631" s="27"/>
@@ -31408,8 +31530,8 @@
       <c r="G632" s="27"/>
       <c r="H632" s="27"/>
       <c r="I632" s="27"/>
-      <c r="J632" s="36"/>
-      <c r="K632" s="36"/>
+      <c r="J632" s="39"/>
+      <c r="K632" s="39"/>
       <c r="L632" s="27"/>
       <c r="M632" s="27"/>
       <c r="N632" s="27"/>
@@ -31453,8 +31575,8 @@
       <c r="G633" s="27"/>
       <c r="H633" s="27"/>
       <c r="I633" s="27"/>
-      <c r="J633" s="36"/>
-      <c r="K633" s="36"/>
+      <c r="J633" s="39"/>
+      <c r="K633" s="39"/>
       <c r="L633" s="27"/>
       <c r="M633" s="27"/>
       <c r="N633" s="27"/>
@@ -31498,8 +31620,8 @@
       <c r="G634" s="27"/>
       <c r="H634" s="27"/>
       <c r="I634" s="27"/>
-      <c r="J634" s="36"/>
-      <c r="K634" s="36"/>
+      <c r="J634" s="39"/>
+      <c r="K634" s="39"/>
       <c r="L634" s="27"/>
       <c r="M634" s="27"/>
       <c r="N634" s="27"/>
@@ -31543,8 +31665,8 @@
       <c r="G635" s="27"/>
       <c r="H635" s="27"/>
       <c r="I635" s="27"/>
-      <c r="J635" s="36"/>
-      <c r="K635" s="36"/>
+      <c r="J635" s="39"/>
+      <c r="K635" s="39"/>
       <c r="L635" s="27"/>
       <c r="M635" s="27"/>
       <c r="N635" s="27"/>
@@ -31588,8 +31710,8 @@
       <c r="G636" s="27"/>
       <c r="H636" s="27"/>
       <c r="I636" s="27"/>
-      <c r="J636" s="36"/>
-      <c r="K636" s="36"/>
+      <c r="J636" s="39"/>
+      <c r="K636" s="39"/>
       <c r="L636" s="27"/>
       <c r="M636" s="27"/>
       <c r="N636" s="27"/>
@@ -31633,8 +31755,8 @@
       <c r="G637" s="27"/>
       <c r="H637" s="27"/>
       <c r="I637" s="27"/>
-      <c r="J637" s="36"/>
-      <c r="K637" s="36"/>
+      <c r="J637" s="39"/>
+      <c r="K637" s="39"/>
       <c r="L637" s="27"/>
       <c r="M637" s="27"/>
       <c r="N637" s="27"/>
@@ -31678,8 +31800,8 @@
       <c r="G638" s="27"/>
       <c r="H638" s="27"/>
       <c r="I638" s="27"/>
-      <c r="J638" s="36"/>
-      <c r="K638" s="36"/>
+      <c r="J638" s="39"/>
+      <c r="K638" s="39"/>
       <c r="L638" s="27"/>
       <c r="M638" s="27"/>
       <c r="N638" s="27"/>
@@ -31723,8 +31845,8 @@
       <c r="G639" s="27"/>
       <c r="H639" s="27"/>
       <c r="I639" s="27"/>
-      <c r="J639" s="36"/>
-      <c r="K639" s="36"/>
+      <c r="J639" s="39"/>
+      <c r="K639" s="39"/>
       <c r="L639" s="27"/>
       <c r="M639" s="27"/>
       <c r="N639" s="27"/>
@@ -31768,8 +31890,8 @@
       <c r="G640" s="27"/>
       <c r="H640" s="27"/>
       <c r="I640" s="27"/>
-      <c r="J640" s="36"/>
-      <c r="K640" s="36"/>
+      <c r="J640" s="39"/>
+      <c r="K640" s="39"/>
       <c r="L640" s="27"/>
       <c r="M640" s="27"/>
       <c r="N640" s="27"/>
@@ -31813,8 +31935,8 @@
       <c r="G641" s="27"/>
       <c r="H641" s="27"/>
       <c r="I641" s="27"/>
-      <c r="J641" s="36"/>
-      <c r="K641" s="36"/>
+      <c r="J641" s="39"/>
+      <c r="K641" s="39"/>
       <c r="L641" s="27"/>
       <c r="M641" s="27"/>
       <c r="N641" s="27"/>
@@ -31858,8 +31980,8 @@
       <c r="G642" s="27"/>
       <c r="H642" s="27"/>
       <c r="I642" s="27"/>
-      <c r="J642" s="36"/>
-      <c r="K642" s="36"/>
+      <c r="J642" s="39"/>
+      <c r="K642" s="39"/>
       <c r="L642" s="27"/>
       <c r="M642" s="27"/>
       <c r="N642" s="27"/>
@@ -31903,8 +32025,8 @@
       <c r="G643" s="27"/>
       <c r="H643" s="27"/>
       <c r="I643" s="27"/>
-      <c r="J643" s="36"/>
-      <c r="K643" s="36"/>
+      <c r="J643" s="39"/>
+      <c r="K643" s="39"/>
       <c r="L643" s="27"/>
       <c r="M643" s="27"/>
       <c r="N643" s="27"/>
@@ -31948,8 +32070,8 @@
       <c r="G644" s="27"/>
       <c r="H644" s="27"/>
       <c r="I644" s="27"/>
-      <c r="J644" s="36"/>
-      <c r="K644" s="36"/>
+      <c r="J644" s="39"/>
+      <c r="K644" s="39"/>
       <c r="L644" s="27"/>
       <c r="M644" s="27"/>
       <c r="N644" s="27"/>
@@ -31993,8 +32115,8 @@
       <c r="G645" s="27"/>
       <c r="H645" s="27"/>
       <c r="I645" s="27"/>
-      <c r="J645" s="36"/>
-      <c r="K645" s="36"/>
+      <c r="J645" s="39"/>
+      <c r="K645" s="39"/>
       <c r="L645" s="27"/>
       <c r="M645" s="27"/>
       <c r="N645" s="27"/>
@@ -32038,8 +32160,8 @@
       <c r="G646" s="27"/>
       <c r="H646" s="27"/>
       <c r="I646" s="27"/>
-      <c r="J646" s="36"/>
-      <c r="K646" s="36"/>
+      <c r="J646" s="39"/>
+      <c r="K646" s="39"/>
       <c r="L646" s="27"/>
       <c r="M646" s="27"/>
       <c r="N646" s="27"/>
@@ -32083,8 +32205,8 @@
       <c r="G647" s="27"/>
       <c r="H647" s="27"/>
       <c r="I647" s="27"/>
-      <c r="J647" s="36"/>
-      <c r="K647" s="36"/>
+      <c r="J647" s="39"/>
+      <c r="K647" s="39"/>
       <c r="L647" s="27"/>
       <c r="M647" s="27"/>
       <c r="N647" s="27"/>
@@ -32128,8 +32250,8 @@
       <c r="G648" s="27"/>
       <c r="H648" s="27"/>
       <c r="I648" s="27"/>
-      <c r="J648" s="36"/>
-      <c r="K648" s="36"/>
+      <c r="J648" s="39"/>
+      <c r="K648" s="39"/>
       <c r="L648" s="27"/>
       <c r="M648" s="27"/>
       <c r="N648" s="27"/>
@@ -32173,8 +32295,8 @@
       <c r="G649" s="27"/>
       <c r="H649" s="27"/>
       <c r="I649" s="27"/>
-      <c r="J649" s="36"/>
-      <c r="K649" s="36"/>
+      <c r="J649" s="39"/>
+      <c r="K649" s="39"/>
       <c r="L649" s="27"/>
       <c r="M649" s="27"/>
       <c r="N649" s="27"/>
@@ -32218,8 +32340,8 @@
       <c r="G650" s="27"/>
       <c r="H650" s="27"/>
       <c r="I650" s="27"/>
-      <c r="J650" s="36"/>
-      <c r="K650" s="36"/>
+      <c r="J650" s="39"/>
+      <c r="K650" s="39"/>
       <c r="L650" s="27"/>
       <c r="M650" s="27"/>
       <c r="N650" s="27"/>
@@ -32263,8 +32385,8 @@
       <c r="G651" s="27"/>
       <c r="H651" s="27"/>
       <c r="I651" s="27"/>
-      <c r="J651" s="36"/>
-      <c r="K651" s="36"/>
+      <c r="J651" s="39"/>
+      <c r="K651" s="39"/>
       <c r="L651" s="27"/>
       <c r="M651" s="27"/>
       <c r="N651" s="27"/>
@@ -32308,8 +32430,8 @@
       <c r="G652" s="27"/>
       <c r="H652" s="27"/>
       <c r="I652" s="27"/>
-      <c r="J652" s="36"/>
-      <c r="K652" s="36"/>
+      <c r="J652" s="39"/>
+      <c r="K652" s="39"/>
       <c r="L652" s="27"/>
       <c r="M652" s="27"/>
       <c r="N652" s="27"/>
@@ -32353,8 +32475,8 @@
       <c r="G653" s="27"/>
       <c r="H653" s="27"/>
       <c r="I653" s="27"/>
-      <c r="J653" s="36"/>
-      <c r="K653" s="36"/>
+      <c r="J653" s="39"/>
+      <c r="K653" s="39"/>
       <c r="L653" s="27"/>
       <c r="M653" s="27"/>
       <c r="N653" s="27"/>
@@ -32398,8 +32520,8 @@
       <c r="G654" s="27"/>
       <c r="H654" s="27"/>
       <c r="I654" s="27"/>
-      <c r="J654" s="36"/>
-      <c r="K654" s="36"/>
+      <c r="J654" s="39"/>
+      <c r="K654" s="39"/>
       <c r="L654" s="27"/>
       <c r="M654" s="27"/>
       <c r="N654" s="27"/>
@@ -32443,8 +32565,8 @@
       <c r="G655" s="27"/>
       <c r="H655" s="27"/>
       <c r="I655" s="27"/>
-      <c r="J655" s="36"/>
-      <c r="K655" s="36"/>
+      <c r="J655" s="39"/>
+      <c r="K655" s="39"/>
       <c r="L655" s="27"/>
       <c r="M655" s="27"/>
       <c r="N655" s="27"/>
@@ -32488,8 +32610,8 @@
       <c r="G656" s="27"/>
       <c r="H656" s="27"/>
       <c r="I656" s="27"/>
-      <c r="J656" s="36"/>
-      <c r="K656" s="36"/>
+      <c r="J656" s="39"/>
+      <c r="K656" s="39"/>
       <c r="L656" s="27"/>
       <c r="M656" s="27"/>
       <c r="N656" s="27"/>
@@ -32533,8 +32655,8 @@
       <c r="G657" s="27"/>
       <c r="H657" s="27"/>
       <c r="I657" s="27"/>
-      <c r="J657" s="36"/>
-      <c r="K657" s="36"/>
+      <c r="J657" s="39"/>
+      <c r="K657" s="39"/>
       <c r="L657" s="27"/>
       <c r="M657" s="27"/>
       <c r="N657" s="27"/>
@@ -32578,8 +32700,8 @@
       <c r="G658" s="27"/>
       <c r="H658" s="27"/>
       <c r="I658" s="27"/>
-      <c r="J658" s="36"/>
-      <c r="K658" s="36"/>
+      <c r="J658" s="39"/>
+      <c r="K658" s="39"/>
       <c r="L658" s="27"/>
       <c r="M658" s="27"/>
       <c r="N658" s="27"/>
@@ -32623,8 +32745,8 @@
       <c r="G659" s="27"/>
       <c r="H659" s="27"/>
       <c r="I659" s="27"/>
-      <c r="J659" s="36"/>
-      <c r="K659" s="36"/>
+      <c r="J659" s="39"/>
+      <c r="K659" s="39"/>
       <c r="L659" s="27"/>
       <c r="M659" s="27"/>
       <c r="N659" s="27"/>
@@ -32668,8 +32790,8 @@
       <c r="G660" s="27"/>
       <c r="H660" s="27"/>
       <c r="I660" s="27"/>
-      <c r="J660" s="36"/>
-      <c r="K660" s="36"/>
+      <c r="J660" s="39"/>
+      <c r="K660" s="39"/>
       <c r="L660" s="27"/>
       <c r="M660" s="27"/>
       <c r="N660" s="27"/>
@@ -32713,8 +32835,8 @@
       <c r="G661" s="27"/>
       <c r="H661" s="27"/>
       <c r="I661" s="27"/>
-      <c r="J661" s="36"/>
-      <c r="K661" s="36"/>
+      <c r="J661" s="39"/>
+      <c r="K661" s="39"/>
       <c r="L661" s="27"/>
       <c r="M661" s="27"/>
       <c r="N661" s="27"/>
@@ -32758,8 +32880,8 @@
       <c r="G662" s="27"/>
       <c r="H662" s="27"/>
       <c r="I662" s="27"/>
-      <c r="J662" s="36"/>
-      <c r="K662" s="36"/>
+      <c r="J662" s="39"/>
+      <c r="K662" s="39"/>
       <c r="L662" s="27"/>
       <c r="M662" s="27"/>
       <c r="N662" s="27"/>
@@ -32803,8 +32925,8 @@
       <c r="G663" s="27"/>
       <c r="H663" s="27"/>
       <c r="I663" s="27"/>
-      <c r="J663" s="36"/>
-      <c r="K663" s="36"/>
+      <c r="J663" s="39"/>
+      <c r="K663" s="39"/>
       <c r="L663" s="27"/>
       <c r="M663" s="27"/>
       <c r="N663" s="27"/>
@@ -32848,8 +32970,8 @@
       <c r="G664" s="27"/>
       <c r="H664" s="27"/>
       <c r="I664" s="27"/>
-      <c r="J664" s="36"/>
-      <c r="K664" s="36"/>
+      <c r="J664" s="39"/>
+      <c r="K664" s="39"/>
       <c r="L664" s="27"/>
       <c r="M664" s="27"/>
       <c r="N664" s="27"/>
@@ -32893,8 +33015,8 @@
       <c r="G665" s="27"/>
       <c r="H665" s="27"/>
       <c r="I665" s="27"/>
-      <c r="J665" s="36"/>
-      <c r="K665" s="36"/>
+      <c r="J665" s="39"/>
+      <c r="K665" s="39"/>
       <c r="L665" s="27"/>
       <c r="M665" s="27"/>
       <c r="N665" s="27"/>
@@ -32938,8 +33060,8 @@
       <c r="G666" s="27"/>
       <c r="H666" s="27"/>
       <c r="I666" s="27"/>
-      <c r="J666" s="36"/>
-      <c r="K666" s="36"/>
+      <c r="J666" s="39"/>
+      <c r="K666" s="39"/>
       <c r="L666" s="27"/>
       <c r="M666" s="27"/>
       <c r="N666" s="27"/>
@@ -32983,8 +33105,8 @@
       <c r="G667" s="27"/>
       <c r="H667" s="27"/>
       <c r="I667" s="27"/>
-      <c r="J667" s="36"/>
-      <c r="K667" s="36"/>
+      <c r="J667" s="39"/>
+      <c r="K667" s="39"/>
       <c r="L667" s="27"/>
       <c r="M667" s="27"/>
       <c r="N667" s="27"/>
@@ -33028,8 +33150,8 @@
       <c r="G668" s="27"/>
       <c r="H668" s="27"/>
       <c r="I668" s="27"/>
-      <c r="J668" s="36"/>
-      <c r="K668" s="36"/>
+      <c r="J668" s="39"/>
+      <c r="K668" s="39"/>
       <c r="L668" s="27"/>
       <c r="M668" s="27"/>
       <c r="N668" s="27"/>
@@ -33073,8 +33195,8 @@
       <c r="G669" s="27"/>
       <c r="H669" s="27"/>
       <c r="I669" s="27"/>
-      <c r="J669" s="36"/>
-      <c r="K669" s="36"/>
+      <c r="J669" s="39"/>
+      <c r="K669" s="39"/>
       <c r="L669" s="27"/>
       <c r="M669" s="27"/>
       <c r="N669" s="27"/>
@@ -33118,8 +33240,8 @@
       <c r="G670" s="27"/>
       <c r="H670" s="27"/>
       <c r="I670" s="27"/>
-      <c r="J670" s="36"/>
-      <c r="K670" s="36"/>
+      <c r="J670" s="39"/>
+      <c r="K670" s="39"/>
       <c r="L670" s="27"/>
       <c r="M670" s="27"/>
       <c r="N670" s="27"/>
@@ -33163,8 +33285,8 @@
       <c r="G671" s="27"/>
       <c r="H671" s="27"/>
       <c r="I671" s="27"/>
-      <c r="J671" s="36"/>
-      <c r="K671" s="36"/>
+      <c r="J671" s="39"/>
+      <c r="K671" s="39"/>
       <c r="L671" s="27"/>
       <c r="M671" s="27"/>
       <c r="N671" s="27"/>
@@ -33208,8 +33330,8 @@
       <c r="G672" s="27"/>
       <c r="H672" s="27"/>
       <c r="I672" s="27"/>
-      <c r="J672" s="36"/>
-      <c r="K672" s="36"/>
+      <c r="J672" s="39"/>
+      <c r="K672" s="39"/>
       <c r="L672" s="27"/>
       <c r="M672" s="27"/>
       <c r="N672" s="27"/>
@@ -33253,8 +33375,8 @@
       <c r="G673" s="27"/>
       <c r="H673" s="27"/>
       <c r="I673" s="27"/>
-      <c r="J673" s="36"/>
-      <c r="K673" s="36"/>
+      <c r="J673" s="39"/>
+      <c r="K673" s="39"/>
       <c r="L673" s="27"/>
       <c r="M673" s="27"/>
       <c r="N673" s="27"/>
@@ -33298,8 +33420,8 @@
       <c r="G674" s="27"/>
       <c r="H674" s="27"/>
       <c r="I674" s="27"/>
-      <c r="J674" s="36"/>
-      <c r="K674" s="36"/>
+      <c r="J674" s="39"/>
+      <c r="K674" s="39"/>
       <c r="L674" s="27"/>
       <c r="M674" s="27"/>
       <c r="N674" s="27"/>
@@ -33343,8 +33465,8 @@
       <c r="G675" s="27"/>
       <c r="H675" s="27"/>
       <c r="I675" s="27"/>
-      <c r="J675" s="36"/>
-      <c r="K675" s="36"/>
+      <c r="J675" s="39"/>
+      <c r="K675" s="39"/>
       <c r="L675" s="27"/>
       <c r="M675" s="27"/>
       <c r="N675" s="27"/>
@@ -33388,8 +33510,8 @@
       <c r="G676" s="27"/>
       <c r="H676" s="27"/>
       <c r="I676" s="27"/>
-      <c r="J676" s="36"/>
-      <c r="K676" s="36"/>
+      <c r="J676" s="39"/>
+      <c r="K676" s="39"/>
       <c r="L676" s="27"/>
       <c r="M676" s="27"/>
       <c r="N676" s="27"/>
@@ -33433,8 +33555,8 @@
       <c r="G677" s="27"/>
       <c r="H677" s="27"/>
       <c r="I677" s="27"/>
-      <c r="J677" s="36"/>
-      <c r="K677" s="36"/>
+      <c r="J677" s="39"/>
+      <c r="K677" s="39"/>
       <c r="L677" s="27"/>
       <c r="M677" s="27"/>
       <c r="N677" s="27"/>
@@ -33478,8 +33600,8 @@
       <c r="G678" s="27"/>
       <c r="H678" s="27"/>
       <c r="I678" s="27"/>
-      <c r="J678" s="36"/>
-      <c r="K678" s="36"/>
+      <c r="J678" s="39"/>
+      <c r="K678" s="39"/>
       <c r="L678" s="27"/>
       <c r="M678" s="27"/>
       <c r="N678" s="27"/>
@@ -33523,8 +33645,8 @@
       <c r="G679" s="27"/>
       <c r="H679" s="27"/>
       <c r="I679" s="27"/>
-      <c r="J679" s="36"/>
-      <c r="K679" s="36"/>
+      <c r="J679" s="39"/>
+      <c r="K679" s="39"/>
       <c r="L679" s="27"/>
       <c r="M679" s="27"/>
       <c r="N679" s="27"/>
@@ -33568,8 +33690,8 @@
       <c r="G680" s="27"/>
       <c r="H680" s="27"/>
       <c r="I680" s="27"/>
-      <c r="J680" s="36"/>
-      <c r="K680" s="36"/>
+      <c r="J680" s="39"/>
+      <c r="K680" s="39"/>
       <c r="L680" s="27"/>
       <c r="M680" s="27"/>
       <c r="N680" s="27"/>
@@ -33613,8 +33735,8 @@
       <c r="G681" s="27"/>
       <c r="H681" s="27"/>
       <c r="I681" s="27"/>
-      <c r="J681" s="36"/>
-      <c r="K681" s="36"/>
+      <c r="J681" s="39"/>
+      <c r="K681" s="39"/>
       <c r="L681" s="27"/>
       <c r="M681" s="27"/>
       <c r="N681" s="27"/>
@@ -33658,8 +33780,8 @@
       <c r="G682" s="27"/>
       <c r="H682" s="27"/>
       <c r="I682" s="27"/>
-      <c r="J682" s="36"/>
-      <c r="K682" s="36"/>
+      <c r="J682" s="39"/>
+      <c r="K682" s="39"/>
       <c r="L682" s="27"/>
       <c r="M682" s="27"/>
       <c r="N682" s="27"/>
@@ -33703,8 +33825,8 @@
       <c r="G683" s="27"/>
       <c r="H683" s="27"/>
       <c r="I683" s="27"/>
-      <c r="J683" s="36"/>
-      <c r="K683" s="36"/>
+      <c r="J683" s="39"/>
+      <c r="K683" s="39"/>
       <c r="L683" s="27"/>
       <c r="M683" s="27"/>
       <c r="N683" s="27"/>
@@ -33748,8 +33870,8 @@
       <c r="G684" s="27"/>
       <c r="H684" s="27"/>
       <c r="I684" s="27"/>
-      <c r="J684" s="36"/>
-      <c r="K684" s="36"/>
+      <c r="J684" s="39"/>
+      <c r="K684" s="39"/>
       <c r="L684" s="27"/>
       <c r="M684" s="27"/>
       <c r="N684" s="27"/>
@@ -33793,8 +33915,8 @@
       <c r="G685" s="27"/>
       <c r="H685" s="27"/>
       <c r="I685" s="27"/>
-      <c r="J685" s="36"/>
-      <c r="K685" s="36"/>
+      <c r="J685" s="39"/>
+      <c r="K685" s="39"/>
       <c r="L685" s="27"/>
       <c r="M685" s="27"/>
       <c r="N685" s="27"/>
@@ -33838,8 +33960,8 @@
       <c r="G686" s="27"/>
       <c r="H686" s="27"/>
       <c r="I686" s="27"/>
-      <c r="J686" s="36"/>
-      <c r="K686" s="36"/>
+      <c r="J686" s="39"/>
+      <c r="K686" s="39"/>
       <c r="L686" s="27"/>
       <c r="M686" s="27"/>
       <c r="N686" s="27"/>
@@ -33883,8 +34005,8 @@
       <c r="G687" s="27"/>
       <c r="H687" s="27"/>
       <c r="I687" s="27"/>
-      <c r="J687" s="36"/>
-      <c r="K687" s="36"/>
+      <c r="J687" s="39"/>
+      <c r="K687" s="39"/>
       <c r="L687" s="27"/>
       <c r="M687" s="27"/>
       <c r="N687" s="27"/>
@@ -33928,8 +34050,8 @@
       <c r="G688" s="27"/>
       <c r="H688" s="27"/>
       <c r="I688" s="27"/>
-      <c r="J688" s="36"/>
-      <c r="K688" s="36"/>
+      <c r="J688" s="39"/>
+      <c r="K688" s="39"/>
       <c r="L688" s="27"/>
       <c r="M688" s="27"/>
       <c r="N688" s="27"/>
@@ -33973,8 +34095,8 @@
       <c r="G689" s="27"/>
       <c r="H689" s="27"/>
       <c r="I689" s="27"/>
-      <c r="J689" s="36"/>
-      <c r="K689" s="36"/>
+      <c r="J689" s="39"/>
+      <c r="K689" s="39"/>
       <c r="L689" s="27"/>
       <c r="M689" s="27"/>
       <c r="N689" s="27"/>
@@ -34018,8 +34140,8 @@
       <c r="G690" s="27"/>
       <c r="H690" s="27"/>
       <c r="I690" s="27"/>
-      <c r="J690" s="36"/>
-      <c r="K690" s="36"/>
+      <c r="J690" s="39"/>
+      <c r="K690" s="39"/>
       <c r="L690" s="27"/>
       <c r="M690" s="27"/>
       <c r="N690" s="27"/>
@@ -34063,8 +34185,8 @@
       <c r="G691" s="27"/>
       <c r="H691" s="27"/>
       <c r="I691" s="27"/>
-      <c r="J691" s="36"/>
-      <c r="K691" s="36"/>
+      <c r="J691" s="39"/>
+      <c r="K691" s="39"/>
       <c r="L691" s="27"/>
       <c r="M691" s="27"/>
       <c r="N691" s="27"/>
@@ -34108,8 +34230,8 @@
       <c r="G692" s="27"/>
       <c r="H692" s="27"/>
       <c r="I692" s="27"/>
-      <c r="J692" s="36"/>
-      <c r="K692" s="36"/>
+      <c r="J692" s="39"/>
+      <c r="K692" s="39"/>
       <c r="L692" s="27"/>
       <c r="M692" s="27"/>
       <c r="N692" s="27"/>
@@ -34153,8 +34275,8 @@
       <c r="G693" s="27"/>
       <c r="H693" s="27"/>
       <c r="I693" s="27"/>
-      <c r="J693" s="36"/>
-      <c r="K693" s="36"/>
+      <c r="J693" s="39"/>
+      <c r="K693" s="39"/>
       <c r="L693" s="27"/>
       <c r="M693" s="27"/>
       <c r="N693" s="27"/>
@@ -34198,8 +34320,8 @@
       <c r="G694" s="27"/>
       <c r="H694" s="27"/>
       <c r="I694" s="27"/>
-      <c r="J694" s="36"/>
-      <c r="K694" s="36"/>
+      <c r="J694" s="39"/>
+      <c r="K694" s="39"/>
       <c r="L694" s="27"/>
       <c r="M694" s="27"/>
       <c r="N694" s="27"/>
@@ -34243,8 +34365,8 @@
       <c r="G695" s="27"/>
       <c r="H695" s="27"/>
       <c r="I695" s="27"/>
-      <c r="J695" s="36"/>
-      <c r="K695" s="36"/>
+      <c r="J695" s="39"/>
+      <c r="K695" s="39"/>
       <c r="L695" s="27"/>
       <c r="M695" s="27"/>
       <c r="N695" s="27"/>
@@ -34288,8 +34410,8 @@
       <c r="G696" s="27"/>
       <c r="H696" s="27"/>
       <c r="I696" s="27"/>
-      <c r="J696" s="36"/>
-      <c r="K696" s="36"/>
+      <c r="J696" s="39"/>
+      <c r="K696" s="39"/>
       <c r="L696" s="27"/>
       <c r="M696" s="27"/>
       <c r="N696" s="27"/>
@@ -34333,8 +34455,8 @@
       <c r="G697" s="27"/>
       <c r="H697" s="27"/>
       <c r="I697" s="27"/>
-      <c r="J697" s="36"/>
-      <c r="K697" s="36"/>
+      <c r="J697" s="39"/>
+      <c r="K697" s="39"/>
       <c r="L697" s="27"/>
       <c r="M697" s="27"/>
       <c r="N697" s="27"/>
@@ -34378,8 +34500,8 @@
       <c r="G698" s="27"/>
       <c r="H698" s="27"/>
       <c r="I698" s="27"/>
-      <c r="J698" s="36"/>
-      <c r="K698" s="36"/>
+      <c r="J698" s="39"/>
+      <c r="K698" s="39"/>
       <c r="L698" s="27"/>
       <c r="M698" s="27"/>
       <c r="N698" s="27"/>
@@ -34423,8 +34545,8 @@
       <c r="G699" s="27"/>
       <c r="H699" s="27"/>
       <c r="I699" s="27"/>
-      <c r="J699" s="36"/>
-      <c r="K699" s="36"/>
+      <c r="J699" s="39"/>
+      <c r="K699" s="39"/>
       <c r="L699" s="27"/>
       <c r="M699" s="27"/>
       <c r="N699" s="27"/>
@@ -34468,8 +34590,8 @@
       <c r="G700" s="27"/>
       <c r="H700" s="27"/>
       <c r="I700" s="27"/>
-      <c r="J700" s="36"/>
-      <c r="K700" s="36"/>
+      <c r="J700" s="39"/>
+      <c r="K700" s="39"/>
       <c r="L700" s="27"/>
       <c r="M700" s="27"/>
       <c r="N700" s="27"/>
@@ -34513,8 +34635,8 @@
       <c r="G701" s="27"/>
       <c r="H701" s="27"/>
       <c r="I701" s="27"/>
-      <c r="J701" s="36"/>
-      <c r="K701" s="36"/>
+      <c r="J701" s="39"/>
+      <c r="K701" s="39"/>
       <c r="L701" s="27"/>
       <c r="M701" s="27"/>
       <c r="N701" s="27"/>
@@ -34558,8 +34680,8 @@
       <c r="G702" s="27"/>
       <c r="H702" s="27"/>
       <c r="I702" s="27"/>
-      <c r="J702" s="36"/>
-      <c r="K702" s="36"/>
+      <c r="J702" s="39"/>
+      <c r="K702" s="39"/>
       <c r="L702" s="27"/>
       <c r="M702" s="27"/>
       <c r="N702" s="27"/>
@@ -34603,8 +34725,8 @@
       <c r="G703" s="27"/>
       <c r="H703" s="27"/>
       <c r="I703" s="27"/>
-      <c r="J703" s="36"/>
-      <c r="K703" s="36"/>
+      <c r="J703" s="39"/>
+      <c r="K703" s="39"/>
       <c r="L703" s="27"/>
       <c r="M703" s="27"/>
       <c r="N703" s="27"/>
@@ -34648,8 +34770,8 @@
       <c r="G704" s="27"/>
       <c r="H704" s="27"/>
       <c r="I704" s="27"/>
-      <c r="J704" s="36"/>
-      <c r="K704" s="36"/>
+      <c r="J704" s="39"/>
+      <c r="K704" s="39"/>
       <c r="L704" s="27"/>
       <c r="M704" s="27"/>
       <c r="N704" s="27"/>
@@ -34693,8 +34815,8 @@
       <c r="G705" s="27"/>
       <c r="H705" s="27"/>
       <c r="I705" s="27"/>
-      <c r="J705" s="36"/>
-      <c r="K705" s="36"/>
+      <c r="J705" s="39"/>
+      <c r="K705" s="39"/>
       <c r="L705" s="27"/>
       <c r="M705" s="27"/>
       <c r="N705" s="27"/>
@@ -34738,8 +34860,8 @@
       <c r="G706" s="27"/>
       <c r="H706" s="27"/>
       <c r="I706" s="27"/>
-      <c r="J706" s="36"/>
-      <c r="K706" s="36"/>
+      <c r="J706" s="39"/>
+      <c r="K706" s="39"/>
       <c r="L706" s="27"/>
       <c r="M706" s="27"/>
       <c r="N706" s="27"/>
@@ -34783,8 +34905,8 @@
       <c r="G707" s="27"/>
       <c r="H707" s="27"/>
       <c r="I707" s="27"/>
-      <c r="J707" s="36"/>
-      <c r="K707" s="36"/>
+      <c r="J707" s="39"/>
+      <c r="K707" s="39"/>
       <c r="L707" s="27"/>
       <c r="M707" s="27"/>
       <c r="N707" s="27"/>
@@ -34828,8 +34950,8 @@
       <c r="G708" s="27"/>
       <c r="H708" s="27"/>
       <c r="I708" s="27"/>
-      <c r="J708" s="36"/>
-      <c r="K708" s="36"/>
+      <c r="J708" s="39"/>
+      <c r="K708" s="39"/>
       <c r="L708" s="27"/>
       <c r="M708" s="27"/>
       <c r="N708" s="27"/>
@@ -34873,8 +34995,8 @@
       <c r="G709" s="27"/>
       <c r="H709" s="27"/>
       <c r="I709" s="27"/>
-      <c r="J709" s="36"/>
-      <c r="K709" s="36"/>
+      <c r="J709" s="39"/>
+      <c r="K709" s="39"/>
       <c r="L709" s="27"/>
       <c r="M709" s="27"/>
       <c r="N709" s="27"/>
@@ -34918,8 +35040,8 @@
       <c r="G710" s="27"/>
       <c r="H710" s="27"/>
       <c r="I710" s="27"/>
-      <c r="J710" s="36"/>
-      <c r="K710" s="36"/>
+      <c r="J710" s="39"/>
+      <c r="K710" s="39"/>
       <c r="L710" s="27"/>
       <c r="M710" s="27"/>
       <c r="N710" s="27"/>
@@ -34963,8 +35085,8 @@
       <c r="G711" s="27"/>
       <c r="H711" s="27"/>
       <c r="I711" s="27"/>
-      <c r="J711" s="36"/>
-      <c r="K711" s="36"/>
+      <c r="J711" s="39"/>
+      <c r="K711" s="39"/>
       <c r="L711" s="27"/>
       <c r="M711" s="27"/>
       <c r="N711" s="27"/>
@@ -35008,8 +35130,8 @@
       <c r="G712" s="27"/>
       <c r="H712" s="27"/>
       <c r="I712" s="27"/>
-      <c r="J712" s="36"/>
-      <c r="K712" s="36"/>
+      <c r="J712" s="39"/>
+      <c r="K712" s="39"/>
       <c r="L712" s="27"/>
       <c r="M712" s="27"/>
       <c r="N712" s="27"/>
@@ -35053,8 +35175,8 @@
       <c r="G713" s="27"/>
       <c r="H713" s="27"/>
       <c r="I713" s="27"/>
-      <c r="J713" s="36"/>
-      <c r="K713" s="36"/>
+      <c r="J713" s="39"/>
+      <c r="K713" s="39"/>
       <c r="L713" s="27"/>
       <c r="M713" s="27"/>
       <c r="N713" s="27"/>
@@ -35098,8 +35220,8 @@
       <c r="G714" s="27"/>
       <c r="H714" s="27"/>
       <c r="I714" s="27"/>
-      <c r="J714" s="36"/>
-      <c r="K714" s="36"/>
+      <c r="J714" s="39"/>
+      <c r="K714" s="39"/>
       <c r="L714" s="27"/>
       <c r="M714" s="27"/>
       <c r="N714" s="27"/>
@@ -35143,8 +35265,8 @@
       <c r="G715" s="27"/>
       <c r="H715" s="27"/>
       <c r="I715" s="27"/>
-      <c r="J715" s="36"/>
-      <c r="K715" s="36"/>
+      <c r="J715" s="39"/>
+      <c r="K715" s="39"/>
       <c r="L715" s="27"/>
       <c r="M715" s="27"/>
       <c r="N715" s="27"/>
@@ -35188,8 +35310,8 @@
       <c r="G716" s="27"/>
       <c r="H716" s="27"/>
       <c r="I716" s="27"/>
-      <c r="J716" s="36"/>
-      <c r="K716" s="36"/>
+      <c r="J716" s="39"/>
+      <c r="K716" s="39"/>
       <c r="L716" s="27"/>
       <c r="M716" s="27"/>
       <c r="N716" s="27"/>
@@ -35233,8 +35355,8 @@
       <c r="G717" s="27"/>
       <c r="H717" s="27"/>
       <c r="I717" s="27"/>
-      <c r="J717" s="36"/>
-      <c r="K717" s="36"/>
+      <c r="J717" s="39"/>
+      <c r="K717" s="39"/>
       <c r="L717" s="27"/>
       <c r="M717" s="27"/>
       <c r="N717" s="27"/>
@@ -35278,8 +35400,8 @@
       <c r="G718" s="27"/>
       <c r="H718" s="27"/>
       <c r="I718" s="27"/>
-      <c r="J718" s="36"/>
-      <c r="K718" s="36"/>
+      <c r="J718" s="39"/>
+      <c r="K718" s="39"/>
       <c r="L718" s="27"/>
       <c r="M718" s="27"/>
       <c r="N718" s="27"/>
@@ -35323,8 +35445,8 @@
       <c r="G719" s="27"/>
       <c r="H719" s="27"/>
       <c r="I719" s="27"/>
-      <c r="J719" s="36"/>
-      <c r="K719" s="36"/>
+      <c r="J719" s="39"/>
+      <c r="K719" s="39"/>
       <c r="L719" s="27"/>
       <c r="M719" s="27"/>
       <c r="N719" s="27"/>
@@ -35368,8 +35490,8 @@
       <c r="G720" s="27"/>
       <c r="H720" s="27"/>
       <c r="I720" s="27"/>
-      <c r="J720" s="36"/>
-      <c r="K720" s="36"/>
+      <c r="J720" s="39"/>
+      <c r="K720" s="39"/>
       <c r="L720" s="27"/>
       <c r="M720" s="27"/>
       <c r="N720" s="27"/>
@@ -35413,8 +35535,8 @@
       <c r="G721" s="27"/>
       <c r="H721" s="27"/>
       <c r="I721" s="27"/>
-      <c r="J721" s="36"/>
-      <c r="K721" s="36"/>
+      <c r="J721" s="39"/>
+      <c r="K721" s="39"/>
       <c r="L721" s="27"/>
       <c r="M721" s="27"/>
       <c r="N721" s="27"/>
@@ -35458,8 +35580,8 @@
       <c r="G722" s="27"/>
       <c r="H722" s="27"/>
       <c r="I722" s="27"/>
-      <c r="J722" s="36"/>
-      <c r="K722" s="36"/>
+      <c r="J722" s="39"/>
+      <c r="K722" s="39"/>
       <c r="L722" s="27"/>
       <c r="M722" s="27"/>
       <c r="N722" s="27"/>
@@ -35503,8 +35625,8 @@
       <c r="G723" s="27"/>
       <c r="H723" s="27"/>
       <c r="I723" s="27"/>
-      <c r="J723" s="36"/>
-      <c r="K723" s="36"/>
+      <c r="J723" s="39"/>
+      <c r="K723" s="39"/>
       <c r="L723" s="27"/>
       <c r="M723" s="27"/>
       <c r="N723" s="27"/>
@@ -35548,8 +35670,8 @@
       <c r="G724" s="27"/>
       <c r="H724" s="27"/>
       <c r="I724" s="27"/>
-      <c r="J724" s="36"/>
-      <c r="K724" s="36"/>
+      <c r="J724" s="39"/>
+      <c r="K724" s="39"/>
       <c r="L724" s="27"/>
       <c r="M724" s="27"/>
       <c r="N724" s="27"/>
@@ -35593,8 +35715,8 @@
       <c r="G725" s="27"/>
       <c r="H725" s="27"/>
       <c r="I725" s="27"/>
-      <c r="J725" s="36"/>
-      <c r="K725" s="36"/>
+      <c r="J725" s="39"/>
+      <c r="K725" s="39"/>
       <c r="L725" s="27"/>
       <c r="M725" s="27"/>
       <c r="N725" s="27"/>
@@ -35638,8 +35760,8 @@
       <c r="G726" s="27"/>
       <c r="H726" s="27"/>
       <c r="I726" s="27"/>
-      <c r="J726" s="36"/>
-      <c r="K726" s="36"/>
+      <c r="J726" s="39"/>
+      <c r="K726" s="39"/>
       <c r="L726" s="27"/>
       <c r="M726" s="27"/>
       <c r="N726" s="27"/>
@@ -35683,8 +35805,8 @@
       <c r="G727" s="27"/>
       <c r="H727" s="27"/>
       <c r="I727" s="27"/>
-      <c r="J727" s="36"/>
-      <c r="K727" s="36"/>
+      <c r="J727" s="39"/>
+      <c r="K727" s="39"/>
       <c r="L727" s="27"/>
       <c r="M727" s="27"/>
       <c r="N727" s="27"/>
@@ -35728,8 +35850,8 @@
       <c r="G728" s="27"/>
       <c r="H728" s="27"/>
       <c r="I728" s="27"/>
-      <c r="J728" s="36"/>
-      <c r="K728" s="36"/>
+      <c r="J728" s="39"/>
+      <c r="K728" s="39"/>
       <c r="L728" s="27"/>
       <c r="M728" s="27"/>
       <c r="N728" s="27"/>
